--- a/선박, SCFI, KCCI 데이터 파일_Ver2(링카고).xlsx
+++ b/선박, SCFI, KCCI 데이터 파일_Ver2(링카고).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hyunwoo_kim/Desktop/링카고_팀리빌딩 AI/AI파트 데이터 파일/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hyunwoo_kim/Desktop/link-cargo-ai/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F07A2379-401D-784A-A2C4-3CAFD3CFEAD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{253EE796-E4D5-5F42-946D-CCC25693EEE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8420" yWindow="500" windowWidth="24020" windowHeight="31700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="23520" yWindow="500" windowWidth="24020" windowHeight="31700" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="선박 정보" sheetId="15" r:id="rId1"/>
@@ -1585,9 +1585,9 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="돋움"/>
-            <family val="3"/>
+            <family val="2"/>
             <charset val="129"/>
           </rPr>
           <t>전하린</t>
@@ -1596,7 +1596,7 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -1605,7 +1605,7 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -1615,9 +1615,9 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="돋움"/>
-            <family val="3"/>
+            <family val="2"/>
             <charset val="129"/>
           </rPr>
           <t>전체</t>
@@ -1625,7 +1625,7 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -1634,9 +1634,9 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="돋움"/>
-            <family val="3"/>
+            <family val="2"/>
             <charset val="129"/>
           </rPr>
           <t>평균</t>
@@ -2687,7 +2687,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1626" uniqueCount="1268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1718" uniqueCount="1360">
   <si>
     <t>중국발 물동량</t>
   </si>
@@ -6279,9 +6279,6 @@
     <t>835</t>
   </si>
   <si>
-    <t>20221205</t>
-  </si>
-  <si>
     <t>1,582</t>
   </si>
   <si>
@@ -6306,9 +6303,6 @@
     <t>1,569</t>
   </si>
   <si>
-    <t>20221128</t>
-  </si>
-  <si>
     <t>1,623</t>
   </si>
   <si>
@@ -6336,9 +6330,6 @@
     <t>859</t>
   </si>
   <si>
-    <t>20221121</t>
-  </si>
-  <si>
     <t>2,429</t>
   </si>
   <si>
@@ -6375,9 +6366,6 @@
     <t>1,641</t>
   </si>
   <si>
-    <t>20221114</t>
-  </si>
-  <si>
     <t>2,706</t>
   </si>
   <si>
@@ -6415,9 +6403,6 @@
   </si>
   <si>
     <t>1,667</t>
-  </si>
-  <si>
-    <t>20221107</t>
   </si>
   <si>
     <t>5,383</t>
@@ -6907,6 +6892,297 @@
     <t xml:space="preserve">KCCI는 하기 노선운임을 평균내린 지수라고 볼 수 있음. </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>2022-10-21</t>
+  </si>
+  <si>
+    <t>2022-10-28</t>
+  </si>
+  <si>
+    <t>2022-11-04</t>
+  </si>
+  <si>
+    <t>2022-11-11</t>
+  </si>
+  <si>
+    <t>2022-11-18</t>
+  </si>
+  <si>
+    <t>2022-11-25</t>
+  </si>
+  <si>
+    <t>2022-12-02</t>
+  </si>
+  <si>
+    <t>2022-12-09</t>
+  </si>
+  <si>
+    <t>2022-12-16</t>
+  </si>
+  <si>
+    <t>2022-12-23</t>
+  </si>
+  <si>
+    <t>2022-12-30</t>
+  </si>
+  <si>
+    <t>2023-01-06</t>
+  </si>
+  <si>
+    <t>2023-01-13</t>
+  </si>
+  <si>
+    <t>2023-01-20</t>
+  </si>
+  <si>
+    <t>2023-02-03</t>
+  </si>
+  <si>
+    <t>2023-02-10</t>
+  </si>
+  <si>
+    <t>2023-02-17</t>
+  </si>
+  <si>
+    <t>2023-02-24</t>
+  </si>
+  <si>
+    <t>2023-03-03</t>
+  </si>
+  <si>
+    <t>2023-03-10</t>
+  </si>
+  <si>
+    <t>2023-03-17</t>
+  </si>
+  <si>
+    <t>2023-03-24</t>
+  </si>
+  <si>
+    <t>2023-03-31</t>
+  </si>
+  <si>
+    <t>2023-04-07</t>
+  </si>
+  <si>
+    <t>2023-04-14</t>
+  </si>
+  <si>
+    <t>2023-04-21</t>
+  </si>
+  <si>
+    <t>2023-04-28</t>
+  </si>
+  <si>
+    <t>2023-05-05</t>
+  </si>
+  <si>
+    <t>2023-05-12</t>
+  </si>
+  <si>
+    <t>2023-05-19</t>
+  </si>
+  <si>
+    <t>2023-05-26</t>
+  </si>
+  <si>
+    <t>2023-06-02</t>
+  </si>
+  <si>
+    <t>2023-06-09</t>
+  </si>
+  <si>
+    <t>2023-06-16</t>
+  </si>
+  <si>
+    <t>2023-06-21</t>
+  </si>
+  <si>
+    <t>2023-06-30</t>
+  </si>
+  <si>
+    <t>2023-07-07</t>
+  </si>
+  <si>
+    <t>2023-07-14</t>
+  </si>
+  <si>
+    <t>2023-07-21</t>
+  </si>
+  <si>
+    <t>2023-07-28</t>
+  </si>
+  <si>
+    <t>2023-08-04</t>
+  </si>
+  <si>
+    <t>2023-08-11</t>
+  </si>
+  <si>
+    <t>2023-08-18</t>
+  </si>
+  <si>
+    <t>2023-08-25</t>
+  </si>
+  <si>
+    <t>2023-09-01</t>
+  </si>
+  <si>
+    <t>2023-09-08</t>
+  </si>
+  <si>
+    <t>2023-09-15</t>
+  </si>
+  <si>
+    <t>2023-09-22</t>
+  </si>
+  <si>
+    <t>2023-09-29</t>
+  </si>
+  <si>
+    <t>2023-10-13</t>
+  </si>
+  <si>
+    <t>2023-10-20</t>
+  </si>
+  <si>
+    <t>2023-10-27</t>
+  </si>
+  <si>
+    <t>2023-11-03</t>
+  </si>
+  <si>
+    <t>2023-11-10</t>
+  </si>
+  <si>
+    <t>2023-11-17</t>
+  </si>
+  <si>
+    <t>2023-11-24</t>
+  </si>
+  <si>
+    <t>2023-12-01</t>
+  </si>
+  <si>
+    <t>2023-12-08</t>
+  </si>
+  <si>
+    <t>2023-12-15</t>
+  </si>
+  <si>
+    <t>2023-12-22</t>
+  </si>
+  <si>
+    <t>2023-12-29</t>
+  </si>
+  <si>
+    <t>2024-01-05</t>
+  </si>
+  <si>
+    <t>2024-01-12</t>
+  </si>
+  <si>
+    <t>2024-01-19</t>
+  </si>
+  <si>
+    <t>2024-01-26</t>
+  </si>
+  <si>
+    <t>2024-02-02</t>
+  </si>
+  <si>
+    <t>2024-02-09</t>
+  </si>
+  <si>
+    <t>2024-02-23</t>
+  </si>
+  <si>
+    <t>2024-03-01</t>
+  </si>
+  <si>
+    <t>2024-03-08</t>
+  </si>
+  <si>
+    <t>2024-03-15</t>
+  </si>
+  <si>
+    <t>2024-03-22</t>
+  </si>
+  <si>
+    <t>2024-03-29</t>
+  </si>
+  <si>
+    <t>2024-04-03</t>
+  </si>
+  <si>
+    <t>2024-04-12</t>
+  </si>
+  <si>
+    <t>2024-04-19</t>
+  </si>
+  <si>
+    <t>2024-04-26</t>
+  </si>
+  <si>
+    <t>2024-05-10</t>
+  </si>
+  <si>
+    <t>2024-05-17</t>
+  </si>
+  <si>
+    <t>2024-05-24</t>
+  </si>
+  <si>
+    <t>2024-05-31</t>
+  </si>
+  <si>
+    <t>2024-06-07</t>
+  </si>
+  <si>
+    <t>2024-06-14</t>
+  </si>
+  <si>
+    <t>2024-06-21</t>
+  </si>
+  <si>
+    <t>2024-06-28</t>
+  </si>
+  <si>
+    <t>2024-07-05</t>
+  </si>
+  <si>
+    <t>2024-07-12</t>
+  </si>
+  <si>
+    <t>2024-07-19</t>
+  </si>
+  <si>
+    <t>2024-07-26</t>
+  </si>
+  <si>
+    <t>2024-08-02</t>
+  </si>
+  <si>
+    <t>2024-08-09</t>
+  </si>
+  <si>
+    <t>2024-08-16</t>
+  </si>
+  <si>
+    <t>2024-08-23</t>
+  </si>
+  <si>
+    <t>2024-08-30</t>
+  </si>
+  <si>
+    <t>2024-09-06</t>
+  </si>
+  <si>
+    <t>2024-09-13</t>
+  </si>
+  <si>
+    <t>2024-09-20</t>
+  </si>
 </sst>
 </file>
 
@@ -6922,7 +7198,7 @@
     <numFmt numFmtId="182" formatCode="0_ "/>
     <numFmt numFmtId="183" formatCode="yyyy&quot;/&quot;m&quot;/&quot;d;@"/>
   </numFmts>
-  <fonts count="34">
+  <fonts count="38">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -7163,6 +7439,34 @@
       <color theme="0" tint="-0.249977111117893"/>
       <name val="arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="돋움"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="돋움"/>
+      <family val="2"/>
+      <charset val="129"/>
     </font>
   </fonts>
   <fills count="15">
@@ -7471,7 +7775,7 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="95">
+  <cellXfs count="99">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -7696,6 +8000,9 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="181" fontId="33" fillId="0" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="183" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="26" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -7709,6 +8016,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="4"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -40203,8 +40513,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71D352F6-0B08-479E-81F1-344B42B21AA3}">
   <dimension ref="A1:H842"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="107" workbookViewId="0">
-      <selection activeCell="I59" sqref="I59"/>
+    <sheetView zoomScale="107" workbookViewId="0">
+      <selection activeCell="H25" sqref="H25:H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
@@ -46373,8 +46683,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:E28"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView zoomScale="118" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
@@ -46384,16 +46694,16 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" ht="21.75" customHeight="1">
-      <c r="B2" s="90" t="s">
-        <v>1240</v>
-      </c>
-      <c r="C2" s="90"/>
-      <c r="D2" s="90"/>
-      <c r="E2" s="90"/>
+      <c r="B2" s="91" t="s">
+        <v>1235</v>
+      </c>
+      <c r="C2" s="91"/>
+      <c r="D2" s="91"/>
+      <c r="E2" s="91"/>
     </row>
     <row r="3" spans="2:5">
       <c r="B3" s="83" t="s">
-        <v>1241</v>
+        <v>1236</v>
       </c>
       <c r="C3" s="83"/>
       <c r="D3" s="83"/>
@@ -46401,7 +46711,7 @@
     </row>
     <row r="4" spans="2:5">
       <c r="B4" s="83" t="s">
-        <v>1242</v>
+        <v>1237</v>
       </c>
       <c r="C4" s="83"/>
       <c r="D4" s="83"/>
@@ -46409,7 +46719,7 @@
     </row>
     <row r="5" spans="2:5">
       <c r="B5" s="83" t="s">
-        <v>1243</v>
+        <v>1238</v>
       </c>
       <c r="C5" s="83"/>
       <c r="D5" s="83"/>
@@ -46417,7 +46727,7 @@
     </row>
     <row r="6" spans="2:5">
       <c r="B6" s="83" t="s">
-        <v>1238</v>
+        <v>1233</v>
       </c>
       <c r="C6" s="83"/>
       <c r="D6" s="83"/>
@@ -46425,7 +46735,7 @@
     </row>
     <row r="7" spans="2:5">
       <c r="B7" s="83" t="s">
-        <v>1239</v>
+        <v>1234</v>
       </c>
       <c r="C7" s="83"/>
       <c r="D7" s="83"/>
@@ -46439,7 +46749,7 @@
     </row>
     <row r="9" spans="2:5">
       <c r="B9" s="87" t="s">
-        <v>1262</v>
+        <v>1257</v>
       </c>
       <c r="C9" s="45"/>
       <c r="D9" s="45"/>
@@ -46447,7 +46757,7 @@
     </row>
     <row r="12" spans="2:5">
       <c r="B12" s="84" t="s">
-        <v>1244</v>
+        <v>1239</v>
       </c>
       <c r="C12" s="45"/>
       <c r="D12" s="45"/>
@@ -46455,7 +46765,7 @@
     </row>
     <row r="13" spans="2:5">
       <c r="B13" s="46" t="s">
-        <v>1245</v>
+        <v>1240</v>
       </c>
       <c r="C13" s="45"/>
       <c r="D13" s="45"/>
@@ -46678,13 +46988,13 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:7" ht="48.75" customHeight="1">
-      <c r="B3" s="92" t="s">
+      <c r="B3" s="93" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="92"/>
-      <c r="D3" s="92"/>
-      <c r="E3" s="92"/>
-      <c r="F3" s="92"/>
+      <c r="C3" s="93"/>
+      <c r="D3" s="93"/>
+      <c r="E3" s="93"/>
+      <c r="F3" s="93"/>
     </row>
     <row r="4" spans="2:7" ht="18">
       <c r="B4" s="5" t="s">
@@ -46705,7 +47015,7 @@
       <c r="G4" s="7"/>
     </row>
     <row r="5" spans="2:7" ht="15" customHeight="1">
-      <c r="B5" s="91" t="s">
+      <c r="B5" s="92" t="s">
         <v>21</v>
       </c>
       <c r="C5" s="3" t="s">
@@ -46720,7 +47030,7 @@
       <c r="F5" s="4"/>
     </row>
     <row r="6" spans="2:7" ht="18">
-      <c r="B6" s="91"/>
+      <c r="B6" s="92"/>
       <c r="C6" s="1" t="s">
         <v>0</v>
       </c>
@@ -46733,7 +47043,7 @@
       <c r="F6" s="4"/>
     </row>
     <row r="7" spans="2:7" ht="18">
-      <c r="B7" s="91"/>
+      <c r="B7" s="92"/>
       <c r="C7" s="1" t="s">
         <v>77</v>
       </c>
@@ -46746,7 +47056,7 @@
       <c r="F7" s="4"/>
     </row>
     <row r="8" spans="2:7" ht="18">
-      <c r="B8" s="91"/>
+      <c r="B8" s="92"/>
       <c r="C8" s="1" t="s">
         <v>6</v>
       </c>
@@ -46759,7 +47069,7 @@
       <c r="F8" s="4"/>
     </row>
     <row r="9" spans="2:7" ht="18">
-      <c r="B9" s="91"/>
+      <c r="B9" s="92"/>
       <c r="C9" s="1" t="s">
         <v>7</v>
       </c>
@@ -46772,7 +47082,7 @@
       <c r="F9" s="4"/>
     </row>
     <row r="10" spans="2:7" ht="18">
-      <c r="B10" s="91"/>
+      <c r="B10" s="92"/>
       <c r="C10" s="1" t="s">
         <v>8</v>
       </c>
@@ -46785,7 +47095,7 @@
       <c r="F10" s="4"/>
     </row>
     <row r="11" spans="2:7" ht="18">
-      <c r="B11" s="91"/>
+      <c r="B11" s="92"/>
       <c r="C11" s="1" t="s">
         <v>9</v>
       </c>
@@ -46798,7 +47108,7 @@
       <c r="F11" s="4"/>
     </row>
     <row r="12" spans="2:7" ht="18">
-      <c r="B12" s="91"/>
+      <c r="B12" s="92"/>
       <c r="C12" s="1" t="s">
         <v>5</v>
       </c>
@@ -46811,7 +47121,7 @@
       <c r="F12" s="4"/>
     </row>
     <row r="13" spans="2:7" hidden="1">
-      <c r="B13" s="91" t="s">
+      <c r="B13" s="92" t="s">
         <v>19</v>
       </c>
       <c r="C13" s="4" t="s">
@@ -46828,7 +47138,7 @@
       </c>
     </row>
     <row r="14" spans="2:7" hidden="1">
-      <c r="B14" s="91"/>
+      <c r="B14" s="92"/>
       <c r="C14" s="4" t="s">
         <v>11</v>
       </c>
@@ -46843,7 +47153,7 @@
       </c>
     </row>
     <row r="15" spans="2:7" hidden="1">
-      <c r="B15" s="91"/>
+      <c r="B15" s="92"/>
       <c r="C15" s="4" t="s">
         <v>12</v>
       </c>
@@ -46858,7 +47168,7 @@
       </c>
     </row>
     <row r="16" spans="2:7" hidden="1">
-      <c r="B16" s="91"/>
+      <c r="B16" s="92"/>
       <c r="C16" s="4" t="s">
         <v>13</v>
       </c>
@@ -46909,7 +47219,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="93" t="s">
+      <c r="A1" s="94" t="s">
         <v>31</v>
       </c>
       <c r="B1" s="8" t="s">
@@ -46923,7 +47233,7 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="18">
-      <c r="A2" s="93"/>
+      <c r="A2" s="94"/>
       <c r="B2" s="10" t="s">
         <v>32</v>
       </c>
@@ -48982,11 +49292,11 @@
       </c>
     </row>
     <row r="2" spans="1:14">
-      <c r="A2" s="94" t="s">
+      <c r="A2" s="95" t="s">
         <v>41</v>
       </c>
-      <c r="B2" s="94"/>
-      <c r="C2" s="94"/>
+      <c r="B2" s="95"/>
+      <c r="C2" s="95"/>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="32"/>
@@ -52737,10 +53047,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B654382D-D324-4024-9F1B-CF20A68CE157}">
-  <dimension ref="A1:Q445"/>
+  <dimension ref="A1:Q542"/>
   <sheetViews>
-    <sheetView topLeftCell="A298" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B355" sqref="B355"/>
+    <sheetView tabSelected="1" topLeftCell="A483" zoomScale="125" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B446" sqref="B446:B542"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
@@ -52751,52 +53061,52 @@
   <sheetData>
     <row r="1" spans="1:17" ht="48">
       <c r="B1" t="s">
+        <v>1241</v>
+      </c>
+      <c r="C1" s="85" t="s">
+        <v>1242</v>
+      </c>
+      <c r="D1" s="85" t="s">
+        <v>1243</v>
+      </c>
+      <c r="E1" s="85" t="s">
+        <v>1244</v>
+      </c>
+      <c r="F1" s="85" t="s">
+        <v>1245</v>
+      </c>
+      <c r="G1" s="85" t="s">
         <v>1246</v>
       </c>
-      <c r="C1" s="85" t="s">
+      <c r="H1" s="85" t="s">
         <v>1247</v>
       </c>
-      <c r="D1" s="85" t="s">
+      <c r="I1" s="85" t="s">
         <v>1248</v>
       </c>
-      <c r="E1" s="85" t="s">
+      <c r="J1" s="85" t="s">
         <v>1249</v>
       </c>
-      <c r="F1" s="85" t="s">
+      <c r="K1" s="85" t="s">
         <v>1250</v>
       </c>
-      <c r="G1" s="85" t="s">
+      <c r="L1" s="85" t="s">
         <v>1251</v>
       </c>
-      <c r="H1" s="85" t="s">
+      <c r="M1" s="85" t="s">
         <v>1252</v>
       </c>
-      <c r="I1" s="85" t="s">
+      <c r="N1" s="85" t="s">
         <v>1253</v>
       </c>
-      <c r="J1" s="85" t="s">
+      <c r="O1" s="86" t="s">
         <v>1254</v>
       </c>
-      <c r="K1" s="85" t="s">
+      <c r="P1" s="86" t="s">
         <v>1255</v>
       </c>
-      <c r="L1" s="85" t="s">
+      <c r="Q1" s="86" t="s">
         <v>1256</v>
-      </c>
-      <c r="M1" s="85" t="s">
-        <v>1257</v>
-      </c>
-      <c r="N1" s="85" t="s">
-        <v>1258</v>
-      </c>
-      <c r="O1" s="86" t="s">
-        <v>1259</v>
-      </c>
-      <c r="P1" s="86" t="s">
-        <v>1260</v>
-      </c>
-      <c r="Q1" s="86" t="s">
-        <v>1261</v>
       </c>
     </row>
     <row r="2" spans="1:17" s="52" customFormat="1">
@@ -75258,6 +75568,782 @@
       </c>
       <c r="P445" s="55"/>
       <c r="Q445" s="55"/>
+    </row>
+    <row r="446" spans="1:17">
+      <c r="A446" s="45" t="s">
+        <v>1263</v>
+      </c>
+      <c r="B446" s="97">
+        <v>1778.69</v>
+      </c>
+    </row>
+    <row r="447" spans="1:17">
+      <c r="A447" s="45" t="s">
+        <v>1264</v>
+      </c>
+      <c r="B447" s="97">
+        <v>1697.65</v>
+      </c>
+    </row>
+    <row r="448" spans="1:17">
+      <c r="A448" s="45" t="s">
+        <v>1265</v>
+      </c>
+      <c r="B448" s="97">
+        <v>1579.21</v>
+      </c>
+    </row>
+    <row r="449" spans="1:2">
+      <c r="A449" s="45" t="s">
+        <v>1266</v>
+      </c>
+      <c r="B449" s="97">
+        <v>1443.29</v>
+      </c>
+    </row>
+    <row r="450" spans="1:2">
+      <c r="A450" s="45" t="s">
+        <v>1267</v>
+      </c>
+      <c r="B450" s="97">
+        <v>1306.8399999999999</v>
+      </c>
+    </row>
+    <row r="451" spans="1:2">
+      <c r="A451" s="45" t="s">
+        <v>1268</v>
+      </c>
+      <c r="B451" s="97">
+        <v>1229.9000000000001</v>
+      </c>
+    </row>
+    <row r="452" spans="1:2">
+      <c r="A452" s="45" t="s">
+        <v>1269</v>
+      </c>
+      <c r="B452" s="97">
+        <v>1171.3599999999999</v>
+      </c>
+    </row>
+    <row r="453" spans="1:2">
+      <c r="A453" s="45" t="s">
+        <v>1270</v>
+      </c>
+      <c r="B453" s="97">
+        <v>1138.0899999999999</v>
+      </c>
+    </row>
+    <row r="454" spans="1:2">
+      <c r="A454" s="45" t="s">
+        <v>1271</v>
+      </c>
+      <c r="B454" s="97">
+        <v>1123.29</v>
+      </c>
+    </row>
+    <row r="455" spans="1:2">
+      <c r="A455" s="45" t="s">
+        <v>1272</v>
+      </c>
+      <c r="B455" s="97">
+        <v>1107.0899999999999</v>
+      </c>
+    </row>
+    <row r="456" spans="1:2">
+      <c r="A456" s="45" t="s">
+        <v>1273</v>
+      </c>
+      <c r="B456" s="97">
+        <v>1107.55</v>
+      </c>
+    </row>
+    <row r="457" spans="1:2">
+      <c r="A457" s="45" t="s">
+        <v>1274</v>
+      </c>
+      <c r="B457" s="97">
+        <v>1061.1400000000001</v>
+      </c>
+    </row>
+    <row r="458" spans="1:2">
+      <c r="A458" s="45" t="s">
+        <v>1275</v>
+      </c>
+      <c r="B458" s="97">
+        <v>1031.42</v>
+      </c>
+    </row>
+    <row r="459" spans="1:2">
+      <c r="A459" s="45" t="s">
+        <v>1276</v>
+      </c>
+      <c r="B459" s="97">
+        <v>1029.75</v>
+      </c>
+    </row>
+    <row r="460" spans="1:2">
+      <c r="A460" s="45" t="s">
+        <v>1277</v>
+      </c>
+      <c r="B460" s="97">
+        <v>1006.89</v>
+      </c>
+    </row>
+    <row r="461" spans="1:2">
+      <c r="A461" s="45" t="s">
+        <v>1278</v>
+      </c>
+      <c r="B461" s="96">
+        <v>995.16</v>
+      </c>
+    </row>
+    <row r="462" spans="1:2">
+      <c r="A462" s="45" t="s">
+        <v>1279</v>
+      </c>
+      <c r="B462" s="96">
+        <v>974.66</v>
+      </c>
+    </row>
+    <row r="463" spans="1:2">
+      <c r="A463" s="45" t="s">
+        <v>1280</v>
+      </c>
+      <c r="B463" s="96">
+        <v>946.68</v>
+      </c>
+    </row>
+    <row r="464" spans="1:2">
+      <c r="A464" s="45" t="s">
+        <v>1281</v>
+      </c>
+      <c r="B464" s="96">
+        <v>931.08</v>
+      </c>
+    </row>
+    <row r="465" spans="1:2">
+      <c r="A465" s="45" t="s">
+        <v>1282</v>
+      </c>
+      <c r="B465" s="96">
+        <v>906.55</v>
+      </c>
+    </row>
+    <row r="466" spans="1:2">
+      <c r="A466" s="45" t="s">
+        <v>1283</v>
+      </c>
+      <c r="B466" s="96">
+        <v>909.72</v>
+      </c>
+    </row>
+    <row r="467" spans="1:2">
+      <c r="A467" s="45" t="s">
+        <v>1284</v>
+      </c>
+      <c r="B467" s="96">
+        <v>908.35</v>
+      </c>
+    </row>
+    <row r="468" spans="1:2">
+      <c r="A468" s="45" t="s">
+        <v>1285</v>
+      </c>
+      <c r="B468" s="96">
+        <v>923.78</v>
+      </c>
+    </row>
+    <row r="469" spans="1:2">
+      <c r="A469" s="45" t="s">
+        <v>1286</v>
+      </c>
+      <c r="B469" s="96">
+        <v>956.93</v>
+      </c>
+    </row>
+    <row r="470" spans="1:2">
+      <c r="A470" s="45" t="s">
+        <v>1287</v>
+      </c>
+      <c r="B470" s="97">
+        <v>1033.6500000000001</v>
+      </c>
+    </row>
+    <row r="471" spans="1:2">
+      <c r="A471" s="45" t="s">
+        <v>1288</v>
+      </c>
+      <c r="B471" s="97">
+        <v>1037.07</v>
+      </c>
+    </row>
+    <row r="472" spans="1:2">
+      <c r="A472" s="45" t="s">
+        <v>1289</v>
+      </c>
+      <c r="B472" s="96">
+        <v>999.73</v>
+      </c>
+    </row>
+    <row r="473" spans="1:2">
+      <c r="A473" s="45" t="s">
+        <v>1290</v>
+      </c>
+      <c r="B473" s="96">
+        <v>998.29</v>
+      </c>
+    </row>
+    <row r="474" spans="1:2">
+      <c r="A474" s="45" t="s">
+        <v>1291</v>
+      </c>
+      <c r="B474" s="96">
+        <v>983.41</v>
+      </c>
+    </row>
+    <row r="475" spans="1:2">
+      <c r="A475" s="45" t="s">
+        <v>1292</v>
+      </c>
+      <c r="B475" s="96">
+        <v>972.45</v>
+      </c>
+    </row>
+    <row r="476" spans="1:2">
+      <c r="A476" s="45" t="s">
+        <v>1293</v>
+      </c>
+      <c r="B476" s="96">
+        <v>983.46</v>
+      </c>
+    </row>
+    <row r="477" spans="1:2">
+      <c r="A477" s="45" t="s">
+        <v>1294</v>
+      </c>
+      <c r="B477" s="97">
+        <v>1028.7</v>
+      </c>
+    </row>
+    <row r="478" spans="1:2">
+      <c r="A478" s="45" t="s">
+        <v>1295</v>
+      </c>
+      <c r="B478" s="96">
+        <v>979.85</v>
+      </c>
+    </row>
+    <row r="479" spans="1:2">
+      <c r="A479" s="45" t="s">
+        <v>1296</v>
+      </c>
+      <c r="B479" s="96">
+        <v>934.31</v>
+      </c>
+    </row>
+    <row r="480" spans="1:2">
+      <c r="A480" s="45" t="s">
+        <v>1297</v>
+      </c>
+      <c r="B480" s="96">
+        <v>924.29</v>
+      </c>
+    </row>
+    <row r="481" spans="1:2">
+      <c r="A481" s="45" t="s">
+        <v>1298</v>
+      </c>
+      <c r="B481" s="96">
+        <v>953.6</v>
+      </c>
+    </row>
+    <row r="482" spans="1:2">
+      <c r="A482" s="45" t="s">
+        <v>1299</v>
+      </c>
+      <c r="B482" s="96">
+        <v>931.73</v>
+      </c>
+    </row>
+    <row r="483" spans="1:2">
+      <c r="A483" s="45" t="s">
+        <v>1300</v>
+      </c>
+      <c r="B483" s="96">
+        <v>979.11</v>
+      </c>
+    </row>
+    <row r="484" spans="1:2">
+      <c r="A484" s="45" t="s">
+        <v>1301</v>
+      </c>
+      <c r="B484" s="96">
+        <v>966.45</v>
+      </c>
+    </row>
+    <row r="485" spans="1:2">
+      <c r="A485" s="45" t="s">
+        <v>1302</v>
+      </c>
+      <c r="B485" s="97">
+        <v>1029.23</v>
+      </c>
+    </row>
+    <row r="486" spans="1:2">
+      <c r="A486" s="45" t="s">
+        <v>1303</v>
+      </c>
+      <c r="B486" s="97">
+        <v>1039.32</v>
+      </c>
+    </row>
+    <row r="487" spans="1:2">
+      <c r="A487" s="45" t="s">
+        <v>1304</v>
+      </c>
+      <c r="B487" s="97">
+        <v>1043.54</v>
+      </c>
+    </row>
+    <row r="488" spans="1:2">
+      <c r="A488" s="45" t="s">
+        <v>1305</v>
+      </c>
+      <c r="B488" s="98">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="489" spans="1:2">
+      <c r="A489" s="45" t="s">
+        <v>1306</v>
+      </c>
+      <c r="B489" s="97">
+        <v>1013.78</v>
+      </c>
+    </row>
+    <row r="490" spans="1:2">
+      <c r="A490" s="45" t="s">
+        <v>1307</v>
+      </c>
+      <c r="B490" s="97">
+        <v>1033.67</v>
+      </c>
+    </row>
+    <row r="491" spans="1:2">
+      <c r="A491" s="45" t="s">
+        <v>1308</v>
+      </c>
+      <c r="B491" s="96">
+        <v>999.25</v>
+      </c>
+    </row>
+    <row r="492" spans="1:2">
+      <c r="A492" s="45" t="s">
+        <v>1309</v>
+      </c>
+      <c r="B492" s="96">
+        <v>948.68</v>
+      </c>
+    </row>
+    <row r="493" spans="1:2">
+      <c r="A493" s="45" t="s">
+        <v>1310</v>
+      </c>
+      <c r="B493" s="96">
+        <v>911.71</v>
+      </c>
+    </row>
+    <row r="494" spans="1:2">
+      <c r="A494" s="45" t="s">
+        <v>1311</v>
+      </c>
+      <c r="B494" s="96">
+        <v>886.85</v>
+      </c>
+    </row>
+    <row r="495" spans="1:2">
+      <c r="A495" s="45" t="s">
+        <v>1312</v>
+      </c>
+      <c r="B495" s="96">
+        <v>891.55</v>
+      </c>
+    </row>
+    <row r="496" spans="1:2">
+      <c r="A496" s="45" t="s">
+        <v>1313</v>
+      </c>
+      <c r="B496" s="96">
+        <v>917.66</v>
+      </c>
+    </row>
+    <row r="497" spans="1:2">
+      <c r="A497" s="45" t="s">
+        <v>1314</v>
+      </c>
+      <c r="B497" s="97">
+        <v>1012.6</v>
+      </c>
+    </row>
+    <row r="498" spans="1:2">
+      <c r="A498" s="45" t="s">
+        <v>1315</v>
+      </c>
+      <c r="B498" s="97">
+        <v>1067.8800000000001</v>
+      </c>
+    </row>
+    <row r="499" spans="1:2">
+      <c r="A499" s="45" t="s">
+        <v>1316</v>
+      </c>
+      <c r="B499" s="97">
+        <v>1030.24</v>
+      </c>
+    </row>
+    <row r="500" spans="1:2">
+      <c r="A500" s="45" t="s">
+        <v>1317</v>
+      </c>
+      <c r="B500" s="96">
+        <v>999.92</v>
+      </c>
+    </row>
+    <row r="501" spans="1:2">
+      <c r="A501" s="45" t="s">
+        <v>1318</v>
+      </c>
+      <c r="B501" s="96">
+        <v>993.21</v>
+      </c>
+    </row>
+    <row r="502" spans="1:2">
+      <c r="A502" s="45" t="s">
+        <v>1319</v>
+      </c>
+      <c r="B502" s="97">
+        <v>1010.81</v>
+      </c>
+    </row>
+    <row r="503" spans="1:2">
+      <c r="A503" s="45" t="s">
+        <v>1320</v>
+      </c>
+      <c r="B503" s="97">
+        <v>1032.21</v>
+      </c>
+    </row>
+    <row r="504" spans="1:2">
+      <c r="A504" s="45" t="s">
+        <v>1321</v>
+      </c>
+      <c r="B504" s="97">
+        <v>1093.52</v>
+      </c>
+    </row>
+    <row r="505" spans="1:2">
+      <c r="A505" s="45" t="s">
+        <v>1322</v>
+      </c>
+      <c r="B505" s="97">
+        <v>1254.99</v>
+      </c>
+    </row>
+    <row r="506" spans="1:2">
+      <c r="A506" s="45" t="s">
+        <v>1323</v>
+      </c>
+      <c r="B506" s="97">
+        <v>1759.57</v>
+      </c>
+    </row>
+    <row r="507" spans="1:2">
+      <c r="A507" s="45" t="s">
+        <v>1324</v>
+      </c>
+      <c r="B507" s="97">
+        <v>1896.65</v>
+      </c>
+    </row>
+    <row r="508" spans="1:2">
+      <c r="A508" s="45" t="s">
+        <v>1325</v>
+      </c>
+      <c r="B508" s="97">
+        <v>2206.0300000000002</v>
+      </c>
+    </row>
+    <row r="509" spans="1:2">
+      <c r="A509" s="45" t="s">
+        <v>1326</v>
+      </c>
+      <c r="B509" s="97">
+        <v>2239.61</v>
+      </c>
+    </row>
+    <row r="510" spans="1:2">
+      <c r="A510" s="45" t="s">
+        <v>1327</v>
+      </c>
+      <c r="B510" s="97">
+        <v>2179.09</v>
+      </c>
+    </row>
+    <row r="511" spans="1:2">
+      <c r="A511" s="45" t="s">
+        <v>1328</v>
+      </c>
+      <c r="B511" s="97">
+        <v>2217.73</v>
+      </c>
+    </row>
+    <row r="512" spans="1:2">
+      <c r="A512" s="45" t="s">
+        <v>1329</v>
+      </c>
+      <c r="B512" s="97">
+        <v>2166.31</v>
+      </c>
+    </row>
+    <row r="513" spans="1:2">
+      <c r="A513" s="45" t="s">
+        <v>1330</v>
+      </c>
+      <c r="B513" s="97">
+        <v>2109.91</v>
+      </c>
+    </row>
+    <row r="514" spans="1:2">
+      <c r="A514" s="45" t="s">
+        <v>1331</v>
+      </c>
+      <c r="B514" s="97">
+        <v>1979.12</v>
+      </c>
+    </row>
+    <row r="515" spans="1:2">
+      <c r="A515" s="45" t="s">
+        <v>1332</v>
+      </c>
+      <c r="B515" s="97">
+        <v>1885.74</v>
+      </c>
+    </row>
+    <row r="516" spans="1:2">
+      <c r="A516" s="45" t="s">
+        <v>1333</v>
+      </c>
+      <c r="B516" s="97">
+        <v>1772.92</v>
+      </c>
+    </row>
+    <row r="517" spans="1:2">
+      <c r="A517" s="45" t="s">
+        <v>1334</v>
+      </c>
+      <c r="B517" s="97">
+        <v>1732.57</v>
+      </c>
+    </row>
+    <row r="518" spans="1:2">
+      <c r="A518" s="45" t="s">
+        <v>1335</v>
+      </c>
+      <c r="B518" s="97">
+        <v>1730.98</v>
+      </c>
+    </row>
+    <row r="519" spans="1:2">
+      <c r="A519" s="45" t="s">
+        <v>1336</v>
+      </c>
+      <c r="B519" s="97">
+        <v>1745.43</v>
+      </c>
+    </row>
+    <row r="520" spans="1:2">
+      <c r="A520" s="45" t="s">
+        <v>1337</v>
+      </c>
+      <c r="B520" s="97">
+        <v>1757.04</v>
+      </c>
+    </row>
+    <row r="521" spans="1:2">
+      <c r="A521" s="45" t="s">
+        <v>1338</v>
+      </c>
+      <c r="B521" s="97">
+        <v>1769.54</v>
+      </c>
+    </row>
+    <row r="522" spans="1:2">
+      <c r="A522" s="45" t="s">
+        <v>1339</v>
+      </c>
+      <c r="B522" s="97">
+        <v>1940.63</v>
+      </c>
+    </row>
+    <row r="523" spans="1:2">
+      <c r="A523" s="45" t="s">
+        <v>1340</v>
+      </c>
+      <c r="B523" s="97">
+        <v>2305.79</v>
+      </c>
+    </row>
+    <row r="524" spans="1:2">
+      <c r="A524" s="45" t="s">
+        <v>1341</v>
+      </c>
+      <c r="B524" s="97">
+        <v>2520.7600000000002</v>
+      </c>
+    </row>
+    <row r="525" spans="1:2">
+      <c r="A525" s="45" t="s">
+        <v>1342</v>
+      </c>
+      <c r="B525" s="97">
+        <v>2703.43</v>
+      </c>
+    </row>
+    <row r="526" spans="1:2">
+      <c r="A526" s="45" t="s">
+        <v>1343</v>
+      </c>
+      <c r="B526" s="97">
+        <v>3044.77</v>
+      </c>
+    </row>
+    <row r="527" spans="1:2">
+      <c r="A527" s="45" t="s">
+        <v>1344</v>
+      </c>
+      <c r="B527" s="97">
+        <v>3184.87</v>
+      </c>
+    </row>
+    <row r="528" spans="1:2">
+      <c r="A528" s="45" t="s">
+        <v>1345</v>
+      </c>
+      <c r="B528" s="97">
+        <v>3379.22</v>
+      </c>
+    </row>
+    <row r="529" spans="1:2">
+      <c r="A529" s="45" t="s">
+        <v>1346</v>
+      </c>
+      <c r="B529" s="97">
+        <v>3475.6</v>
+      </c>
+    </row>
+    <row r="530" spans="1:2">
+      <c r="A530" s="45" t="s">
+        <v>1347</v>
+      </c>
+      <c r="B530" s="97">
+        <v>3714.32</v>
+      </c>
+    </row>
+    <row r="531" spans="1:2">
+      <c r="A531" s="45" t="s">
+        <v>1348</v>
+      </c>
+      <c r="B531" s="97">
+        <v>3733.8</v>
+      </c>
+    </row>
+    <row r="532" spans="1:2">
+      <c r="A532" s="45" t="s">
+        <v>1349</v>
+      </c>
+      <c r="B532" s="97">
+        <v>3674.86</v>
+      </c>
+    </row>
+    <row r="533" spans="1:2">
+      <c r="A533" s="45" t="s">
+        <v>1350</v>
+      </c>
+      <c r="B533" s="97">
+        <v>3542.44</v>
+      </c>
+    </row>
+    <row r="534" spans="1:2">
+      <c r="A534" s="45" t="s">
+        <v>1351</v>
+      </c>
+      <c r="B534" s="97">
+        <v>3447.87</v>
+      </c>
+    </row>
+    <row r="535" spans="1:2">
+      <c r="A535" s="45" t="s">
+        <v>1352</v>
+      </c>
+      <c r="B535" s="97">
+        <v>3332.67</v>
+      </c>
+    </row>
+    <row r="536" spans="1:2">
+      <c r="A536" s="45" t="s">
+        <v>1353</v>
+      </c>
+      <c r="B536" s="97">
+        <v>3253.89</v>
+      </c>
+    </row>
+    <row r="537" spans="1:2">
+      <c r="A537" s="45" t="s">
+        <v>1354</v>
+      </c>
+      <c r="B537" s="97">
+        <v>3281.36</v>
+      </c>
+    </row>
+    <row r="538" spans="1:2">
+      <c r="A538" s="45" t="s">
+        <v>1355</v>
+      </c>
+      <c r="B538" s="97">
+        <v>3097.63</v>
+      </c>
+    </row>
+    <row r="539" spans="1:2">
+      <c r="A539" s="45" t="s">
+        <v>1356</v>
+      </c>
+      <c r="B539" s="97">
+        <v>2963.38</v>
+      </c>
+    </row>
+    <row r="540" spans="1:2">
+      <c r="A540" s="45" t="s">
+        <v>1357</v>
+      </c>
+      <c r="B540" s="97">
+        <v>2726.58</v>
+      </c>
+    </row>
+    <row r="541" spans="1:2">
+      <c r="A541" s="45" t="s">
+        <v>1358</v>
+      </c>
+      <c r="B541" s="97">
+        <v>2510.9499999999998</v>
+      </c>
+    </row>
+    <row r="542" spans="1:2">
+      <c r="A542" s="45" t="s">
+        <v>1359</v>
+      </c>
+      <c r="B542" s="97">
+        <v>2366.2399999999998</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -75270,8 +76356,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE8337BB-204B-4C3A-A41B-88604C253061}">
   <dimension ref="B2:E13"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView zoomScale="118" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
@@ -75281,16 +76367,16 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" ht="21.75" customHeight="1">
-      <c r="B2" s="90" t="s">
-        <v>1263</v>
-      </c>
-      <c r="C2" s="90"/>
-      <c r="D2" s="90"/>
-      <c r="E2" s="90"/>
+      <c r="B2" s="91" t="s">
+        <v>1258</v>
+      </c>
+      <c r="C2" s="91"/>
+      <c r="D2" s="91"/>
+      <c r="E2" s="91"/>
     </row>
     <row r="3" spans="2:5">
       <c r="B3" s="83" t="s">
-        <v>1264</v>
+        <v>1259</v>
       </c>
       <c r="C3" s="83"/>
       <c r="D3" s="83"/>
@@ -75298,7 +76384,7 @@
     </row>
     <row r="4" spans="2:5">
       <c r="B4" s="83" t="s">
-        <v>1265</v>
+        <v>1260</v>
       </c>
       <c r="C4" s="83"/>
       <c r="D4" s="83"/>
@@ -75306,7 +76392,7 @@
     </row>
     <row r="5" spans="2:5">
       <c r="B5" s="83" t="s">
-        <v>1266</v>
+        <v>1261</v>
       </c>
       <c r="C5" s="83"/>
       <c r="D5" s="83"/>
@@ -75332,7 +76418,7 @@
     </row>
     <row r="12" spans="2:5">
       <c r="B12" s="84" t="s">
-        <v>1244</v>
+        <v>1239</v>
       </c>
       <c r="C12" s="45"/>
       <c r="D12" s="45"/>
@@ -75340,7 +76426,7 @@
     </row>
     <row r="13" spans="2:5">
       <c r="B13" s="88" t="s">
-        <v>1267</v>
+        <v>1262</v>
       </c>
       <c r="C13" s="45"/>
       <c r="D13" s="45"/>
@@ -75361,10 +76447,14 @@
   <dimension ref="A1:O88"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="R12" sqref="R12"/>
+      <selection activeCell="A4" sqref="A4:A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
+  <cols>
+    <col min="1" max="1" width="8.83203125" style="57"/>
+    <col min="16" max="16" width="9.1640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:15">
       <c r="A1" s="79" t="s">
@@ -75414,2028 +76504,2028 @@
       </c>
     </row>
     <row r="2" spans="1:15">
-      <c r="A2" s="81" t="s">
-        <v>123</v>
+      <c r="A2" s="81">
+        <v>20221107</v>
       </c>
       <c r="B2" s="81" t="s">
-        <v>124</v>
+        <v>249</v>
       </c>
       <c r="C2" s="81" t="s">
-        <v>125</v>
+        <v>478</v>
       </c>
       <c r="D2" s="81" t="s">
-        <v>126</v>
-      </c>
-      <c r="E2" s="82">
-        <v>8221</v>
+        <v>1221</v>
+      </c>
+      <c r="E2" s="81" t="s">
+        <v>1222</v>
       </c>
       <c r="F2" s="81" t="s">
-        <v>127</v>
+        <v>1223</v>
       </c>
       <c r="G2" s="81" t="s">
-        <v>128</v>
+        <v>1224</v>
       </c>
       <c r="H2" s="81" t="s">
-        <v>129</v>
+        <v>1225</v>
       </c>
       <c r="I2" s="81" t="s">
-        <v>130</v>
+        <v>1226</v>
       </c>
       <c r="J2" s="81" t="s">
-        <v>131</v>
+        <v>1227</v>
       </c>
       <c r="K2" s="81" t="s">
-        <v>132</v>
+        <v>1228</v>
       </c>
       <c r="L2" s="81" t="s">
-        <v>133</v>
+        <v>1229</v>
       </c>
       <c r="M2" s="81" t="s">
-        <v>134</v>
+        <v>1230</v>
       </c>
       <c r="N2" s="81" t="s">
+        <v>1231</v>
+      </c>
+      <c r="O2" s="81" t="s">
+        <v>1232</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="A3" s="81">
+        <v>20221114</v>
+      </c>
+      <c r="B3" s="81" t="s">
+        <v>1208</v>
+      </c>
+      <c r="C3" s="81" t="s">
+        <v>1209</v>
+      </c>
+      <c r="D3" s="81" t="s">
+        <v>1210</v>
+      </c>
+      <c r="E3" s="81" t="s">
+        <v>1211</v>
+      </c>
+      <c r="F3" s="81" t="s">
+        <v>1212</v>
+      </c>
+      <c r="G3" s="81" t="s">
+        <v>1213</v>
+      </c>
+      <c r="H3" s="81" t="s">
+        <v>1214</v>
+      </c>
+      <c r="I3" s="81" t="s">
+        <v>1215</v>
+      </c>
+      <c r="J3" s="81" t="s">
+        <v>1216</v>
+      </c>
+      <c r="K3" s="81" t="s">
+        <v>1217</v>
+      </c>
+      <c r="L3" s="81" t="s">
+        <v>1218</v>
+      </c>
+      <c r="M3" s="81" t="s">
+        <v>513</v>
+      </c>
+      <c r="N3" s="81" t="s">
+        <v>1219</v>
+      </c>
+      <c r="O3" s="81" t="s">
+        <v>1220</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
+      <c r="A4" s="81">
+        <v>20221121</v>
+      </c>
+      <c r="B4" s="81" t="s">
+        <v>1196</v>
+      </c>
+      <c r="C4" s="81" t="s">
+        <v>495</v>
+      </c>
+      <c r="D4" s="81" t="s">
+        <v>1197</v>
+      </c>
+      <c r="E4" s="81" t="s">
+        <v>1198</v>
+      </c>
+      <c r="F4" s="81" t="s">
+        <v>1199</v>
+      </c>
+      <c r="G4" s="81" t="s">
+        <v>1200</v>
+      </c>
+      <c r="H4" s="81" t="s">
+        <v>1201</v>
+      </c>
+      <c r="I4" s="81" t="s">
+        <v>1202</v>
+      </c>
+      <c r="J4" s="81" t="s">
+        <v>1203</v>
+      </c>
+      <c r="K4" s="81" t="s">
+        <v>1204</v>
+      </c>
+      <c r="L4" s="81" t="s">
+        <v>1205</v>
+      </c>
+      <c r="M4" s="81" t="s">
+        <v>658</v>
+      </c>
+      <c r="N4" s="81" t="s">
+        <v>1206</v>
+      </c>
+      <c r="O4" s="81" t="s">
+        <v>1207</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
+      <c r="A5" s="81">
+        <v>20221128</v>
+      </c>
+      <c r="B5" s="81" t="s">
+        <v>423</v>
+      </c>
+      <c r="C5" s="81" t="s">
+        <v>1187</v>
+      </c>
+      <c r="D5" s="81" t="s">
+        <v>1188</v>
+      </c>
+      <c r="E5" s="81" t="s">
+        <v>881</v>
+      </c>
+      <c r="F5" s="81" t="s">
+        <v>229</v>
+      </c>
+      <c r="G5" s="81" t="s">
+        <v>422</v>
+      </c>
+      <c r="H5" s="81" t="s">
+        <v>1189</v>
+      </c>
+      <c r="I5" s="81" t="s">
+        <v>1190</v>
+      </c>
+      <c r="J5" s="81" t="s">
+        <v>1191</v>
+      </c>
+      <c r="K5" s="81" t="s">
+        <v>1192</v>
+      </c>
+      <c r="L5" s="81" t="s">
+        <v>1193</v>
+      </c>
+      <c r="M5" s="81" t="s">
+        <v>1194</v>
+      </c>
+      <c r="N5" s="81" t="s">
+        <v>1195</v>
+      </c>
+      <c r="O5" s="81" t="s">
+        <v>1092</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="A6" s="81">
+        <v>20221205</v>
+      </c>
+      <c r="B6" s="81" t="s">
+        <v>1139</v>
+      </c>
+      <c r="C6" s="81" t="s">
+        <v>1179</v>
+      </c>
+      <c r="D6" s="81" t="s">
+        <v>1180</v>
+      </c>
+      <c r="E6" s="81" t="s">
+        <v>1091</v>
+      </c>
+      <c r="F6" s="81" t="s">
+        <v>1181</v>
+      </c>
+      <c r="G6" s="81" t="s">
+        <v>1182</v>
+      </c>
+      <c r="H6" s="81" t="s">
+        <v>1183</v>
+      </c>
+      <c r="I6" s="81" t="s">
+        <v>743</v>
+      </c>
+      <c r="J6" s="81" t="s">
+        <v>604</v>
+      </c>
+      <c r="K6" s="81" t="s">
+        <v>1184</v>
+      </c>
+      <c r="L6" s="81" t="s">
+        <v>1185</v>
+      </c>
+      <c r="M6" s="81" t="s">
+        <v>1043</v>
+      </c>
+      <c r="N6" s="81" t="s">
+        <v>1178</v>
+      </c>
+      <c r="O6" s="81" t="s">
+        <v>1186</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="A7" s="90" t="s">
+        <v>1168</v>
+      </c>
+      <c r="B7" s="81" t="s">
+        <v>1169</v>
+      </c>
+      <c r="C7" s="81" t="s">
+        <v>1170</v>
+      </c>
+      <c r="D7" s="81" t="s">
+        <v>1171</v>
+      </c>
+      <c r="E7" s="81" t="s">
+        <v>598</v>
+      </c>
+      <c r="F7" s="81" t="s">
+        <v>1172</v>
+      </c>
+      <c r="G7" s="81" t="s">
+        <v>1173</v>
+      </c>
+      <c r="H7" s="81" t="s">
+        <v>349</v>
+      </c>
+      <c r="I7" s="81" t="s">
+        <v>447</v>
+      </c>
+      <c r="J7" s="81" t="s">
+        <v>1174</v>
+      </c>
+      <c r="K7" s="81" t="s">
+        <v>1175</v>
+      </c>
+      <c r="L7" s="81" t="s">
+        <v>1176</v>
+      </c>
+      <c r="M7" s="81" t="s">
+        <v>1177</v>
+      </c>
+      <c r="N7" s="81" t="s">
+        <v>1178</v>
+      </c>
+      <c r="O7" s="81" t="s">
+        <v>1170</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="A8" s="90" t="s">
+        <v>1158</v>
+      </c>
+      <c r="B8" s="81" t="s">
+        <v>756</v>
+      </c>
+      <c r="C8" s="81" t="s">
+        <v>612</v>
+      </c>
+      <c r="D8" s="81" t="s">
+        <v>1159</v>
+      </c>
+      <c r="E8" s="81" t="s">
+        <v>1160</v>
+      </c>
+      <c r="F8" s="81" t="s">
+        <v>1112</v>
+      </c>
+      <c r="G8" s="81" t="s">
+        <v>1161</v>
+      </c>
+      <c r="H8" s="81" t="s">
+        <v>1162</v>
+      </c>
+      <c r="I8" s="81" t="s">
+        <v>1163</v>
+      </c>
+      <c r="J8" s="81" t="s">
+        <v>338</v>
+      </c>
+      <c r="K8" s="81" t="s">
+        <v>1164</v>
+      </c>
+      <c r="L8" s="81" t="s">
+        <v>1165</v>
+      </c>
+      <c r="M8" s="81" t="s">
+        <v>1166</v>
+      </c>
+      <c r="N8" s="81" t="s">
+        <v>1167</v>
+      </c>
+      <c r="O8" s="81" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
+      <c r="A9" s="90" t="s">
+        <v>1145</v>
+      </c>
+      <c r="B9" s="81" t="s">
+        <v>1146</v>
+      </c>
+      <c r="C9" s="81" t="s">
+        <v>857</v>
+      </c>
+      <c r="D9" s="81" t="s">
+        <v>1147</v>
+      </c>
+      <c r="E9" s="81" t="s">
+        <v>1148</v>
+      </c>
+      <c r="F9" s="81" t="s">
+        <v>1149</v>
+      </c>
+      <c r="G9" s="81" t="s">
+        <v>858</v>
+      </c>
+      <c r="H9" s="81" t="s">
+        <v>1150</v>
+      </c>
+      <c r="I9" s="81" t="s">
+        <v>1151</v>
+      </c>
+      <c r="J9" s="81" t="s">
+        <v>1152</v>
+      </c>
+      <c r="K9" s="81" t="s">
+        <v>1153</v>
+      </c>
+      <c r="L9" s="81" t="s">
+        <v>1154</v>
+      </c>
+      <c r="M9" s="81" t="s">
+        <v>1155</v>
+      </c>
+      <c r="N9" s="81" t="s">
+        <v>1156</v>
+      </c>
+      <c r="O9" s="81" t="s">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
+      <c r="A10" s="90" t="s">
+        <v>1132</v>
+      </c>
+      <c r="B10" s="81" t="s">
+        <v>1133</v>
+      </c>
+      <c r="C10" s="81" t="s">
+        <v>626</v>
+      </c>
+      <c r="D10" s="81" t="s">
+        <v>1134</v>
+      </c>
+      <c r="E10" s="81" t="s">
+        <v>1135</v>
+      </c>
+      <c r="F10" s="81" t="s">
+        <v>1136</v>
+      </c>
+      <c r="G10" s="81" t="s">
+        <v>1137</v>
+      </c>
+      <c r="H10" s="81" t="s">
+        <v>1138</v>
+      </c>
+      <c r="I10" s="81" t="s">
+        <v>1139</v>
+      </c>
+      <c r="J10" s="81" t="s">
+        <v>774</v>
+      </c>
+      <c r="K10" s="81" t="s">
+        <v>1140</v>
+      </c>
+      <c r="L10" s="81" t="s">
+        <v>1141</v>
+      </c>
+      <c r="M10" s="81" t="s">
+        <v>1142</v>
+      </c>
+      <c r="N10" s="81" t="s">
+        <v>1143</v>
+      </c>
+      <c r="O10" s="81" t="s">
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
+      <c r="A11" s="90" t="s">
+        <v>1120</v>
+      </c>
+      <c r="B11" s="81" t="s">
+        <v>561</v>
+      </c>
+      <c r="C11" s="81" t="s">
+        <v>1121</v>
+      </c>
+      <c r="D11" s="81" t="s">
+        <v>1122</v>
+      </c>
+      <c r="E11" s="81" t="s">
+        <v>355</v>
+      </c>
+      <c r="F11" s="81" t="s">
+        <v>1123</v>
+      </c>
+      <c r="G11" s="81" t="s">
+        <v>1124</v>
+      </c>
+      <c r="H11" s="81" t="s">
+        <v>988</v>
+      </c>
+      <c r="I11" s="81" t="s">
+        <v>1125</v>
+      </c>
+      <c r="J11" s="81" t="s">
+        <v>1126</v>
+      </c>
+      <c r="K11" s="81" t="s">
+        <v>1127</v>
+      </c>
+      <c r="L11" s="81" t="s">
+        <v>1128</v>
+      </c>
+      <c r="M11" s="81" t="s">
+        <v>1129</v>
+      </c>
+      <c r="N11" s="81" t="s">
+        <v>1130</v>
+      </c>
+      <c r="O11" s="81" t="s">
+        <v>1131</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
+      <c r="A12" s="90" t="s">
+        <v>1109</v>
+      </c>
+      <c r="B12" s="81" t="s">
+        <v>1103</v>
+      </c>
+      <c r="C12" s="81" t="s">
+        <v>1110</v>
+      </c>
+      <c r="D12" s="81" t="s">
+        <v>244</v>
+      </c>
+      <c r="E12" s="81" t="s">
+        <v>1111</v>
+      </c>
+      <c r="F12" s="81" t="s">
+        <v>1112</v>
+      </c>
+      <c r="G12" s="81" t="s">
+        <v>1113</v>
+      </c>
+      <c r="H12" s="81" t="s">
+        <v>1114</v>
+      </c>
+      <c r="I12" s="81" t="s">
+        <v>1081</v>
+      </c>
+      <c r="J12" s="81" t="s">
+        <v>1115</v>
+      </c>
+      <c r="K12" s="81" t="s">
+        <v>1116</v>
+      </c>
+      <c r="L12" s="81" t="s">
+        <v>1117</v>
+      </c>
+      <c r="M12" s="81" t="s">
+        <v>619</v>
+      </c>
+      <c r="N12" s="81" t="s">
+        <v>1118</v>
+      </c>
+      <c r="O12" s="81" t="s">
+        <v>1119</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
+      <c r="A13" s="90" t="s">
+        <v>1097</v>
+      </c>
+      <c r="B13" s="81" t="s">
+        <v>1098</v>
+      </c>
+      <c r="C13" s="81" t="s">
+        <v>1099</v>
+      </c>
+      <c r="D13" s="81" t="s">
+        <v>1100</v>
+      </c>
+      <c r="E13" s="81" t="s">
+        <v>664</v>
+      </c>
+      <c r="F13" s="81" t="s">
+        <v>1101</v>
+      </c>
+      <c r="G13" s="81" t="s">
+        <v>1102</v>
+      </c>
+      <c r="H13" s="81" t="s">
+        <v>1103</v>
+      </c>
+      <c r="I13" s="81" t="s">
+        <v>1104</v>
+      </c>
+      <c r="J13" s="81" t="s">
+        <v>548</v>
+      </c>
+      <c r="K13" s="81" t="s">
+        <v>1105</v>
+      </c>
+      <c r="L13" s="81" t="s">
+        <v>1106</v>
+      </c>
+      <c r="M13" s="81" t="s">
+        <v>1107</v>
+      </c>
+      <c r="N13" s="81" t="s">
+        <v>1084</v>
+      </c>
+      <c r="O13" s="81" t="s">
+        <v>1108</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
+      <c r="A14" s="90" t="s">
+        <v>1086</v>
+      </c>
+      <c r="B14" s="81" t="s">
+        <v>990</v>
+      </c>
+      <c r="C14" s="81" t="s">
+        <v>1087</v>
+      </c>
+      <c r="D14" s="81" t="s">
+        <v>1088</v>
+      </c>
+      <c r="E14" s="81" t="s">
+        <v>1089</v>
+      </c>
+      <c r="F14" s="81" t="s">
+        <v>1090</v>
+      </c>
+      <c r="G14" s="81" t="s">
+        <v>1091</v>
+      </c>
+      <c r="H14" s="81" t="s">
+        <v>1092</v>
+      </c>
+      <c r="I14" s="81" t="s">
+        <v>746</v>
+      </c>
+      <c r="J14" s="81" t="s">
+        <v>507</v>
+      </c>
+      <c r="K14" s="81" t="s">
+        <v>1093</v>
+      </c>
+      <c r="L14" s="81" t="s">
+        <v>1094</v>
+      </c>
+      <c r="M14" s="81" t="s">
+        <v>619</v>
+      </c>
+      <c r="N14" s="81" t="s">
+        <v>1095</v>
+      </c>
+      <c r="O14" s="81" t="s">
+        <v>1096</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
+      <c r="A15" s="90" t="s">
+        <v>1074</v>
+      </c>
+      <c r="B15" s="81" t="s">
+        <v>870</v>
+      </c>
+      <c r="C15" s="81" t="s">
+        <v>1075</v>
+      </c>
+      <c r="D15" s="81" t="s">
+        <v>1076</v>
+      </c>
+      <c r="E15" s="81" t="s">
+        <v>1077</v>
+      </c>
+      <c r="F15" s="81" t="s">
+        <v>1078</v>
+      </c>
+      <c r="G15" s="81" t="s">
+        <v>1079</v>
+      </c>
+      <c r="H15" s="81" t="s">
+        <v>1001</v>
+      </c>
+      <c r="I15" s="81" t="s">
+        <v>1080</v>
+      </c>
+      <c r="J15" s="81" t="s">
+        <v>1081</v>
+      </c>
+      <c r="K15" s="81" t="s">
+        <v>1082</v>
+      </c>
+      <c r="L15" s="81" t="s">
+        <v>1083</v>
+      </c>
+      <c r="M15" s="81" t="s">
+        <v>541</v>
+      </c>
+      <c r="N15" s="81" t="s">
+        <v>1084</v>
+      </c>
+      <c r="O15" s="81" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
+      <c r="A16" s="90" t="s">
+        <v>1059</v>
+      </c>
+      <c r="B16" s="81" t="s">
+        <v>1060</v>
+      </c>
+      <c r="C16" s="81" t="s">
+        <v>1061</v>
+      </c>
+      <c r="D16" s="81" t="s">
+        <v>1062</v>
+      </c>
+      <c r="E16" s="81" t="s">
+        <v>1063</v>
+      </c>
+      <c r="F16" s="81" t="s">
+        <v>1064</v>
+      </c>
+      <c r="G16" s="81" t="s">
+        <v>1065</v>
+      </c>
+      <c r="H16" s="81" t="s">
+        <v>1066</v>
+      </c>
+      <c r="I16" s="81" t="s">
+        <v>1067</v>
+      </c>
+      <c r="J16" s="81" t="s">
+        <v>1068</v>
+      </c>
+      <c r="K16" s="81" t="s">
+        <v>1069</v>
+      </c>
+      <c r="L16" s="81" t="s">
+        <v>1070</v>
+      </c>
+      <c r="M16" s="81" t="s">
+        <v>1071</v>
+      </c>
+      <c r="N16" s="81" t="s">
+        <v>1072</v>
+      </c>
+      <c r="O16" s="81" t="s">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
+      <c r="A17" s="90" t="s">
+        <v>1046</v>
+      </c>
+      <c r="B17" s="81" t="s">
+        <v>677</v>
+      </c>
+      <c r="C17" s="81" t="s">
+        <v>1047</v>
+      </c>
+      <c r="D17" s="81" t="s">
+        <v>1048</v>
+      </c>
+      <c r="E17" s="81" t="s">
+        <v>1049</v>
+      </c>
+      <c r="F17" s="81" t="s">
+        <v>1050</v>
+      </c>
+      <c r="G17" s="81" t="s">
+        <v>1051</v>
+      </c>
+      <c r="H17" s="81" t="s">
+        <v>1052</v>
+      </c>
+      <c r="I17" s="81" t="s">
+        <v>1053</v>
+      </c>
+      <c r="J17" s="81" t="s">
+        <v>1054</v>
+      </c>
+      <c r="K17" s="81" t="s">
+        <v>1055</v>
+      </c>
+      <c r="L17" s="81" t="s">
+        <v>422</v>
+      </c>
+      <c r="M17" s="81" t="s">
+        <v>1056</v>
+      </c>
+      <c r="N17" s="81" t="s">
+        <v>1057</v>
+      </c>
+      <c r="O17" s="81" t="s">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
+      <c r="A18" s="90" t="s">
+        <v>1034</v>
+      </c>
+      <c r="B18" s="81" t="s">
+        <v>1035</v>
+      </c>
+      <c r="C18" s="81" t="s">
+        <v>1036</v>
+      </c>
+      <c r="D18" s="81" t="s">
+        <v>770</v>
+      </c>
+      <c r="E18" s="81" t="s">
+        <v>1037</v>
+      </c>
+      <c r="F18" s="81" t="s">
+        <v>343</v>
+      </c>
+      <c r="G18" s="81" t="s">
+        <v>714</v>
+      </c>
+      <c r="H18" s="81" t="s">
+        <v>1038</v>
+      </c>
+      <c r="I18" s="81" t="s">
+        <v>1039</v>
+      </c>
+      <c r="J18" s="81" t="s">
+        <v>1040</v>
+      </c>
+      <c r="K18" s="81" t="s">
+        <v>1041</v>
+      </c>
+      <c r="L18" s="81" t="s">
+        <v>1042</v>
+      </c>
+      <c r="M18" s="81" t="s">
+        <v>1043</v>
+      </c>
+      <c r="N18" s="81" t="s">
+        <v>1044</v>
+      </c>
+      <c r="O18" s="81" t="s">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
+      <c r="A19" s="90" t="s">
+        <v>1020</v>
+      </c>
+      <c r="B19" s="81" t="s">
+        <v>1021</v>
+      </c>
+      <c r="C19" s="81" t="s">
+        <v>1022</v>
+      </c>
+      <c r="D19" s="81" t="s">
+        <v>1023</v>
+      </c>
+      <c r="E19" s="81" t="s">
+        <v>1024</v>
+      </c>
+      <c r="F19" s="81" t="s">
+        <v>1025</v>
+      </c>
+      <c r="G19" s="81" t="s">
+        <v>1026</v>
+      </c>
+      <c r="H19" s="81" t="s">
+        <v>1027</v>
+      </c>
+      <c r="I19" s="81" t="s">
+        <v>1028</v>
+      </c>
+      <c r="J19" s="81" t="s">
+        <v>756</v>
+      </c>
+      <c r="K19" s="81" t="s">
+        <v>1029</v>
+      </c>
+      <c r="L19" s="81" t="s">
+        <v>1030</v>
+      </c>
+      <c r="M19" s="81" t="s">
+        <v>1031</v>
+      </c>
+      <c r="N19" s="81" t="s">
+        <v>1032</v>
+      </c>
+      <c r="O19" s="81" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
+      <c r="A20" s="90" t="s">
+        <v>1008</v>
+      </c>
+      <c r="B20" s="81" t="s">
+        <v>1009</v>
+      </c>
+      <c r="C20" s="81" t="s">
+        <v>1010</v>
+      </c>
+      <c r="D20" s="81" t="s">
+        <v>1011</v>
+      </c>
+      <c r="E20" s="81" t="s">
+        <v>707</v>
+      </c>
+      <c r="F20" s="81" t="s">
+        <v>1012</v>
+      </c>
+      <c r="G20" s="81" t="s">
+        <v>1013</v>
+      </c>
+      <c r="H20" s="81" t="s">
+        <v>637</v>
+      </c>
+      <c r="I20" s="81" t="s">
+        <v>1014</v>
+      </c>
+      <c r="J20" s="81" t="s">
+        <v>1015</v>
+      </c>
+      <c r="K20" s="81" t="s">
+        <v>1016</v>
+      </c>
+      <c r="L20" s="81" t="s">
+        <v>849</v>
+      </c>
+      <c r="M20" s="81" t="s">
+        <v>1017</v>
+      </c>
+      <c r="N20" s="81" t="s">
+        <v>1018</v>
+      </c>
+      <c r="O20" s="81" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
+      <c r="A21" s="90" t="s">
+        <v>997</v>
+      </c>
+      <c r="B21" s="81" t="s">
+        <v>998</v>
+      </c>
+      <c r="C21" s="81" t="s">
+        <v>999</v>
+      </c>
+      <c r="D21" s="81" t="s">
+        <v>1000</v>
+      </c>
+      <c r="E21" s="81" t="s">
+        <v>1001</v>
+      </c>
+      <c r="F21" s="81" t="s">
+        <v>876</v>
+      </c>
+      <c r="G21" s="81" t="s">
+        <v>511</v>
+      </c>
+      <c r="H21" s="81" t="s">
+        <v>1002</v>
+      </c>
+      <c r="I21" s="81" t="s">
+        <v>760</v>
+      </c>
+      <c r="J21" s="81" t="s">
+        <v>1003</v>
+      </c>
+      <c r="K21" s="81" t="s">
+        <v>1004</v>
+      </c>
+      <c r="L21" s="81" t="s">
+        <v>1005</v>
+      </c>
+      <c r="M21" s="81" t="s">
         <v>135</v>
       </c>
-      <c r="O2" s="81" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
-      <c r="A3" s="81" t="s">
-        <v>137</v>
-      </c>
-      <c r="B3" s="81" t="s">
-        <v>138</v>
-      </c>
-      <c r="C3" s="81" t="s">
-        <v>139</v>
-      </c>
-      <c r="D3" s="81" t="s">
-        <v>140</v>
-      </c>
-      <c r="E3" s="82">
-        <v>7497</v>
-      </c>
-      <c r="F3" s="81" t="s">
-        <v>141</v>
-      </c>
-      <c r="G3" s="81" t="s">
-        <v>142</v>
-      </c>
-      <c r="H3" s="81" t="s">
-        <v>143</v>
-      </c>
-      <c r="I3" s="81" t="s">
-        <v>144</v>
-      </c>
-      <c r="J3" s="81" t="s">
-        <v>145</v>
-      </c>
-      <c r="K3" s="81" t="s">
-        <v>146</v>
-      </c>
-      <c r="L3" s="81" t="s">
-        <v>147</v>
-      </c>
-      <c r="M3" s="81" t="s">
-        <v>148</v>
-      </c>
-      <c r="N3" s="81" t="s">
-        <v>149</v>
-      </c>
-      <c r="O3" s="81" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
-      <c r="A4" s="81" t="s">
-        <v>151</v>
-      </c>
-      <c r="B4" s="81" t="s">
-        <v>152</v>
-      </c>
-      <c r="C4" s="81" t="s">
-        <v>153</v>
-      </c>
-      <c r="D4" s="81" t="s">
-        <v>154</v>
-      </c>
-      <c r="E4" s="81" t="s">
-        <v>155</v>
-      </c>
-      <c r="F4" s="81" t="s">
-        <v>156</v>
-      </c>
-      <c r="G4" s="81" t="s">
-        <v>157</v>
-      </c>
-      <c r="H4" s="81" t="s">
-        <v>158</v>
-      </c>
-      <c r="I4" s="81" t="s">
-        <v>159</v>
-      </c>
-      <c r="J4" s="81" t="s">
-        <v>160</v>
-      </c>
-      <c r="K4" s="81" t="s">
-        <v>161</v>
-      </c>
-      <c r="L4" s="81" t="s">
-        <v>162</v>
-      </c>
-      <c r="M4" s="81" t="s">
-        <v>163</v>
-      </c>
-      <c r="N4" s="81" t="s">
-        <v>164</v>
-      </c>
-      <c r="O4" s="81" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
-      <c r="A5" s="81" t="s">
-        <v>166</v>
-      </c>
-      <c r="B5" s="81" t="s">
-        <v>167</v>
-      </c>
-      <c r="C5" s="81" t="s">
-        <v>168</v>
-      </c>
-      <c r="D5" s="81" t="s">
-        <v>169</v>
-      </c>
-      <c r="E5" s="81" t="s">
-        <v>170</v>
-      </c>
-      <c r="F5" s="81" t="s">
-        <v>171</v>
-      </c>
-      <c r="G5" s="81" t="s">
-        <v>172</v>
-      </c>
-      <c r="H5" s="81" t="s">
-        <v>173</v>
-      </c>
-      <c r="I5" s="81" t="s">
-        <v>174</v>
-      </c>
-      <c r="J5" s="81" t="s">
-        <v>175</v>
-      </c>
-      <c r="K5" s="81" t="s">
-        <v>176</v>
-      </c>
-      <c r="L5" s="81" t="s">
-        <v>177</v>
-      </c>
-      <c r="M5" s="81" t="s">
-        <v>163</v>
-      </c>
-      <c r="N5" s="81" t="s">
-        <v>178</v>
-      </c>
-      <c r="O5" s="81" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
-      <c r="A6" s="81" t="s">
-        <v>180</v>
-      </c>
-      <c r="B6" s="81" t="s">
-        <v>181</v>
-      </c>
-      <c r="C6" s="81" t="s">
-        <v>182</v>
-      </c>
-      <c r="D6" s="81" t="s">
-        <v>183</v>
-      </c>
-      <c r="E6" s="81" t="s">
-        <v>184</v>
-      </c>
-      <c r="F6" s="81" t="s">
-        <v>185</v>
-      </c>
-      <c r="G6" s="81" t="s">
-        <v>186</v>
-      </c>
-      <c r="H6" s="81" t="s">
-        <v>187</v>
-      </c>
-      <c r="I6" s="81" t="s">
-        <v>188</v>
-      </c>
-      <c r="J6" s="81" t="s">
-        <v>189</v>
-      </c>
-      <c r="K6" s="81" t="s">
-        <v>190</v>
-      </c>
-      <c r="L6" s="81" t="s">
-        <v>191</v>
-      </c>
-      <c r="M6" s="81" t="s">
-        <v>192</v>
-      </c>
-      <c r="N6" s="81" t="s">
-        <v>193</v>
-      </c>
-      <c r="O6" s="81" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
-      <c r="A7" s="81" t="s">
-        <v>195</v>
-      </c>
-      <c r="B7" s="81" t="s">
-        <v>196</v>
-      </c>
-      <c r="C7" s="81" t="s">
-        <v>197</v>
-      </c>
-      <c r="D7" s="81" t="s">
-        <v>198</v>
-      </c>
-      <c r="E7" s="81" t="s">
-        <v>199</v>
-      </c>
-      <c r="F7" s="81" t="s">
-        <v>200</v>
-      </c>
-      <c r="G7" s="81" t="s">
-        <v>201</v>
-      </c>
-      <c r="H7" s="81" t="s">
-        <v>202</v>
-      </c>
-      <c r="I7" s="81" t="s">
-        <v>203</v>
-      </c>
-      <c r="J7" s="81" t="s">
-        <v>204</v>
-      </c>
-      <c r="K7" s="81" t="s">
-        <v>205</v>
-      </c>
-      <c r="L7" s="81" t="s">
-        <v>206</v>
-      </c>
-      <c r="M7" s="81" t="s">
-        <v>163</v>
-      </c>
-      <c r="N7" s="81" t="s">
-        <v>207</v>
-      </c>
-      <c r="O7" s="81" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
-      <c r="A8" s="81" t="s">
-        <v>209</v>
-      </c>
-      <c r="B8" s="81" t="s">
-        <v>210</v>
-      </c>
-      <c r="C8" s="81" t="s">
-        <v>211</v>
-      </c>
-      <c r="D8" s="81" t="s">
-        <v>212</v>
-      </c>
-      <c r="E8" s="81" t="s">
-        <v>213</v>
-      </c>
-      <c r="F8" s="81" t="s">
-        <v>214</v>
-      </c>
-      <c r="G8" s="81" t="s">
-        <v>215</v>
-      </c>
-      <c r="H8" s="81" t="s">
-        <v>216</v>
-      </c>
-      <c r="I8" s="81" t="s">
-        <v>217</v>
-      </c>
-      <c r="J8" s="81" t="s">
-        <v>218</v>
-      </c>
-      <c r="K8" s="81" t="s">
-        <v>219</v>
-      </c>
-      <c r="L8" s="81" t="s">
-        <v>220</v>
-      </c>
-      <c r="M8" s="81" t="s">
-        <v>192</v>
-      </c>
-      <c r="N8" s="81" t="s">
-        <v>221</v>
-      </c>
-      <c r="O8" s="81" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
-      <c r="A9" s="81" t="s">
-        <v>223</v>
-      </c>
-      <c r="B9" s="81" t="s">
-        <v>224</v>
-      </c>
-      <c r="C9" s="81" t="s">
-        <v>225</v>
-      </c>
-      <c r="D9" s="81" t="s">
-        <v>226</v>
-      </c>
-      <c r="E9" s="81" t="s">
-        <v>227</v>
-      </c>
-      <c r="F9" s="81" t="s">
-        <v>228</v>
-      </c>
-      <c r="G9" s="81" t="s">
-        <v>229</v>
-      </c>
-      <c r="H9" s="81" t="s">
-        <v>230</v>
-      </c>
-      <c r="I9" s="81" t="s">
-        <v>231</v>
-      </c>
-      <c r="J9" s="81" t="s">
-        <v>232</v>
-      </c>
-      <c r="K9" s="81" t="s">
-        <v>233</v>
-      </c>
-      <c r="L9" s="81" t="s">
-        <v>234</v>
-      </c>
-      <c r="M9" s="81" t="s">
-        <v>235</v>
-      </c>
-      <c r="N9" s="81" t="s">
-        <v>236</v>
-      </c>
-      <c r="O9" s="81" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
-      <c r="A10" s="81" t="s">
-        <v>238</v>
-      </c>
-      <c r="B10" s="81" t="s">
-        <v>239</v>
-      </c>
-      <c r="C10" s="81" t="s">
-        <v>240</v>
-      </c>
-      <c r="D10" s="81" t="s">
-        <v>241</v>
-      </c>
-      <c r="E10" s="81" t="s">
-        <v>242</v>
-      </c>
-      <c r="F10" s="81" t="s">
-        <v>243</v>
-      </c>
-      <c r="G10" s="81" t="s">
-        <v>244</v>
-      </c>
-      <c r="H10" s="81" t="s">
-        <v>245</v>
-      </c>
-      <c r="I10" s="81" t="s">
-        <v>246</v>
-      </c>
-      <c r="J10" s="81" t="s">
-        <v>247</v>
-      </c>
-      <c r="K10" s="81" t="s">
-        <v>248</v>
-      </c>
-      <c r="L10" s="81" t="s">
-        <v>249</v>
-      </c>
-      <c r="M10" s="81" t="s">
-        <v>250</v>
-      </c>
-      <c r="N10" s="81" t="s">
-        <v>251</v>
-      </c>
-      <c r="O10" s="81" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
-      <c r="A11" s="81" t="s">
-        <v>253</v>
-      </c>
-      <c r="B11" s="81" t="s">
-        <v>254</v>
-      </c>
-      <c r="C11" s="81" t="s">
-        <v>255</v>
-      </c>
-      <c r="D11" s="81" t="s">
-        <v>256</v>
-      </c>
-      <c r="E11" s="81" t="s">
-        <v>257</v>
-      </c>
-      <c r="F11" s="81" t="s">
-        <v>258</v>
-      </c>
-      <c r="G11" s="81" t="s">
-        <v>259</v>
-      </c>
-      <c r="H11" s="81" t="s">
-        <v>260</v>
-      </c>
-      <c r="I11" s="81" t="s">
-        <v>261</v>
-      </c>
-      <c r="J11" s="81" t="s">
-        <v>262</v>
-      </c>
-      <c r="K11" s="81" t="s">
-        <v>263</v>
-      </c>
-      <c r="L11" s="81" t="s">
-        <v>264</v>
-      </c>
-      <c r="M11" s="81" t="s">
-        <v>250</v>
-      </c>
-      <c r="N11" s="81" t="s">
-        <v>265</v>
-      </c>
-      <c r="O11" s="81" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
-      <c r="A12" s="81" t="s">
-        <v>267</v>
-      </c>
-      <c r="B12" s="81" t="s">
-        <v>268</v>
-      </c>
-      <c r="C12" s="81" t="s">
-        <v>269</v>
-      </c>
-      <c r="D12" s="81" t="s">
-        <v>270</v>
-      </c>
-      <c r="E12" s="81" t="s">
-        <v>271</v>
-      </c>
-      <c r="F12" s="81" t="s">
-        <v>272</v>
-      </c>
-      <c r="G12" s="81" t="s">
-        <v>273</v>
-      </c>
-      <c r="H12" s="81" t="s">
-        <v>274</v>
-      </c>
-      <c r="I12" s="81" t="s">
-        <v>275</v>
-      </c>
-      <c r="J12" s="81" t="s">
-        <v>276</v>
-      </c>
-      <c r="K12" s="81" t="s">
-        <v>277</v>
-      </c>
-      <c r="L12" s="81" t="s">
-        <v>278</v>
-      </c>
-      <c r="M12" s="81" t="s">
-        <v>279</v>
-      </c>
-      <c r="N12" s="81" t="s">
-        <v>280</v>
-      </c>
-      <c r="O12" s="81" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
-      <c r="A13" s="81" t="s">
-        <v>282</v>
-      </c>
-      <c r="B13" s="81" t="s">
-        <v>283</v>
-      </c>
-      <c r="C13" s="81" t="s">
-        <v>284</v>
-      </c>
-      <c r="D13" s="81" t="s">
-        <v>285</v>
-      </c>
-      <c r="E13" s="81" t="s">
-        <v>286</v>
-      </c>
-      <c r="F13" s="81" t="s">
-        <v>287</v>
-      </c>
-      <c r="G13" s="81" t="s">
-        <v>288</v>
-      </c>
-      <c r="H13" s="81" t="s">
-        <v>289</v>
-      </c>
-      <c r="I13" s="81" t="s">
-        <v>290</v>
-      </c>
-      <c r="J13" s="81" t="s">
-        <v>291</v>
-      </c>
-      <c r="K13" s="81" t="s">
-        <v>292</v>
-      </c>
-      <c r="L13" s="81" t="s">
-        <v>293</v>
-      </c>
-      <c r="M13" s="81" t="s">
-        <v>294</v>
-      </c>
-      <c r="N13" s="81" t="s">
-        <v>280</v>
-      </c>
-      <c r="O13" s="81" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
-      <c r="A14" s="81" t="s">
-        <v>296</v>
-      </c>
-      <c r="B14" s="81" t="s">
-        <v>297</v>
-      </c>
-      <c r="C14" s="81" t="s">
-        <v>298</v>
-      </c>
-      <c r="D14" s="81" t="s">
-        <v>299</v>
-      </c>
-      <c r="E14" s="81" t="s">
-        <v>300</v>
-      </c>
-      <c r="F14" s="81" t="s">
-        <v>301</v>
-      </c>
-      <c r="G14" s="81" t="s">
-        <v>302</v>
-      </c>
-      <c r="H14" s="81" t="s">
-        <v>303</v>
-      </c>
-      <c r="I14" s="81" t="s">
-        <v>304</v>
-      </c>
-      <c r="J14" s="81" t="s">
-        <v>305</v>
-      </c>
-      <c r="K14" s="81" t="s">
-        <v>306</v>
-      </c>
-      <c r="L14" s="81" t="s">
-        <v>307</v>
-      </c>
-      <c r="M14" s="81" t="s">
-        <v>279</v>
-      </c>
-      <c r="N14" s="81" t="s">
-        <v>280</v>
-      </c>
-      <c r="O14" s="81" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
-      <c r="A15" s="81" t="s">
-        <v>309</v>
-      </c>
-      <c r="B15" s="81" t="s">
-        <v>310</v>
-      </c>
-      <c r="C15" s="81" t="s">
-        <v>311</v>
-      </c>
-      <c r="D15" s="81" t="s">
-        <v>312</v>
-      </c>
-      <c r="E15" s="81" t="s">
-        <v>313</v>
-      </c>
-      <c r="F15" s="81" t="s">
-        <v>314</v>
-      </c>
-      <c r="G15" s="81" t="s">
-        <v>315</v>
-      </c>
-      <c r="H15" s="81" t="s">
-        <v>316</v>
-      </c>
-      <c r="I15" s="81" t="s">
-        <v>317</v>
-      </c>
-      <c r="J15" s="81" t="s">
-        <v>318</v>
-      </c>
-      <c r="K15" s="81" t="s">
-        <v>319</v>
-      </c>
-      <c r="L15" s="81" t="s">
-        <v>320</v>
-      </c>
-      <c r="M15" s="81" t="s">
-        <v>279</v>
-      </c>
-      <c r="N15" s="81" t="s">
-        <v>321</v>
-      </c>
-      <c r="O15" s="81" t="s">
+      <c r="N21" s="81" t="s">
+        <v>1006</v>
+      </c>
+      <c r="O21" s="81" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
+      <c r="A22" s="90" t="s">
+        <v>983</v>
+      </c>
+      <c r="B22" s="81" t="s">
+        <v>984</v>
+      </c>
+      <c r="C22" s="81" t="s">
+        <v>961</v>
+      </c>
+      <c r="D22" s="81" t="s">
+        <v>985</v>
+      </c>
+      <c r="E22" s="81" t="s">
+        <v>986</v>
+      </c>
+      <c r="F22" s="81" t="s">
+        <v>987</v>
+      </c>
+      <c r="G22" s="81" t="s">
+        <v>988</v>
+      </c>
+      <c r="H22" s="81" t="s">
+        <v>989</v>
+      </c>
+      <c r="I22" s="81" t="s">
+        <v>990</v>
+      </c>
+      <c r="J22" s="81" t="s">
+        <v>991</v>
+      </c>
+      <c r="K22" s="81" t="s">
+        <v>992</v>
+      </c>
+      <c r="L22" s="81" t="s">
+        <v>993</v>
+      </c>
+      <c r="M22" s="81" t="s">
+        <v>994</v>
+      </c>
+      <c r="N22" s="81" t="s">
+        <v>995</v>
+      </c>
+      <c r="O22" s="81" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
+      <c r="A23" s="90" t="s">
+        <v>971</v>
+      </c>
+      <c r="B23" s="81" t="s">
+        <v>972</v>
+      </c>
+      <c r="C23" s="81" t="s">
+        <v>973</v>
+      </c>
+      <c r="D23" s="81" t="s">
+        <v>382</v>
+      </c>
+      <c r="E23" s="81" t="s">
+        <v>716</v>
+      </c>
+      <c r="F23" s="81" t="s">
+        <v>974</v>
+      </c>
+      <c r="G23" s="81" t="s">
+        <v>975</v>
+      </c>
+      <c r="H23" s="81" t="s">
+        <v>976</v>
+      </c>
+      <c r="I23" s="81" t="s">
+        <v>838</v>
+      </c>
+      <c r="J23" s="81" t="s">
+        <v>977</v>
+      </c>
+      <c r="K23" s="81" t="s">
+        <v>978</v>
+      </c>
+      <c r="L23" s="81" t="s">
+        <v>979</v>
+      </c>
+      <c r="M23" s="81" t="s">
+        <v>980</v>
+      </c>
+      <c r="N23" s="81" t="s">
+        <v>981</v>
+      </c>
+      <c r="O23" s="81" t="s">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
+      <c r="A24" s="90" t="s">
+        <v>960</v>
+      </c>
+      <c r="B24" s="81" t="s">
+        <v>961</v>
+      </c>
+      <c r="C24" s="81" t="s">
+        <v>962</v>
+      </c>
+      <c r="D24" s="81" t="s">
+        <v>451</v>
+      </c>
+      <c r="E24" s="81" t="s">
+        <v>904</v>
+      </c>
+      <c r="F24" s="81" t="s">
+        <v>963</v>
+      </c>
+      <c r="G24" s="81" t="s">
+        <v>782</v>
+      </c>
+      <c r="H24" s="81" t="s">
+        <v>964</v>
+      </c>
+      <c r="I24" s="81" t="s">
+        <v>965</v>
+      </c>
+      <c r="J24" s="81" t="s">
+        <v>966</v>
+      </c>
+      <c r="K24" s="81" t="s">
+        <v>956</v>
+      </c>
+      <c r="L24" s="81" t="s">
+        <v>967</v>
+      </c>
+      <c r="M24" s="81" t="s">
+        <v>968</v>
+      </c>
+      <c r="N24" s="81" t="s">
+        <v>969</v>
+      </c>
+      <c r="O24" s="81" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
+      <c r="A25" s="90" t="s">
+        <v>950</v>
+      </c>
+      <c r="B25" s="81" t="s">
+        <v>543</v>
+      </c>
+      <c r="C25" s="81" t="s">
+        <v>901</v>
+      </c>
+      <c r="D25" s="81" t="s">
+        <v>951</v>
+      </c>
+      <c r="E25" s="81" t="s">
+        <v>952</v>
+      </c>
+      <c r="F25" s="81" t="s">
+        <v>953</v>
+      </c>
+      <c r="G25" s="81" t="s">
+        <v>954</v>
+      </c>
+      <c r="H25" s="81" t="s">
+        <v>955</v>
+      </c>
+      <c r="I25" s="81" t="s">
+        <v>617</v>
+      </c>
+      <c r="J25" s="81" t="s">
+        <v>956</v>
+      </c>
+      <c r="K25" s="81" t="s">
+        <v>475</v>
+      </c>
+      <c r="L25" s="81" t="s">
+        <v>957</v>
+      </c>
+      <c r="M25" s="81" t="s">
+        <v>958</v>
+      </c>
+      <c r="N25" s="81" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="16" spans="1:15">
-      <c r="A16" s="81" t="s">
-        <v>323</v>
-      </c>
-      <c r="B16" s="81" t="s">
-        <v>324</v>
-      </c>
-      <c r="C16" s="81" t="s">
-        <v>325</v>
-      </c>
-      <c r="D16" s="81" t="s">
-        <v>326</v>
-      </c>
-      <c r="E16" s="81" t="s">
-        <v>327</v>
-      </c>
-      <c r="F16" s="81" t="s">
-        <v>328</v>
-      </c>
-      <c r="G16" s="81" t="s">
-        <v>329</v>
-      </c>
-      <c r="H16" s="81" t="s">
-        <v>330</v>
-      </c>
-      <c r="I16" s="81" t="s">
-        <v>331</v>
-      </c>
-      <c r="J16" s="81" t="s">
-        <v>332</v>
-      </c>
-      <c r="K16" s="81" t="s">
-        <v>333</v>
-      </c>
-      <c r="L16" s="81" t="s">
-        <v>334</v>
-      </c>
-      <c r="M16" s="81" t="s">
-        <v>294</v>
-      </c>
-      <c r="N16" s="81" t="s">
-        <v>335</v>
-      </c>
-      <c r="O16" s="81" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
-      <c r="A17" s="81" t="s">
-        <v>337</v>
-      </c>
-      <c r="B17" s="81" t="s">
-        <v>338</v>
-      </c>
-      <c r="C17" s="81" t="s">
-        <v>339</v>
-      </c>
-      <c r="D17" s="81" t="s">
-        <v>340</v>
-      </c>
-      <c r="E17" s="81" t="s">
-        <v>341</v>
-      </c>
-      <c r="F17" s="81" t="s">
-        <v>342</v>
-      </c>
-      <c r="G17" s="81" t="s">
-        <v>343</v>
-      </c>
-      <c r="H17" s="81" t="s">
-        <v>344</v>
-      </c>
-      <c r="I17" s="81" t="s">
-        <v>345</v>
-      </c>
-      <c r="J17" s="81" t="s">
-        <v>346</v>
-      </c>
-      <c r="K17" s="81" t="s">
-        <v>319</v>
-      </c>
-      <c r="L17" s="81" t="s">
-        <v>306</v>
-      </c>
-      <c r="M17" s="81" t="s">
-        <v>294</v>
-      </c>
-      <c r="N17" s="81" t="s">
-        <v>335</v>
-      </c>
-      <c r="O17" s="81" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
-      <c r="A18" s="81" t="s">
-        <v>348</v>
-      </c>
-      <c r="B18" s="81" t="s">
+      <c r="O25" s="81" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15">
+      <c r="A26" s="90" t="s">
+        <v>936</v>
+      </c>
+      <c r="B26" s="81" t="s">
+        <v>937</v>
+      </c>
+      <c r="C26" s="81" t="s">
+        <v>938</v>
+      </c>
+      <c r="D26" s="81" t="s">
+        <v>939</v>
+      </c>
+      <c r="E26" s="81" t="s">
+        <v>940</v>
+      </c>
+      <c r="F26" s="81" t="s">
+        <v>865</v>
+      </c>
+      <c r="G26" s="81" t="s">
+        <v>941</v>
+      </c>
+      <c r="H26" s="81" t="s">
+        <v>942</v>
+      </c>
+      <c r="I26" s="81" t="s">
+        <v>943</v>
+      </c>
+      <c r="J26" s="81" t="s">
+        <v>944</v>
+      </c>
+      <c r="K26" s="81" t="s">
+        <v>945</v>
+      </c>
+      <c r="L26" s="81" t="s">
+        <v>946</v>
+      </c>
+      <c r="M26" s="81" t="s">
+        <v>947</v>
+      </c>
+      <c r="N26" s="81" t="s">
+        <v>948</v>
+      </c>
+      <c r="O26" s="81" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15">
+      <c r="A27" s="90" t="s">
+        <v>924</v>
+      </c>
+      <c r="B27" s="81" t="s">
+        <v>912</v>
+      </c>
+      <c r="C27" s="81" t="s">
+        <v>925</v>
+      </c>
+      <c r="D27" s="81" t="s">
+        <v>926</v>
+      </c>
+      <c r="E27" s="81" t="s">
+        <v>927</v>
+      </c>
+      <c r="F27" s="81" t="s">
+        <v>928</v>
+      </c>
+      <c r="G27" s="81" t="s">
+        <v>929</v>
+      </c>
+      <c r="H27" s="81" t="s">
+        <v>930</v>
+      </c>
+      <c r="I27" s="81" t="s">
+        <v>506</v>
+      </c>
+      <c r="J27" s="81" t="s">
+        <v>931</v>
+      </c>
+      <c r="K27" s="81" t="s">
+        <v>932</v>
+      </c>
+      <c r="L27" s="81" t="s">
+        <v>933</v>
+      </c>
+      <c r="M27" s="81" t="s">
+        <v>921</v>
+      </c>
+      <c r="N27" s="81" t="s">
+        <v>934</v>
+      </c>
+      <c r="O27" s="81" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15">
+      <c r="A28" s="90" t="s">
+        <v>911</v>
+      </c>
+      <c r="B28" s="81" t="s">
+        <v>912</v>
+      </c>
+      <c r="C28" s="81" t="s">
+        <v>913</v>
+      </c>
+      <c r="D28" s="81" t="s">
+        <v>914</v>
+      </c>
+      <c r="E28" s="81" t="s">
+        <v>915</v>
+      </c>
+      <c r="F28" s="81" t="s">
+        <v>916</v>
+      </c>
+      <c r="G28" s="81" t="s">
+        <v>917</v>
+      </c>
+      <c r="H28" s="81" t="s">
+        <v>918</v>
+      </c>
+      <c r="I28" s="81" t="s">
+        <v>573</v>
+      </c>
+      <c r="J28" s="81" t="s">
+        <v>919</v>
+      </c>
+      <c r="K28" s="81" t="s">
+        <v>920</v>
+      </c>
+      <c r="L28" s="81" t="s">
         <v>349</v>
       </c>
-      <c r="C18" s="81" t="s">
-        <v>350</v>
-      </c>
-      <c r="D18" s="81" t="s">
-        <v>351</v>
-      </c>
-      <c r="E18" s="81" t="s">
-        <v>352</v>
-      </c>
-      <c r="F18" s="81" t="s">
-        <v>353</v>
-      </c>
-      <c r="G18" s="81" t="s">
-        <v>354</v>
-      </c>
-      <c r="H18" s="81" t="s">
-        <v>355</v>
-      </c>
-      <c r="I18" s="81" t="s">
-        <v>356</v>
-      </c>
-      <c r="J18" s="81" t="s">
+      <c r="M28" s="81" t="s">
+        <v>921</v>
+      </c>
+      <c r="N28" s="81" t="s">
+        <v>922</v>
+      </c>
+      <c r="O28" s="81" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15">
+      <c r="A29" s="90" t="s">
+        <v>900</v>
+      </c>
+      <c r="B29" s="81" t="s">
+        <v>901</v>
+      </c>
+      <c r="C29" s="81" t="s">
+        <v>902</v>
+      </c>
+      <c r="D29" s="81" t="s">
+        <v>903</v>
+      </c>
+      <c r="E29" s="81" t="s">
+        <v>904</v>
+      </c>
+      <c r="F29" s="81" t="s">
+        <v>545</v>
+      </c>
+      <c r="G29" s="81" t="s">
+        <v>905</v>
+      </c>
+      <c r="H29" s="81" t="s">
+        <v>906</v>
+      </c>
+      <c r="I29" s="81" t="s">
+        <v>474</v>
+      </c>
+      <c r="J29" s="81" t="s">
+        <v>907</v>
+      </c>
+      <c r="K29" s="81" t="s">
+        <v>847</v>
+      </c>
+      <c r="L29" s="81" t="s">
+        <v>705</v>
+      </c>
+      <c r="M29" s="81" t="s">
+        <v>908</v>
+      </c>
+      <c r="N29" s="81" t="s">
+        <v>909</v>
+      </c>
+      <c r="O29" s="81" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15">
+      <c r="A30" s="90" t="s">
+        <v>890</v>
+      </c>
+      <c r="B30" s="81" t="s">
+        <v>856</v>
+      </c>
+      <c r="C30" s="81" t="s">
+        <v>891</v>
+      </c>
+      <c r="D30" s="81" t="s">
+        <v>892</v>
+      </c>
+      <c r="E30" s="81" t="s">
+        <v>882</v>
+      </c>
+      <c r="F30" s="81" t="s">
+        <v>893</v>
+      </c>
+      <c r="G30" s="81" t="s">
+        <v>894</v>
+      </c>
+      <c r="H30" s="81" t="s">
+        <v>895</v>
+      </c>
+      <c r="I30" s="81" t="s">
+        <v>708</v>
+      </c>
+      <c r="J30" s="81" t="s">
+        <v>896</v>
+      </c>
+      <c r="K30" s="81" t="s">
+        <v>547</v>
+      </c>
+      <c r="L30" s="81" t="s">
+        <v>897</v>
+      </c>
+      <c r="M30" s="81" t="s">
+        <v>898</v>
+      </c>
+      <c r="N30" s="81" t="s">
+        <v>829</v>
+      </c>
+      <c r="O30" s="81" t="s">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15">
+      <c r="A31" s="90" t="s">
+        <v>880</v>
+      </c>
+      <c r="B31" s="81" t="s">
+        <v>688</v>
+      </c>
+      <c r="C31" s="81" t="s">
+        <v>832</v>
+      </c>
+      <c r="D31" s="81" t="s">
+        <v>881</v>
+      </c>
+      <c r="E31" s="81" t="s">
+        <v>882</v>
+      </c>
+      <c r="F31" s="81" t="s">
+        <v>883</v>
+      </c>
+      <c r="G31" s="81" t="s">
+        <v>823</v>
+      </c>
+      <c r="H31" s="81" t="s">
+        <v>884</v>
+      </c>
+      <c r="I31" s="81" t="s">
+        <v>669</v>
+      </c>
+      <c r="J31" s="81" t="s">
+        <v>885</v>
+      </c>
+      <c r="K31" s="81" t="s">
+        <v>886</v>
+      </c>
+      <c r="L31" s="81" t="s">
+        <v>887</v>
+      </c>
+      <c r="M31" s="81" t="s">
+        <v>888</v>
+      </c>
+      <c r="N31" s="81" t="s">
+        <v>829</v>
+      </c>
+      <c r="O31" s="81" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15">
+      <c r="A32" s="90" t="s">
+        <v>868</v>
+      </c>
+      <c r="B32" s="81" t="s">
+        <v>869</v>
+      </c>
+      <c r="C32" s="81" t="s">
+        <v>870</v>
+      </c>
+      <c r="D32" s="81" t="s">
+        <v>871</v>
+      </c>
+      <c r="E32" s="81" t="s">
+        <v>872</v>
+      </c>
+      <c r="F32" s="81" t="s">
+        <v>873</v>
+      </c>
+      <c r="G32" s="81" t="s">
+        <v>861</v>
+      </c>
+      <c r="H32" s="81" t="s">
+        <v>874</v>
+      </c>
+      <c r="I32" s="81" t="s">
+        <v>875</v>
+      </c>
+      <c r="J32" s="81" t="s">
+        <v>876</v>
+      </c>
+      <c r="K32" s="81" t="s">
+        <v>877</v>
+      </c>
+      <c r="L32" s="81" t="s">
+        <v>878</v>
+      </c>
+      <c r="M32" s="81" t="s">
+        <v>839</v>
+      </c>
+      <c r="N32" s="81" t="s">
+        <v>853</v>
+      </c>
+      <c r="O32" s="81" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15">
+      <c r="A33" s="90" t="s">
+        <v>855</v>
+      </c>
+      <c r="B33" s="81" t="s">
+        <v>856</v>
+      </c>
+      <c r="C33" s="81" t="s">
+        <v>857</v>
+      </c>
+      <c r="D33" s="81" t="s">
+        <v>858</v>
+      </c>
+      <c r="E33" s="81" t="s">
+        <v>859</v>
+      </c>
+      <c r="F33" s="81" t="s">
+        <v>860</v>
+      </c>
+      <c r="G33" s="81" t="s">
+        <v>861</v>
+      </c>
+      <c r="H33" s="81" t="s">
+        <v>862</v>
+      </c>
+      <c r="I33" s="81" t="s">
+        <v>863</v>
+      </c>
+      <c r="J33" s="81" t="s">
+        <v>864</v>
+      </c>
+      <c r="K33" s="81" t="s">
+        <v>838</v>
+      </c>
+      <c r="L33" s="81" t="s">
+        <v>865</v>
+      </c>
+      <c r="M33" s="81" t="s">
+        <v>839</v>
+      </c>
+      <c r="N33" s="81" t="s">
+        <v>866</v>
+      </c>
+      <c r="O33" s="81" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15">
+      <c r="A34" s="90" t="s">
+        <v>842</v>
+      </c>
+      <c r="B34" s="81" t="s">
+        <v>843</v>
+      </c>
+      <c r="C34" s="81" t="s">
+        <v>844</v>
+      </c>
+      <c r="D34" s="81" t="s">
+        <v>845</v>
+      </c>
+      <c r="E34" s="81" t="s">
+        <v>589</v>
+      </c>
+      <c r="F34" s="81" t="s">
+        <v>846</v>
+      </c>
+      <c r="G34" s="81" t="s">
+        <v>847</v>
+      </c>
+      <c r="H34" s="81" t="s">
+        <v>848</v>
+      </c>
+      <c r="I34" s="81" t="s">
+        <v>849</v>
+      </c>
+      <c r="J34" s="81" t="s">
+        <v>850</v>
+      </c>
+      <c r="K34" s="81" t="s">
+        <v>760</v>
+      </c>
+      <c r="L34" s="81" t="s">
+        <v>851</v>
+      </c>
+      <c r="M34" s="81" t="s">
+        <v>852</v>
+      </c>
+      <c r="N34" s="81" t="s">
+        <v>853</v>
+      </c>
+      <c r="O34" s="81" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15">
+      <c r="A35" s="90" t="s">
+        <v>830</v>
+      </c>
+      <c r="B35" s="81" t="s">
+        <v>831</v>
+      </c>
+      <c r="C35" s="81" t="s">
+        <v>832</v>
+      </c>
+      <c r="D35" s="81" t="s">
+        <v>813</v>
+      </c>
+      <c r="E35" s="81" t="s">
+        <v>833</v>
+      </c>
+      <c r="F35" s="81" t="s">
+        <v>614</v>
+      </c>
+      <c r="G35" s="81" t="s">
+        <v>834</v>
+      </c>
+      <c r="H35" s="81" t="s">
+        <v>835</v>
+      </c>
+      <c r="I35" s="81" t="s">
+        <v>836</v>
+      </c>
+      <c r="J35" s="81" t="s">
+        <v>837</v>
+      </c>
+      <c r="K35" s="81" t="s">
+        <v>838</v>
+      </c>
+      <c r="L35" s="81" t="s">
+        <v>590</v>
+      </c>
+      <c r="M35" s="81" t="s">
+        <v>839</v>
+      </c>
+      <c r="N35" s="81" t="s">
+        <v>840</v>
+      </c>
+      <c r="O35" s="81" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15">
+      <c r="A36" s="90" t="s">
+        <v>818</v>
+      </c>
+      <c r="B36" s="81" t="s">
+        <v>819</v>
+      </c>
+      <c r="C36" s="81" t="s">
+        <v>699</v>
+      </c>
+      <c r="D36" s="81" t="s">
+        <v>820</v>
+      </c>
+      <c r="E36" s="81" t="s">
+        <v>821</v>
+      </c>
+      <c r="F36" s="81" t="s">
+        <v>822</v>
+      </c>
+      <c r="G36" s="81" t="s">
+        <v>823</v>
+      </c>
+      <c r="H36" s="81" t="s">
+        <v>824</v>
+      </c>
+      <c r="I36" s="81" t="s">
+        <v>825</v>
+      </c>
+      <c r="J36" s="81" t="s">
+        <v>826</v>
+      </c>
+      <c r="K36" s="81" t="s">
+        <v>827</v>
+      </c>
+      <c r="L36" s="81" t="s">
         <v>357</v>
       </c>
-      <c r="K18" s="81" t="s">
-        <v>358</v>
-      </c>
-      <c r="L18" s="81" t="s">
-        <v>359</v>
-      </c>
-      <c r="M18" s="81" t="s">
-        <v>360</v>
-      </c>
-      <c r="N18" s="81" t="s">
-        <v>335</v>
-      </c>
-      <c r="O18" s="81" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
-      <c r="A19" s="81" t="s">
-        <v>362</v>
-      </c>
-      <c r="B19" s="81" t="s">
-        <v>363</v>
-      </c>
-      <c r="C19" s="81" t="s">
-        <v>364</v>
-      </c>
-      <c r="D19" s="81" t="s">
-        <v>365</v>
-      </c>
-      <c r="E19" s="81" t="s">
-        <v>366</v>
-      </c>
-      <c r="F19" s="81" t="s">
-        <v>367</v>
-      </c>
-      <c r="G19" s="81" t="s">
-        <v>368</v>
-      </c>
-      <c r="H19" s="81" t="s">
-        <v>369</v>
-      </c>
-      <c r="I19" s="81" t="s">
-        <v>370</v>
-      </c>
-      <c r="J19" s="81" t="s">
-        <v>371</v>
-      </c>
-      <c r="K19" s="81" t="s">
-        <v>372</v>
-      </c>
-      <c r="L19" s="81" t="s">
-        <v>373</v>
-      </c>
-      <c r="M19" s="81" t="s">
-        <v>360</v>
-      </c>
-      <c r="N19" s="81" t="s">
-        <v>335</v>
-      </c>
-      <c r="O19" s="81" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
-      <c r="A20" s="81" t="s">
-        <v>375</v>
-      </c>
-      <c r="B20" s="81" t="s">
-        <v>376</v>
-      </c>
-      <c r="C20" s="81" t="s">
-        <v>377</v>
-      </c>
-      <c r="D20" s="81" t="s">
-        <v>378</v>
-      </c>
-      <c r="E20" s="81" t="s">
-        <v>379</v>
-      </c>
-      <c r="F20" s="81" t="s">
-        <v>380</v>
-      </c>
-      <c r="G20" s="81" t="s">
-        <v>381</v>
-      </c>
-      <c r="H20" s="81" t="s">
-        <v>382</v>
-      </c>
-      <c r="I20" s="81" t="s">
-        <v>383</v>
-      </c>
-      <c r="J20" s="81" t="s">
-        <v>384</v>
-      </c>
-      <c r="K20" s="81" t="s">
-        <v>385</v>
-      </c>
-      <c r="L20" s="81" t="s">
-        <v>386</v>
-      </c>
-      <c r="M20" s="81" t="s">
-        <v>387</v>
-      </c>
-      <c r="N20" s="81" t="s">
-        <v>388</v>
-      </c>
-      <c r="O20" s="81" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
-      <c r="A21" s="81" t="s">
-        <v>390</v>
-      </c>
-      <c r="B21" s="81" t="s">
-        <v>391</v>
-      </c>
-      <c r="C21" s="81" t="s">
-        <v>392</v>
-      </c>
-      <c r="D21" s="81" t="s">
-        <v>393</v>
-      </c>
-      <c r="E21" s="81" t="s">
-        <v>394</v>
-      </c>
-      <c r="F21" s="81" t="s">
-        <v>395</v>
-      </c>
-      <c r="G21" s="81" t="s">
-        <v>396</v>
-      </c>
-      <c r="H21" s="81" t="s">
-        <v>397</v>
-      </c>
-      <c r="I21" s="81" t="s">
-        <v>398</v>
-      </c>
-      <c r="J21" s="81" t="s">
-        <v>278</v>
-      </c>
-      <c r="K21" s="81" t="s">
-        <v>399</v>
-      </c>
-      <c r="L21" s="81" t="s">
-        <v>386</v>
-      </c>
-      <c r="M21" s="81" t="s">
-        <v>387</v>
-      </c>
-      <c r="N21" s="81" t="s">
-        <v>400</v>
-      </c>
-      <c r="O21" s="81" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
-      <c r="A22" s="81" t="s">
-        <v>402</v>
-      </c>
-      <c r="B22" s="81" t="s">
-        <v>403</v>
-      </c>
-      <c r="C22" s="81" t="s">
-        <v>404</v>
-      </c>
-      <c r="D22" s="81" t="s">
-        <v>405</v>
-      </c>
-      <c r="E22" s="81" t="s">
-        <v>406</v>
-      </c>
-      <c r="F22" s="81" t="s">
-        <v>407</v>
-      </c>
-      <c r="G22" s="81" t="s">
-        <v>408</v>
-      </c>
-      <c r="H22" s="81" t="s">
-        <v>409</v>
-      </c>
-      <c r="I22" s="81" t="s">
-        <v>410</v>
-      </c>
-      <c r="J22" s="81" t="s">
-        <v>411</v>
-      </c>
-      <c r="K22" s="81" t="s">
-        <v>412</v>
-      </c>
-      <c r="L22" s="81" t="s">
-        <v>413</v>
-      </c>
-      <c r="M22" s="81" t="s">
-        <v>414</v>
-      </c>
-      <c r="N22" s="81" t="s">
-        <v>388</v>
-      </c>
-      <c r="O22" s="81" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
-      <c r="A23" s="81" t="s">
-        <v>416</v>
-      </c>
-      <c r="B23" s="81" t="s">
-        <v>417</v>
-      </c>
-      <c r="C23" s="81" t="s">
-        <v>418</v>
-      </c>
-      <c r="D23" s="81" t="s">
-        <v>419</v>
-      </c>
-      <c r="E23" s="81" t="s">
-        <v>420</v>
-      </c>
-      <c r="F23" s="81" t="s">
-        <v>421</v>
-      </c>
-      <c r="G23" s="81" t="s">
-        <v>422</v>
-      </c>
-      <c r="H23" s="81" t="s">
-        <v>423</v>
-      </c>
-      <c r="I23" s="81" t="s">
-        <v>424</v>
-      </c>
-      <c r="J23" s="81" t="s">
-        <v>425</v>
-      </c>
-      <c r="K23" s="81" t="s">
-        <v>426</v>
-      </c>
-      <c r="L23" s="81" t="s">
-        <v>427</v>
-      </c>
-      <c r="M23" s="81" t="s">
-        <v>414</v>
-      </c>
-      <c r="N23" s="81" t="s">
-        <v>280</v>
-      </c>
-      <c r="O23" s="81" t="s">
+      <c r="M36" s="81" t="s">
+        <v>828</v>
+      </c>
+      <c r="N36" s="81" t="s">
         <v>428</v>
       </c>
-    </row>
-    <row r="24" spans="1:15">
-      <c r="A24" s="81" t="s">
-        <v>429</v>
-      </c>
-      <c r="B24" s="81" t="s">
-        <v>430</v>
-      </c>
-      <c r="C24" s="81" t="s">
-        <v>225</v>
-      </c>
-      <c r="D24" s="81" t="s">
-        <v>431</v>
-      </c>
-      <c r="E24" s="81" t="s">
-        <v>432</v>
-      </c>
-      <c r="F24" s="81" t="s">
-        <v>433</v>
-      </c>
-      <c r="G24" s="81" t="s">
-        <v>434</v>
-      </c>
-      <c r="H24" s="81" t="s">
-        <v>435</v>
-      </c>
-      <c r="I24" s="81" t="s">
-        <v>436</v>
-      </c>
-      <c r="J24" s="81" t="s">
-        <v>437</v>
-      </c>
-      <c r="K24" s="81" t="s">
-        <v>438</v>
-      </c>
-      <c r="L24" s="81" t="s">
-        <v>439</v>
-      </c>
-      <c r="M24" s="81" t="s">
-        <v>440</v>
-      </c>
-      <c r="N24" s="81" t="s">
-        <v>321</v>
-      </c>
-      <c r="O24" s="81" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
-      <c r="A25" s="81" t="s">
-        <v>442</v>
-      </c>
-      <c r="B25" s="81" t="s">
-        <v>443</v>
-      </c>
-      <c r="C25" s="81" t="s">
-        <v>444</v>
-      </c>
-      <c r="D25" s="81" t="s">
-        <v>445</v>
-      </c>
-      <c r="E25" s="81" t="s">
-        <v>395</v>
-      </c>
-      <c r="F25" s="81" t="s">
-        <v>446</v>
-      </c>
-      <c r="G25" s="81" t="s">
-        <v>447</v>
-      </c>
-      <c r="H25" s="81" t="s">
-        <v>448</v>
-      </c>
-      <c r="I25" s="81" t="s">
-        <v>449</v>
-      </c>
-      <c r="J25" s="81" t="s">
-        <v>450</v>
-      </c>
-      <c r="K25" s="81" t="s">
-        <v>451</v>
-      </c>
-      <c r="L25" s="81" t="s">
-        <v>427</v>
-      </c>
-      <c r="M25" s="81" t="s">
-        <v>440</v>
-      </c>
-      <c r="N25" s="81" t="s">
-        <v>321</v>
-      </c>
-      <c r="O25" s="81" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15">
-      <c r="A26" s="81" t="s">
-        <v>453</v>
-      </c>
-      <c r="B26" s="81" t="s">
-        <v>454</v>
-      </c>
-      <c r="C26" s="81" t="s">
-        <v>455</v>
-      </c>
-      <c r="D26" s="81" t="s">
-        <v>456</v>
-      </c>
-      <c r="E26" s="81" t="s">
-        <v>457</v>
-      </c>
-      <c r="F26" s="81" t="s">
-        <v>458</v>
-      </c>
-      <c r="G26" s="81" t="s">
+      <c r="O36" s="81" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15">
+      <c r="A37" s="90" t="s">
+        <v>805</v>
+      </c>
+      <c r="B37" s="81" t="s">
+        <v>806</v>
+      </c>
+      <c r="C37" s="81" t="s">
+        <v>807</v>
+      </c>
+      <c r="D37" s="81" t="s">
+        <v>808</v>
+      </c>
+      <c r="E37" s="81" t="s">
+        <v>809</v>
+      </c>
+      <c r="F37" s="81" t="s">
+        <v>810</v>
+      </c>
+      <c r="G37" s="81" t="s">
+        <v>811</v>
+      </c>
+      <c r="H37" s="81" t="s">
+        <v>812</v>
+      </c>
+      <c r="I37" s="81" t="s">
+        <v>800</v>
+      </c>
+      <c r="J37" s="81" t="s">
+        <v>813</v>
+      </c>
+      <c r="K37" s="81" t="s">
+        <v>775</v>
+      </c>
+      <c r="L37" s="81" t="s">
+        <v>814</v>
+      </c>
+      <c r="M37" s="81" t="s">
+        <v>815</v>
+      </c>
+      <c r="N37" s="81" t="s">
+        <v>816</v>
+      </c>
+      <c r="O37" s="81" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15">
+      <c r="A38" s="90" t="s">
+        <v>793</v>
+      </c>
+      <c r="B38" s="81" t="s">
+        <v>794</v>
+      </c>
+      <c r="C38" s="81" t="s">
+        <v>795</v>
+      </c>
+      <c r="D38" s="81" t="s">
+        <v>545</v>
+      </c>
+      <c r="E38" s="81" t="s">
+        <v>796</v>
+      </c>
+      <c r="F38" s="81" t="s">
+        <v>797</v>
+      </c>
+      <c r="G38" s="81" t="s">
+        <v>798</v>
+      </c>
+      <c r="H38" s="81" t="s">
+        <v>799</v>
+      </c>
+      <c r="I38" s="81" t="s">
+        <v>800</v>
+      </c>
+      <c r="J38" s="81" t="s">
+        <v>801</v>
+      </c>
+      <c r="K38" s="81" t="s">
+        <v>802</v>
+      </c>
+      <c r="L38" s="81" t="s">
+        <v>586</v>
+      </c>
+      <c r="M38" s="81" t="s">
+        <v>803</v>
+      </c>
+      <c r="N38" s="81" t="s">
+        <v>739</v>
+      </c>
+      <c r="O38" s="81" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15">
+      <c r="A39" s="90" t="s">
+        <v>780</v>
+      </c>
+      <c r="B39" s="81" t="s">
+        <v>781</v>
+      </c>
+      <c r="C39" s="81" t="s">
+        <v>782</v>
+      </c>
+      <c r="D39" s="81" t="s">
+        <v>590</v>
+      </c>
+      <c r="E39" s="81" t="s">
+        <v>783</v>
+      </c>
+      <c r="F39" s="81" t="s">
+        <v>784</v>
+      </c>
+      <c r="G39" s="81" t="s">
+        <v>785</v>
+      </c>
+      <c r="H39" s="81" t="s">
+        <v>786</v>
+      </c>
+      <c r="I39" s="81" t="s">
+        <v>787</v>
+      </c>
+      <c r="J39" s="81" t="s">
+        <v>788</v>
+      </c>
+      <c r="K39" s="81" t="s">
+        <v>549</v>
+      </c>
+      <c r="L39" s="81" t="s">
+        <v>789</v>
+      </c>
+      <c r="M39" s="81" t="s">
+        <v>790</v>
+      </c>
+      <c r="N39" s="81" t="s">
+        <v>791</v>
+      </c>
+      <c r="O39" s="81" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15">
+      <c r="A40" s="90" t="s">
+        <v>767</v>
+      </c>
+      <c r="B40" s="81" t="s">
+        <v>768</v>
+      </c>
+      <c r="C40" s="81" t="s">
+        <v>769</v>
+      </c>
+      <c r="D40" s="81" t="s">
+        <v>770</v>
+      </c>
+      <c r="E40" s="81" t="s">
+        <v>613</v>
+      </c>
+      <c r="F40" s="81" t="s">
+        <v>771</v>
+      </c>
+      <c r="G40" s="81" t="s">
+        <v>772</v>
+      </c>
+      <c r="H40" s="81" t="s">
+        <v>773</v>
+      </c>
+      <c r="I40" s="81" t="s">
         <v>459</v>
       </c>
-      <c r="H26" s="81" t="s">
-        <v>334</v>
-      </c>
-      <c r="I26" s="81" t="s">
-        <v>460</v>
-      </c>
-      <c r="J26" s="81" t="s">
-        <v>461</v>
-      </c>
-      <c r="K26" s="81" t="s">
-        <v>462</v>
-      </c>
-      <c r="L26" s="81" t="s">
-        <v>463</v>
-      </c>
-      <c r="M26" s="81" t="s">
-        <v>387</v>
-      </c>
-      <c r="N26" s="81" t="s">
-        <v>321</v>
-      </c>
-      <c r="O26" s="81" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15">
-      <c r="A27" s="81" t="s">
-        <v>465</v>
-      </c>
-      <c r="B27" s="81" t="s">
-        <v>466</v>
-      </c>
-      <c r="C27" s="81" t="s">
-        <v>467</v>
-      </c>
-      <c r="D27" s="81" t="s">
-        <v>468</v>
-      </c>
-      <c r="E27" s="81" t="s">
-        <v>469</v>
-      </c>
-      <c r="F27" s="81" t="s">
-        <v>470</v>
-      </c>
-      <c r="G27" s="81" t="s">
-        <v>471</v>
-      </c>
-      <c r="H27" s="81" t="s">
-        <v>472</v>
-      </c>
-      <c r="I27" s="81" t="s">
-        <v>473</v>
-      </c>
-      <c r="J27" s="81" t="s">
-        <v>474</v>
-      </c>
-      <c r="K27" s="81" t="s">
-        <v>369</v>
-      </c>
-      <c r="L27" s="81" t="s">
-        <v>475</v>
-      </c>
-      <c r="M27" s="81" t="s">
-        <v>387</v>
-      </c>
-      <c r="N27" s="81" t="s">
-        <v>321</v>
-      </c>
-      <c r="O27" s="81" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15">
-      <c r="A28" s="81" t="s">
-        <v>477</v>
-      </c>
-      <c r="B28" s="81" t="s">
-        <v>478</v>
-      </c>
-      <c r="C28" s="81" t="s">
-        <v>384</v>
-      </c>
-      <c r="D28" s="81" t="s">
-        <v>479</v>
-      </c>
-      <c r="E28" s="81" t="s">
-        <v>480</v>
-      </c>
-      <c r="F28" s="81" t="s">
-        <v>481</v>
-      </c>
-      <c r="G28" s="81" t="s">
-        <v>482</v>
-      </c>
-      <c r="H28" s="81" t="s">
-        <v>483</v>
-      </c>
-      <c r="I28" s="81" t="s">
-        <v>484</v>
-      </c>
-      <c r="J28" s="81" t="s">
-        <v>485</v>
-      </c>
-      <c r="K28" s="81" t="s">
-        <v>486</v>
-      </c>
-      <c r="L28" s="81" t="s">
-        <v>487</v>
-      </c>
-      <c r="M28" s="81" t="s">
-        <v>440</v>
-      </c>
-      <c r="N28" s="81" t="s">
-        <v>335</v>
-      </c>
-      <c r="O28" s="81" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15">
-      <c r="A29" s="81" t="s">
-        <v>489</v>
-      </c>
-      <c r="B29" s="81" t="s">
-        <v>490</v>
-      </c>
-      <c r="C29" s="81" t="s">
-        <v>491</v>
-      </c>
-      <c r="D29" s="81" t="s">
-        <v>492</v>
-      </c>
-      <c r="E29" s="81" t="s">
-        <v>493</v>
-      </c>
-      <c r="F29" s="81" t="s">
-        <v>494</v>
-      </c>
-      <c r="G29" s="81" t="s">
-        <v>495</v>
-      </c>
-      <c r="H29" s="81" t="s">
-        <v>496</v>
-      </c>
-      <c r="I29" s="81" t="s">
-        <v>497</v>
-      </c>
-      <c r="J29" s="81" t="s">
-        <v>498</v>
-      </c>
-      <c r="K29" s="81" t="s">
-        <v>499</v>
-      </c>
-      <c r="L29" s="81" t="s">
-        <v>500</v>
-      </c>
-      <c r="M29" s="81" t="s">
-        <v>440</v>
-      </c>
-      <c r="N29" s="81" t="s">
-        <v>335</v>
-      </c>
-      <c r="O29" s="81" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15">
-      <c r="A30" s="81" t="s">
-        <v>502</v>
-      </c>
-      <c r="B30" s="81" t="s">
-        <v>503</v>
-      </c>
-      <c r="C30" s="81" t="s">
-        <v>504</v>
-      </c>
-      <c r="D30" s="81" t="s">
-        <v>505</v>
-      </c>
-      <c r="E30" s="81" t="s">
-        <v>230</v>
-      </c>
-      <c r="F30" s="81" t="s">
-        <v>506</v>
-      </c>
-      <c r="G30" s="81" t="s">
-        <v>507</v>
-      </c>
-      <c r="H30" s="81" t="s">
-        <v>508</v>
-      </c>
-      <c r="I30" s="81" t="s">
-        <v>509</v>
-      </c>
-      <c r="J30" s="81" t="s">
-        <v>510</v>
-      </c>
-      <c r="K30" s="81" t="s">
-        <v>511</v>
-      </c>
-      <c r="L30" s="81" t="s">
-        <v>512</v>
-      </c>
-      <c r="M30" s="81" t="s">
-        <v>440</v>
-      </c>
-      <c r="N30" s="81" t="s">
-        <v>335</v>
-      </c>
-      <c r="O30" s="81" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15">
-      <c r="A31" s="81" t="s">
-        <v>514</v>
-      </c>
-      <c r="B31" s="81" t="s">
-        <v>515</v>
-      </c>
-      <c r="C31" s="81" t="s">
-        <v>516</v>
-      </c>
-      <c r="D31" s="81" t="s">
-        <v>248</v>
-      </c>
-      <c r="E31" s="81" t="s">
-        <v>517</v>
-      </c>
-      <c r="F31" s="81" t="s">
-        <v>518</v>
-      </c>
-      <c r="G31" s="81" t="s">
-        <v>519</v>
-      </c>
-      <c r="H31" s="81" t="s">
-        <v>520</v>
-      </c>
-      <c r="I31" s="81" t="s">
-        <v>521</v>
-      </c>
-      <c r="J31" s="81" t="s">
-        <v>522</v>
-      </c>
-      <c r="K31" s="81" t="s">
-        <v>523</v>
-      </c>
-      <c r="L31" s="81" t="s">
-        <v>524</v>
-      </c>
-      <c r="M31" s="81" t="s">
-        <v>525</v>
-      </c>
-      <c r="N31" s="81" t="s">
-        <v>335</v>
-      </c>
-      <c r="O31" s="81" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15">
-      <c r="A32" s="81" t="s">
-        <v>527</v>
-      </c>
-      <c r="B32" s="81" t="s">
-        <v>528</v>
-      </c>
-      <c r="C32" s="81" t="s">
-        <v>529</v>
-      </c>
-      <c r="D32" s="81" t="s">
-        <v>530</v>
-      </c>
-      <c r="E32" s="81" t="s">
-        <v>531</v>
-      </c>
-      <c r="F32" s="81" t="s">
-        <v>532</v>
-      </c>
-      <c r="G32" s="81" t="s">
-        <v>533</v>
-      </c>
-      <c r="H32" s="81" t="s">
-        <v>534</v>
-      </c>
-      <c r="I32" s="81" t="s">
-        <v>535</v>
-      </c>
-      <c r="J32" s="81" t="s">
-        <v>536</v>
-      </c>
-      <c r="K32" s="81" t="s">
-        <v>537</v>
-      </c>
-      <c r="L32" s="81" t="s">
-        <v>538</v>
-      </c>
-      <c r="M32" s="81" t="s">
-        <v>539</v>
-      </c>
-      <c r="N32" s="81" t="s">
-        <v>540</v>
-      </c>
-      <c r="O32" s="81" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="33" spans="1:15">
-      <c r="A33" s="81" t="s">
-        <v>542</v>
-      </c>
-      <c r="B33" s="81" t="s">
-        <v>543</v>
-      </c>
-      <c r="C33" s="81" t="s">
-        <v>544</v>
-      </c>
-      <c r="D33" s="81" t="s">
-        <v>545</v>
-      </c>
-      <c r="E33" s="81" t="s">
-        <v>546</v>
-      </c>
-      <c r="F33" s="81" t="s">
-        <v>547</v>
-      </c>
-      <c r="G33" s="81" t="s">
-        <v>548</v>
-      </c>
-      <c r="H33" s="81" t="s">
-        <v>549</v>
-      </c>
-      <c r="I33" s="81" t="s">
-        <v>550</v>
-      </c>
-      <c r="J33" s="81" t="s">
-        <v>551</v>
-      </c>
-      <c r="K33" s="81" t="s">
-        <v>552</v>
-      </c>
-      <c r="L33" s="81" t="s">
-        <v>553</v>
-      </c>
-      <c r="M33" s="81" t="s">
-        <v>554</v>
-      </c>
-      <c r="N33" s="81" t="s">
-        <v>280</v>
-      </c>
-      <c r="O33" s="81" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="34" spans="1:15">
-      <c r="A34" s="81" t="s">
-        <v>556</v>
-      </c>
-      <c r="B34" s="81" t="s">
-        <v>557</v>
-      </c>
-      <c r="C34" s="81" t="s">
-        <v>558</v>
-      </c>
-      <c r="D34" s="81" t="s">
-        <v>559</v>
-      </c>
-      <c r="E34" s="81" t="s">
-        <v>560</v>
-      </c>
-      <c r="F34" s="81" t="s">
-        <v>561</v>
-      </c>
-      <c r="G34" s="81" t="s">
-        <v>562</v>
-      </c>
-      <c r="H34" s="81" t="s">
-        <v>563</v>
-      </c>
-      <c r="I34" s="81" t="s">
-        <v>564</v>
-      </c>
-      <c r="J34" s="81" t="s">
-        <v>565</v>
-      </c>
-      <c r="K34" s="81" t="s">
-        <v>566</v>
-      </c>
-      <c r="L34" s="81" t="s">
-        <v>567</v>
-      </c>
-      <c r="M34" s="81" t="s">
-        <v>525</v>
-      </c>
-      <c r="N34" s="81" t="s">
-        <v>568</v>
-      </c>
-      <c r="O34" s="81" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="35" spans="1:15">
-      <c r="A35" s="81" t="s">
-        <v>570</v>
-      </c>
-      <c r="B35" s="81" t="s">
-        <v>571</v>
-      </c>
-      <c r="C35" s="81" t="s">
-        <v>572</v>
-      </c>
-      <c r="D35" s="81" t="s">
-        <v>573</v>
-      </c>
-      <c r="E35" s="81" t="s">
-        <v>574</v>
-      </c>
-      <c r="F35" s="81" t="s">
-        <v>575</v>
-      </c>
-      <c r="G35" s="81" t="s">
-        <v>576</v>
-      </c>
-      <c r="H35" s="81" t="s">
-        <v>577</v>
-      </c>
-      <c r="I35" s="81" t="s">
-        <v>578</v>
-      </c>
-      <c r="J35" s="81" t="s">
-        <v>579</v>
-      </c>
-      <c r="K35" s="81" t="s">
-        <v>580</v>
-      </c>
-      <c r="L35" s="81" t="s">
-        <v>581</v>
-      </c>
-      <c r="M35" s="81" t="s">
-        <v>525</v>
-      </c>
-      <c r="N35" s="81" t="s">
-        <v>582</v>
-      </c>
-      <c r="O35" s="81" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="36" spans="1:15">
-      <c r="A36" s="81" t="s">
-        <v>583</v>
-      </c>
-      <c r="B36" s="81" t="s">
-        <v>584</v>
-      </c>
-      <c r="C36" s="81" t="s">
-        <v>585</v>
-      </c>
-      <c r="D36" s="81" t="s">
-        <v>586</v>
-      </c>
-      <c r="E36" s="81" t="s">
-        <v>587</v>
-      </c>
-      <c r="F36" s="81" t="s">
-        <v>588</v>
-      </c>
-      <c r="G36" s="81" t="s">
-        <v>507</v>
-      </c>
-      <c r="H36" s="81" t="s">
-        <v>589</v>
-      </c>
-      <c r="I36" s="81" t="s">
-        <v>590</v>
-      </c>
-      <c r="J36" s="81" t="s">
-        <v>591</v>
-      </c>
-      <c r="K36" s="81" t="s">
-        <v>592</v>
-      </c>
-      <c r="L36" s="81" t="s">
-        <v>593</v>
-      </c>
-      <c r="M36" s="81" t="s">
-        <v>440</v>
-      </c>
-      <c r="N36" s="81" t="s">
-        <v>594</v>
-      </c>
-      <c r="O36" s="81" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="37" spans="1:15">
-      <c r="A37" s="81" t="s">
-        <v>596</v>
-      </c>
-      <c r="B37" s="81" t="s">
-        <v>597</v>
-      </c>
-      <c r="C37" s="81" t="s">
-        <v>598</v>
-      </c>
-      <c r="D37" s="81" t="s">
-        <v>599</v>
-      </c>
-      <c r="E37" s="81" t="s">
-        <v>600</v>
-      </c>
-      <c r="F37" s="81" t="s">
-        <v>601</v>
-      </c>
-      <c r="G37" s="81" t="s">
-        <v>602</v>
-      </c>
-      <c r="H37" s="81" t="s">
-        <v>603</v>
-      </c>
-      <c r="I37" s="81" t="s">
-        <v>604</v>
-      </c>
-      <c r="J37" s="81" t="s">
-        <v>605</v>
-      </c>
-      <c r="K37" s="81" t="s">
-        <v>606</v>
-      </c>
-      <c r="L37" s="81" t="s">
-        <v>607</v>
-      </c>
-      <c r="M37" s="81" t="s">
-        <v>554</v>
-      </c>
-      <c r="N37" s="81" t="s">
-        <v>236</v>
-      </c>
-      <c r="O37" s="81" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="38" spans="1:15">
-      <c r="A38" s="81" t="s">
-        <v>608</v>
-      </c>
-      <c r="B38" s="81" t="s">
-        <v>574</v>
-      </c>
-      <c r="C38" s="81" t="s">
-        <v>609</v>
-      </c>
-      <c r="D38" s="81" t="s">
-        <v>346</v>
-      </c>
-      <c r="E38" s="81" t="s">
-        <v>610</v>
-      </c>
-      <c r="F38" s="81" t="s">
-        <v>611</v>
-      </c>
-      <c r="G38" s="81" t="s">
-        <v>612</v>
-      </c>
-      <c r="H38" s="81" t="s">
-        <v>613</v>
-      </c>
-      <c r="I38" s="81" t="s">
-        <v>614</v>
-      </c>
-      <c r="J38" s="81" t="s">
-        <v>615</v>
-      </c>
-      <c r="K38" s="81" t="s">
-        <v>616</v>
-      </c>
-      <c r="L38" s="81" t="s">
-        <v>617</v>
-      </c>
-      <c r="M38" s="81" t="s">
-        <v>525</v>
-      </c>
-      <c r="N38" s="81" t="s">
-        <v>618</v>
-      </c>
-      <c r="O38" s="81" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="39" spans="1:15">
-      <c r="A39" s="81" t="s">
-        <v>620</v>
-      </c>
-      <c r="B39" s="81" t="s">
-        <v>621</v>
-      </c>
-      <c r="C39" s="81" t="s">
-        <v>622</v>
-      </c>
-      <c r="D39" s="81" t="s">
-        <v>623</v>
-      </c>
-      <c r="E39" s="81" t="s">
-        <v>624</v>
-      </c>
-      <c r="F39" s="81" t="s">
-        <v>625</v>
-      </c>
-      <c r="G39" s="81" t="s">
-        <v>626</v>
-      </c>
-      <c r="H39" s="81" t="s">
-        <v>627</v>
-      </c>
-      <c r="I39" s="81" t="s">
-        <v>628</v>
-      </c>
-      <c r="J39" s="81" t="s">
-        <v>629</v>
-      </c>
-      <c r="K39" s="81" t="s">
-        <v>630</v>
-      </c>
-      <c r="L39" s="81" t="s">
-        <v>631</v>
-      </c>
-      <c r="M39" s="81" t="s">
-        <v>539</v>
-      </c>
-      <c r="N39" s="81" t="s">
-        <v>221</v>
-      </c>
-      <c r="O39" s="81" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="40" spans="1:15">
-      <c r="A40" s="81" t="s">
-        <v>633</v>
-      </c>
-      <c r="B40" s="81" t="s">
-        <v>634</v>
-      </c>
-      <c r="C40" s="81" t="s">
-        <v>635</v>
-      </c>
-      <c r="D40" s="81" t="s">
-        <v>636</v>
-      </c>
-      <c r="E40" s="81" t="s">
-        <v>637</v>
-      </c>
-      <c r="F40" s="81" t="s">
-        <v>638</v>
-      </c>
-      <c r="G40" s="81" t="s">
-        <v>639</v>
-      </c>
-      <c r="H40" s="81" t="s">
-        <v>640</v>
-      </c>
-      <c r="I40" s="81" t="s">
-        <v>607</v>
-      </c>
       <c r="J40" s="81" t="s">
-        <v>641</v>
+        <v>774</v>
       </c>
       <c r="K40" s="81" t="s">
-        <v>642</v>
+        <v>775</v>
       </c>
       <c r="L40" s="81" t="s">
-        <v>643</v>
+        <v>776</v>
       </c>
       <c r="M40" s="81" t="s">
-        <v>279</v>
+        <v>777</v>
       </c>
       <c r="N40" s="81" t="s">
-        <v>644</v>
+        <v>778</v>
       </c>
       <c r="O40" s="81" t="s">
-        <v>645</v>
+        <v>779</v>
       </c>
     </row>
     <row r="41" spans="1:15">
-      <c r="A41" s="81" t="s">
-        <v>646</v>
+      <c r="A41" s="90" t="s">
+        <v>754</v>
       </c>
       <c r="B41" s="81" t="s">
-        <v>647</v>
+        <v>755</v>
       </c>
       <c r="C41" s="81" t="s">
-        <v>635</v>
+        <v>756</v>
       </c>
       <c r="D41" s="81" t="s">
-        <v>648</v>
+        <v>757</v>
       </c>
       <c r="E41" s="81" t="s">
-        <v>649</v>
+        <v>758</v>
       </c>
       <c r="F41" s="81" t="s">
-        <v>650</v>
+        <v>759</v>
       </c>
       <c r="G41" s="81" t="s">
-        <v>651</v>
+        <v>760</v>
       </c>
       <c r="H41" s="81" t="s">
-        <v>652</v>
+        <v>761</v>
       </c>
       <c r="I41" s="81" t="s">
-        <v>653</v>
+        <v>762</v>
       </c>
       <c r="J41" s="81" t="s">
-        <v>654</v>
+        <v>763</v>
       </c>
       <c r="K41" s="81" t="s">
         <v>655</v>
       </c>
       <c r="L41" s="81" t="s">
-        <v>656</v>
+        <v>736</v>
       </c>
       <c r="M41" s="81" t="s">
-        <v>294</v>
+        <v>764</v>
       </c>
       <c r="N41" s="81" t="s">
-        <v>657</v>
+        <v>765</v>
       </c>
       <c r="O41" s="81" t="s">
-        <v>658</v>
+        <v>766</v>
       </c>
     </row>
     <row r="42" spans="1:15">
-      <c r="A42" s="81" t="s">
-        <v>659</v>
+      <c r="A42" s="90" t="s">
+        <v>740</v>
       </c>
       <c r="B42" s="81" t="s">
-        <v>660</v>
+        <v>741</v>
       </c>
       <c r="C42" s="81" t="s">
-        <v>661</v>
+        <v>742</v>
       </c>
       <c r="D42" s="81" t="s">
-        <v>662</v>
+        <v>743</v>
       </c>
       <c r="E42" s="81" t="s">
-        <v>663</v>
+        <v>744</v>
       </c>
       <c r="F42" s="81" t="s">
-        <v>664</v>
+        <v>745</v>
       </c>
       <c r="G42" s="81" t="s">
-        <v>665</v>
+        <v>746</v>
       </c>
       <c r="H42" s="81" t="s">
-        <v>666</v>
+        <v>747</v>
       </c>
       <c r="I42" s="81" t="s">
-        <v>667</v>
+        <v>748</v>
       </c>
       <c r="J42" s="81" t="s">
-        <v>629</v>
+        <v>749</v>
       </c>
       <c r="K42" s="81" t="s">
-        <v>668</v>
+        <v>642</v>
       </c>
       <c r="L42" s="81" t="s">
-        <v>669</v>
+        <v>750</v>
       </c>
       <c r="M42" s="81" t="s">
-        <v>670</v>
+        <v>751</v>
       </c>
       <c r="N42" s="81" t="s">
-        <v>671</v>
+        <v>752</v>
       </c>
       <c r="O42" s="81" t="s">
-        <v>672</v>
+        <v>753</v>
       </c>
     </row>
     <row r="43" spans="1:15">
-      <c r="A43" s="81" t="s">
-        <v>673</v>
+      <c r="A43" s="90" t="s">
+        <v>727</v>
       </c>
       <c r="B43" s="81" t="s">
-        <v>597</v>
+        <v>728</v>
       </c>
       <c r="C43" s="81" t="s">
-        <v>674</v>
+        <v>729</v>
       </c>
       <c r="D43" s="81" t="s">
+        <v>730</v>
+      </c>
+      <c r="E43" s="81" t="s">
+        <v>731</v>
+      </c>
+      <c r="F43" s="81" t="s">
+        <v>732</v>
+      </c>
+      <c r="G43" s="81" t="s">
+        <v>733</v>
+      </c>
+      <c r="H43" s="81" t="s">
+        <v>734</v>
+      </c>
+      <c r="I43" s="81" t="s">
         <v>675</v>
       </c>
-      <c r="E43" s="81" t="s">
-        <v>676</v>
-      </c>
-      <c r="F43" s="81" t="s">
-        <v>500</v>
-      </c>
-      <c r="G43" s="81" t="s">
-        <v>677</v>
-      </c>
-      <c r="H43" s="81" t="s">
-        <v>678</v>
-      </c>
-      <c r="I43" s="81" t="s">
-        <v>679</v>
-      </c>
       <c r="J43" s="81" t="s">
-        <v>359</v>
+        <v>735</v>
       </c>
       <c r="K43" s="81" t="s">
         <v>680</v>
       </c>
       <c r="L43" s="81" t="s">
-        <v>681</v>
+        <v>736</v>
       </c>
       <c r="M43" s="81" t="s">
-        <v>414</v>
+        <v>737</v>
       </c>
       <c r="N43" s="81" t="s">
-        <v>682</v>
+        <v>738</v>
       </c>
       <c r="O43" s="81" t="s">
-        <v>683</v>
+        <v>739</v>
       </c>
     </row>
     <row r="44" spans="1:15">
-      <c r="A44" s="81" t="s">
-        <v>684</v>
+      <c r="A44" s="90" t="s">
+        <v>712</v>
       </c>
       <c r="B44" s="81" t="s">
-        <v>685</v>
+        <v>713</v>
       </c>
       <c r="C44" s="81" t="s">
-        <v>686</v>
+        <v>714</v>
       </c>
       <c r="D44" s="81" t="s">
-        <v>687</v>
+        <v>715</v>
       </c>
       <c r="E44" s="81" t="s">
-        <v>688</v>
+        <v>716</v>
       </c>
       <c r="F44" s="81" t="s">
-        <v>689</v>
+        <v>717</v>
       </c>
       <c r="G44" s="81" t="s">
-        <v>690</v>
+        <v>718</v>
       </c>
       <c r="H44" s="81" t="s">
-        <v>691</v>
+        <v>719</v>
       </c>
       <c r="I44" s="81" t="s">
-        <v>692</v>
+        <v>720</v>
       </c>
       <c r="J44" s="81" t="s">
-        <v>693</v>
+        <v>721</v>
       </c>
       <c r="K44" s="81" t="s">
-        <v>694</v>
+        <v>722</v>
       </c>
       <c r="L44" s="81" t="s">
-        <v>695</v>
+        <v>723</v>
       </c>
       <c r="M44" s="81" t="s">
-        <v>414</v>
+        <v>724</v>
       </c>
       <c r="N44" s="81" t="s">
-        <v>696</v>
+        <v>725</v>
       </c>
       <c r="O44" s="81" t="s">
-        <v>697</v>
+        <v>726</v>
       </c>
     </row>
     <row r="45" spans="1:15">
-      <c r="A45" s="81" t="s">
+      <c r="A45" s="90" t="s">
         <v>698</v>
       </c>
       <c r="B45" s="81" t="s">
@@ -77482,2027 +78572,2030 @@
       </c>
     </row>
     <row r="46" spans="1:15">
-      <c r="A46" s="81" t="s">
-        <v>712</v>
+      <c r="A46" s="90" t="s">
+        <v>684</v>
       </c>
       <c r="B46" s="81" t="s">
-        <v>713</v>
+        <v>685</v>
       </c>
       <c r="C46" s="81" t="s">
-        <v>714</v>
+        <v>686</v>
       </c>
       <c r="D46" s="81" t="s">
-        <v>715</v>
+        <v>687</v>
       </c>
       <c r="E46" s="81" t="s">
-        <v>716</v>
+        <v>688</v>
       </c>
       <c r="F46" s="81" t="s">
-        <v>717</v>
+        <v>689</v>
       </c>
       <c r="G46" s="81" t="s">
-        <v>718</v>
+        <v>690</v>
       </c>
       <c r="H46" s="81" t="s">
-        <v>719</v>
+        <v>691</v>
       </c>
       <c r="I46" s="81" t="s">
-        <v>720</v>
+        <v>692</v>
       </c>
       <c r="J46" s="81" t="s">
-        <v>721</v>
+        <v>693</v>
       </c>
       <c r="K46" s="81" t="s">
-        <v>722</v>
+        <v>694</v>
       </c>
       <c r="L46" s="81" t="s">
-        <v>723</v>
+        <v>695</v>
       </c>
       <c r="M46" s="81" t="s">
-        <v>724</v>
+        <v>414</v>
       </c>
       <c r="N46" s="81" t="s">
-        <v>725</v>
+        <v>696</v>
       </c>
       <c r="O46" s="81" t="s">
-        <v>726</v>
+        <v>697</v>
       </c>
     </row>
     <row r="47" spans="1:15">
-      <c r="A47" s="81" t="s">
-        <v>727</v>
+      <c r="A47" s="90" t="s">
+        <v>673</v>
       </c>
       <c r="B47" s="81" t="s">
-        <v>728</v>
+        <v>597</v>
       </c>
       <c r="C47" s="81" t="s">
-        <v>729</v>
+        <v>674</v>
       </c>
       <c r="D47" s="81" t="s">
-        <v>730</v>
+        <v>675</v>
       </c>
       <c r="E47" s="81" t="s">
-        <v>731</v>
+        <v>676</v>
       </c>
       <c r="F47" s="81" t="s">
-        <v>732</v>
+        <v>500</v>
       </c>
       <c r="G47" s="81" t="s">
-        <v>733</v>
+        <v>677</v>
       </c>
       <c r="H47" s="81" t="s">
-        <v>734</v>
+        <v>678</v>
       </c>
       <c r="I47" s="81" t="s">
-        <v>675</v>
+        <v>679</v>
       </c>
       <c r="J47" s="81" t="s">
-        <v>735</v>
+        <v>359</v>
       </c>
       <c r="K47" s="81" t="s">
         <v>680</v>
       </c>
       <c r="L47" s="81" t="s">
-        <v>736</v>
+        <v>681</v>
       </c>
       <c r="M47" s="81" t="s">
-        <v>737</v>
+        <v>414</v>
       </c>
       <c r="N47" s="81" t="s">
-        <v>738</v>
+        <v>682</v>
       </c>
       <c r="O47" s="81" t="s">
-        <v>739</v>
+        <v>683</v>
       </c>
     </row>
     <row r="48" spans="1:15">
-      <c r="A48" s="81" t="s">
-        <v>740</v>
+      <c r="A48" s="90" t="s">
+        <v>659</v>
       </c>
       <c r="B48" s="81" t="s">
-        <v>741</v>
+        <v>660</v>
       </c>
       <c r="C48" s="81" t="s">
-        <v>742</v>
+        <v>661</v>
       </c>
       <c r="D48" s="81" t="s">
-        <v>743</v>
+        <v>662</v>
       </c>
       <c r="E48" s="81" t="s">
-        <v>744</v>
+        <v>663</v>
       </c>
       <c r="F48" s="81" t="s">
-        <v>745</v>
+        <v>664</v>
       </c>
       <c r="G48" s="81" t="s">
-        <v>746</v>
+        <v>665</v>
       </c>
       <c r="H48" s="81" t="s">
-        <v>747</v>
+        <v>666</v>
       </c>
       <c r="I48" s="81" t="s">
-        <v>748</v>
+        <v>667</v>
       </c>
       <c r="J48" s="81" t="s">
-        <v>749</v>
+        <v>629</v>
       </c>
       <c r="K48" s="81" t="s">
-        <v>642</v>
+        <v>668</v>
       </c>
       <c r="L48" s="81" t="s">
-        <v>750</v>
+        <v>669</v>
       </c>
       <c r="M48" s="81" t="s">
-        <v>751</v>
+        <v>670</v>
       </c>
       <c r="N48" s="81" t="s">
-        <v>752</v>
+        <v>671</v>
       </c>
       <c r="O48" s="81" t="s">
-        <v>753</v>
+        <v>672</v>
       </c>
     </row>
     <row r="49" spans="1:15">
-      <c r="A49" s="81" t="s">
-        <v>754</v>
+      <c r="A49" s="90" t="s">
+        <v>646</v>
       </c>
       <c r="B49" s="81" t="s">
-        <v>755</v>
+        <v>647</v>
       </c>
       <c r="C49" s="81" t="s">
-        <v>756</v>
+        <v>635</v>
       </c>
       <c r="D49" s="81" t="s">
-        <v>757</v>
+        <v>648</v>
       </c>
       <c r="E49" s="81" t="s">
-        <v>758</v>
+        <v>649</v>
       </c>
       <c r="F49" s="81" t="s">
-        <v>759</v>
+        <v>650</v>
       </c>
       <c r="G49" s="81" t="s">
-        <v>760</v>
+        <v>651</v>
       </c>
       <c r="H49" s="81" t="s">
-        <v>761</v>
+        <v>652</v>
       </c>
       <c r="I49" s="81" t="s">
-        <v>762</v>
+        <v>653</v>
       </c>
       <c r="J49" s="81" t="s">
-        <v>763</v>
+        <v>654</v>
       </c>
       <c r="K49" s="81" t="s">
         <v>655</v>
       </c>
       <c r="L49" s="81" t="s">
-        <v>736</v>
+        <v>656</v>
       </c>
       <c r="M49" s="81" t="s">
-        <v>764</v>
+        <v>294</v>
       </c>
       <c r="N49" s="81" t="s">
-        <v>765</v>
+        <v>657</v>
       </c>
       <c r="O49" s="81" t="s">
-        <v>766</v>
+        <v>658</v>
       </c>
     </row>
     <row r="50" spans="1:15">
-      <c r="A50" s="81" t="s">
-        <v>767</v>
+      <c r="A50" s="90" t="s">
+        <v>633</v>
       </c>
       <c r="B50" s="81" t="s">
-        <v>768</v>
+        <v>634</v>
       </c>
       <c r="C50" s="81" t="s">
-        <v>769</v>
+        <v>635</v>
       </c>
       <c r="D50" s="81" t="s">
-        <v>770</v>
+        <v>636</v>
       </c>
       <c r="E50" s="81" t="s">
+        <v>637</v>
+      </c>
+      <c r="F50" s="81" t="s">
+        <v>638</v>
+      </c>
+      <c r="G50" s="81" t="s">
+        <v>639</v>
+      </c>
+      <c r="H50" s="81" t="s">
+        <v>640</v>
+      </c>
+      <c r="I50" s="81" t="s">
+        <v>607</v>
+      </c>
+      <c r="J50" s="81" t="s">
+        <v>641</v>
+      </c>
+      <c r="K50" s="81" t="s">
+        <v>642</v>
+      </c>
+      <c r="L50" s="81" t="s">
+        <v>643</v>
+      </c>
+      <c r="M50" s="81" t="s">
+        <v>279</v>
+      </c>
+      <c r="N50" s="81" t="s">
+        <v>644</v>
+      </c>
+      <c r="O50" s="81" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15">
+      <c r="A51" s="90" t="s">
+        <v>620</v>
+      </c>
+      <c r="B51" s="81" t="s">
+        <v>621</v>
+      </c>
+      <c r="C51" s="81" t="s">
+        <v>622</v>
+      </c>
+      <c r="D51" s="81" t="s">
+        <v>623</v>
+      </c>
+      <c r="E51" s="81" t="s">
+        <v>624</v>
+      </c>
+      <c r="F51" s="81" t="s">
+        <v>625</v>
+      </c>
+      <c r="G51" s="81" t="s">
+        <v>626</v>
+      </c>
+      <c r="H51" s="81" t="s">
+        <v>627</v>
+      </c>
+      <c r="I51" s="81" t="s">
+        <v>628</v>
+      </c>
+      <c r="J51" s="81" t="s">
+        <v>629</v>
+      </c>
+      <c r="K51" s="81" t="s">
+        <v>630</v>
+      </c>
+      <c r="L51" s="81" t="s">
+        <v>631</v>
+      </c>
+      <c r="M51" s="81" t="s">
+        <v>539</v>
+      </c>
+      <c r="N51" s="81" t="s">
+        <v>221</v>
+      </c>
+      <c r="O51" s="81" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15">
+      <c r="A52" s="90" t="s">
+        <v>608</v>
+      </c>
+      <c r="B52" s="81" t="s">
+        <v>574</v>
+      </c>
+      <c r="C52" s="81" t="s">
+        <v>609</v>
+      </c>
+      <c r="D52" s="81" t="s">
+        <v>346</v>
+      </c>
+      <c r="E52" s="81" t="s">
+        <v>610</v>
+      </c>
+      <c r="F52" s="81" t="s">
+        <v>611</v>
+      </c>
+      <c r="G52" s="81" t="s">
+        <v>612</v>
+      </c>
+      <c r="H52" s="81" t="s">
         <v>613</v>
       </c>
-      <c r="F50" s="81" t="s">
-        <v>771</v>
-      </c>
-      <c r="G50" s="81" t="s">
-        <v>772</v>
-      </c>
-      <c r="H50" s="81" t="s">
-        <v>773</v>
-      </c>
-      <c r="I50" s="81" t="s">
+      <c r="I52" s="81" t="s">
+        <v>614</v>
+      </c>
+      <c r="J52" s="81" t="s">
+        <v>615</v>
+      </c>
+      <c r="K52" s="81" t="s">
+        <v>616</v>
+      </c>
+      <c r="L52" s="81" t="s">
+        <v>617</v>
+      </c>
+      <c r="M52" s="81" t="s">
+        <v>525</v>
+      </c>
+      <c r="N52" s="81" t="s">
+        <v>618</v>
+      </c>
+      <c r="O52" s="81" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15">
+      <c r="A53" s="90" t="s">
+        <v>596</v>
+      </c>
+      <c r="B53" s="81" t="s">
+        <v>597</v>
+      </c>
+      <c r="C53" s="81" t="s">
+        <v>598</v>
+      </c>
+      <c r="D53" s="81" t="s">
+        <v>599</v>
+      </c>
+      <c r="E53" s="81" t="s">
+        <v>600</v>
+      </c>
+      <c r="F53" s="81" t="s">
+        <v>601</v>
+      </c>
+      <c r="G53" s="81" t="s">
+        <v>602</v>
+      </c>
+      <c r="H53" s="81" t="s">
+        <v>603</v>
+      </c>
+      <c r="I53" s="81" t="s">
+        <v>604</v>
+      </c>
+      <c r="J53" s="81" t="s">
+        <v>605</v>
+      </c>
+      <c r="K53" s="81" t="s">
+        <v>606</v>
+      </c>
+      <c r="L53" s="81" t="s">
+        <v>607</v>
+      </c>
+      <c r="M53" s="81" t="s">
+        <v>554</v>
+      </c>
+      <c r="N53" s="81" t="s">
+        <v>236</v>
+      </c>
+      <c r="O53" s="81" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15">
+      <c r="A54" s="90" t="s">
+        <v>583</v>
+      </c>
+      <c r="B54" s="81" t="s">
+        <v>584</v>
+      </c>
+      <c r="C54" s="81" t="s">
+        <v>585</v>
+      </c>
+      <c r="D54" s="81" t="s">
+        <v>586</v>
+      </c>
+      <c r="E54" s="81" t="s">
+        <v>587</v>
+      </c>
+      <c r="F54" s="81" t="s">
+        <v>588</v>
+      </c>
+      <c r="G54" s="81" t="s">
+        <v>507</v>
+      </c>
+      <c r="H54" s="81" t="s">
+        <v>589</v>
+      </c>
+      <c r="I54" s="81" t="s">
+        <v>590</v>
+      </c>
+      <c r="J54" s="81" t="s">
+        <v>591</v>
+      </c>
+      <c r="K54" s="81" t="s">
+        <v>592</v>
+      </c>
+      <c r="L54" s="81" t="s">
+        <v>593</v>
+      </c>
+      <c r="M54" s="81" t="s">
+        <v>440</v>
+      </c>
+      <c r="N54" s="81" t="s">
+        <v>594</v>
+      </c>
+      <c r="O54" s="81" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15">
+      <c r="A55" s="90" t="s">
+        <v>570</v>
+      </c>
+      <c r="B55" s="81" t="s">
+        <v>571</v>
+      </c>
+      <c r="C55" s="81" t="s">
+        <v>572</v>
+      </c>
+      <c r="D55" s="81" t="s">
+        <v>573</v>
+      </c>
+      <c r="E55" s="81" t="s">
+        <v>574</v>
+      </c>
+      <c r="F55" s="81" t="s">
+        <v>575</v>
+      </c>
+      <c r="G55" s="81" t="s">
+        <v>576</v>
+      </c>
+      <c r="H55" s="81" t="s">
+        <v>577</v>
+      </c>
+      <c r="I55" s="81" t="s">
+        <v>578</v>
+      </c>
+      <c r="J55" s="81" t="s">
+        <v>579</v>
+      </c>
+      <c r="K55" s="81" t="s">
+        <v>580</v>
+      </c>
+      <c r="L55" s="81" t="s">
+        <v>581</v>
+      </c>
+      <c r="M55" s="81" t="s">
+        <v>525</v>
+      </c>
+      <c r="N55" s="81" t="s">
+        <v>582</v>
+      </c>
+      <c r="O55" s="81" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15">
+      <c r="A56" s="90" t="s">
+        <v>556</v>
+      </c>
+      <c r="B56" s="81" t="s">
+        <v>557</v>
+      </c>
+      <c r="C56" s="81" t="s">
+        <v>558</v>
+      </c>
+      <c r="D56" s="81" t="s">
+        <v>559</v>
+      </c>
+      <c r="E56" s="81" t="s">
+        <v>560</v>
+      </c>
+      <c r="F56" s="81" t="s">
+        <v>561</v>
+      </c>
+      <c r="G56" s="81" t="s">
+        <v>562</v>
+      </c>
+      <c r="H56" s="81" t="s">
+        <v>563</v>
+      </c>
+      <c r="I56" s="81" t="s">
+        <v>564</v>
+      </c>
+      <c r="J56" s="81" t="s">
+        <v>565</v>
+      </c>
+      <c r="K56" s="81" t="s">
+        <v>566</v>
+      </c>
+      <c r="L56" s="81" t="s">
+        <v>567</v>
+      </c>
+      <c r="M56" s="81" t="s">
+        <v>525</v>
+      </c>
+      <c r="N56" s="81" t="s">
+        <v>568</v>
+      </c>
+      <c r="O56" s="81" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15">
+      <c r="A57" s="90" t="s">
+        <v>542</v>
+      </c>
+      <c r="B57" s="81" t="s">
+        <v>543</v>
+      </c>
+      <c r="C57" s="81" t="s">
+        <v>544</v>
+      </c>
+      <c r="D57" s="81" t="s">
+        <v>545</v>
+      </c>
+      <c r="E57" s="81" t="s">
+        <v>546</v>
+      </c>
+      <c r="F57" s="81" t="s">
+        <v>547</v>
+      </c>
+      <c r="G57" s="81" t="s">
+        <v>548</v>
+      </c>
+      <c r="H57" s="81" t="s">
+        <v>549</v>
+      </c>
+      <c r="I57" s="81" t="s">
+        <v>550</v>
+      </c>
+      <c r="J57" s="81" t="s">
+        <v>551</v>
+      </c>
+      <c r="K57" s="81" t="s">
+        <v>552</v>
+      </c>
+      <c r="L57" s="81" t="s">
+        <v>553</v>
+      </c>
+      <c r="M57" s="81" t="s">
+        <v>554</v>
+      </c>
+      <c r="N57" s="81" t="s">
+        <v>280</v>
+      </c>
+      <c r="O57" s="81" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15">
+      <c r="A58" s="90" t="s">
+        <v>527</v>
+      </c>
+      <c r="B58" s="81" t="s">
+        <v>528</v>
+      </c>
+      <c r="C58" s="81" t="s">
+        <v>529</v>
+      </c>
+      <c r="D58" s="81" t="s">
+        <v>530</v>
+      </c>
+      <c r="E58" s="81" t="s">
+        <v>531</v>
+      </c>
+      <c r="F58" s="81" t="s">
+        <v>532</v>
+      </c>
+      <c r="G58" s="81" t="s">
+        <v>533</v>
+      </c>
+      <c r="H58" s="81" t="s">
+        <v>534</v>
+      </c>
+      <c r="I58" s="81" t="s">
+        <v>535</v>
+      </c>
+      <c r="J58" s="81" t="s">
+        <v>536</v>
+      </c>
+      <c r="K58" s="81" t="s">
+        <v>537</v>
+      </c>
+      <c r="L58" s="81" t="s">
+        <v>538</v>
+      </c>
+      <c r="M58" s="81" t="s">
+        <v>539</v>
+      </c>
+      <c r="N58" s="81" t="s">
+        <v>540</v>
+      </c>
+      <c r="O58" s="81" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15">
+      <c r="A59" s="90" t="s">
+        <v>514</v>
+      </c>
+      <c r="B59" s="81" t="s">
+        <v>515</v>
+      </c>
+      <c r="C59" s="81" t="s">
+        <v>516</v>
+      </c>
+      <c r="D59" s="81" t="s">
+        <v>248</v>
+      </c>
+      <c r="E59" s="81" t="s">
+        <v>517</v>
+      </c>
+      <c r="F59" s="81" t="s">
+        <v>518</v>
+      </c>
+      <c r="G59" s="81" t="s">
+        <v>519</v>
+      </c>
+      <c r="H59" s="81" t="s">
+        <v>520</v>
+      </c>
+      <c r="I59" s="81" t="s">
+        <v>521</v>
+      </c>
+      <c r="J59" s="81" t="s">
+        <v>522</v>
+      </c>
+      <c r="K59" s="81" t="s">
+        <v>523</v>
+      </c>
+      <c r="L59" s="81" t="s">
+        <v>524</v>
+      </c>
+      <c r="M59" s="81" t="s">
+        <v>525</v>
+      </c>
+      <c r="N59" s="81" t="s">
+        <v>335</v>
+      </c>
+      <c r="O59" s="81" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15">
+      <c r="A60" s="90" t="s">
+        <v>502</v>
+      </c>
+      <c r="B60" s="81" t="s">
+        <v>503</v>
+      </c>
+      <c r="C60" s="81" t="s">
+        <v>504</v>
+      </c>
+      <c r="D60" s="81" t="s">
+        <v>505</v>
+      </c>
+      <c r="E60" s="81" t="s">
+        <v>230</v>
+      </c>
+      <c r="F60" s="81" t="s">
+        <v>506</v>
+      </c>
+      <c r="G60" s="81" t="s">
+        <v>507</v>
+      </c>
+      <c r="H60" s="81" t="s">
+        <v>508</v>
+      </c>
+      <c r="I60" s="81" t="s">
+        <v>509</v>
+      </c>
+      <c r="J60" s="81" t="s">
+        <v>510</v>
+      </c>
+      <c r="K60" s="81" t="s">
+        <v>511</v>
+      </c>
+      <c r="L60" s="81" t="s">
+        <v>512</v>
+      </c>
+      <c r="M60" s="81" t="s">
+        <v>440</v>
+      </c>
+      <c r="N60" s="81" t="s">
+        <v>335</v>
+      </c>
+      <c r="O60" s="81" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15">
+      <c r="A61" s="90" t="s">
+        <v>489</v>
+      </c>
+      <c r="B61" s="81" t="s">
+        <v>490</v>
+      </c>
+      <c r="C61" s="81" t="s">
+        <v>491</v>
+      </c>
+      <c r="D61" s="81" t="s">
+        <v>492</v>
+      </c>
+      <c r="E61" s="81" t="s">
+        <v>493</v>
+      </c>
+      <c r="F61" s="81" t="s">
+        <v>494</v>
+      </c>
+      <c r="G61" s="81" t="s">
+        <v>495</v>
+      </c>
+      <c r="H61" s="81" t="s">
+        <v>496</v>
+      </c>
+      <c r="I61" s="81" t="s">
+        <v>497</v>
+      </c>
+      <c r="J61" s="81" t="s">
+        <v>498</v>
+      </c>
+      <c r="K61" s="81" t="s">
+        <v>499</v>
+      </c>
+      <c r="L61" s="81" t="s">
+        <v>500</v>
+      </c>
+      <c r="M61" s="81" t="s">
+        <v>440</v>
+      </c>
+      <c r="N61" s="81" t="s">
+        <v>335</v>
+      </c>
+      <c r="O61" s="81" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15">
+      <c r="A62" s="90" t="s">
+        <v>477</v>
+      </c>
+      <c r="B62" s="81" t="s">
+        <v>478</v>
+      </c>
+      <c r="C62" s="81" t="s">
+        <v>384</v>
+      </c>
+      <c r="D62" s="81" t="s">
+        <v>479</v>
+      </c>
+      <c r="E62" s="81" t="s">
+        <v>480</v>
+      </c>
+      <c r="F62" s="81" t="s">
+        <v>481</v>
+      </c>
+      <c r="G62" s="81" t="s">
+        <v>482</v>
+      </c>
+      <c r="H62" s="81" t="s">
+        <v>483</v>
+      </c>
+      <c r="I62" s="81" t="s">
+        <v>484</v>
+      </c>
+      <c r="J62" s="81" t="s">
+        <v>485</v>
+      </c>
+      <c r="K62" s="81" t="s">
+        <v>486</v>
+      </c>
+      <c r="L62" s="81" t="s">
+        <v>487</v>
+      </c>
+      <c r="M62" s="81" t="s">
+        <v>440</v>
+      </c>
+      <c r="N62" s="81" t="s">
+        <v>335</v>
+      </c>
+      <c r="O62" s="81" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15">
+      <c r="A63" s="90" t="s">
+        <v>465</v>
+      </c>
+      <c r="B63" s="81" t="s">
+        <v>466</v>
+      </c>
+      <c r="C63" s="81" t="s">
+        <v>467</v>
+      </c>
+      <c r="D63" s="81" t="s">
+        <v>468</v>
+      </c>
+      <c r="E63" s="81" t="s">
+        <v>469</v>
+      </c>
+      <c r="F63" s="81" t="s">
+        <v>470</v>
+      </c>
+      <c r="G63" s="81" t="s">
+        <v>471</v>
+      </c>
+      <c r="H63" s="81" t="s">
+        <v>472</v>
+      </c>
+      <c r="I63" s="81" t="s">
+        <v>473</v>
+      </c>
+      <c r="J63" s="81" t="s">
+        <v>474</v>
+      </c>
+      <c r="K63" s="81" t="s">
+        <v>369</v>
+      </c>
+      <c r="L63" s="81" t="s">
+        <v>475</v>
+      </c>
+      <c r="M63" s="81" t="s">
+        <v>387</v>
+      </c>
+      <c r="N63" s="81" t="s">
+        <v>321</v>
+      </c>
+      <c r="O63" s="81" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15">
+      <c r="A64" s="90" t="s">
+        <v>453</v>
+      </c>
+      <c r="B64" s="81" t="s">
+        <v>454</v>
+      </c>
+      <c r="C64" s="81" t="s">
+        <v>455</v>
+      </c>
+      <c r="D64" s="81" t="s">
+        <v>456</v>
+      </c>
+      <c r="E64" s="81" t="s">
+        <v>457</v>
+      </c>
+      <c r="F64" s="81" t="s">
+        <v>458</v>
+      </c>
+      <c r="G64" s="81" t="s">
         <v>459</v>
       </c>
-      <c r="J50" s="81" t="s">
-        <v>774</v>
-      </c>
-      <c r="K50" s="81" t="s">
-        <v>775</v>
-      </c>
-      <c r="L50" s="81" t="s">
-        <v>776</v>
-      </c>
-      <c r="M50" s="81" t="s">
-        <v>777</v>
-      </c>
-      <c r="N50" s="81" t="s">
-        <v>778</v>
-      </c>
-      <c r="O50" s="81" t="s">
-        <v>779</v>
-      </c>
-    </row>
-    <row r="51" spans="1:15">
-      <c r="A51" s="81" t="s">
-        <v>780</v>
-      </c>
-      <c r="B51" s="81" t="s">
-        <v>781</v>
-      </c>
-      <c r="C51" s="81" t="s">
-        <v>782</v>
-      </c>
-      <c r="D51" s="81" t="s">
-        <v>590</v>
-      </c>
-      <c r="E51" s="81" t="s">
-        <v>783</v>
-      </c>
-      <c r="F51" s="81" t="s">
-        <v>784</v>
-      </c>
-      <c r="G51" s="81" t="s">
-        <v>785</v>
-      </c>
-      <c r="H51" s="81" t="s">
-        <v>786</v>
-      </c>
-      <c r="I51" s="81" t="s">
-        <v>787</v>
-      </c>
-      <c r="J51" s="81" t="s">
-        <v>788</v>
-      </c>
-      <c r="K51" s="81" t="s">
-        <v>549</v>
-      </c>
-      <c r="L51" s="81" t="s">
-        <v>789</v>
-      </c>
-      <c r="M51" s="81" t="s">
-        <v>790</v>
-      </c>
-      <c r="N51" s="81" t="s">
-        <v>791</v>
-      </c>
-      <c r="O51" s="81" t="s">
-        <v>792</v>
-      </c>
-    </row>
-    <row r="52" spans="1:15">
-      <c r="A52" s="81" t="s">
-        <v>793</v>
-      </c>
-      <c r="B52" s="81" t="s">
-        <v>794</v>
-      </c>
-      <c r="C52" s="81" t="s">
-        <v>795</v>
-      </c>
-      <c r="D52" s="81" t="s">
-        <v>545</v>
-      </c>
-      <c r="E52" s="81" t="s">
-        <v>796</v>
-      </c>
-      <c r="F52" s="81" t="s">
-        <v>797</v>
-      </c>
-      <c r="G52" s="81" t="s">
-        <v>798</v>
-      </c>
-      <c r="H52" s="81" t="s">
-        <v>799</v>
-      </c>
-      <c r="I52" s="81" t="s">
-        <v>800</v>
-      </c>
-      <c r="J52" s="81" t="s">
-        <v>801</v>
-      </c>
-      <c r="K52" s="81" t="s">
-        <v>802</v>
-      </c>
-      <c r="L52" s="81" t="s">
-        <v>586</v>
-      </c>
-      <c r="M52" s="81" t="s">
-        <v>803</v>
-      </c>
-      <c r="N52" s="81" t="s">
-        <v>739</v>
-      </c>
-      <c r="O52" s="81" t="s">
-        <v>804</v>
-      </c>
-    </row>
-    <row r="53" spans="1:15">
-      <c r="A53" s="81" t="s">
-        <v>805</v>
-      </c>
-      <c r="B53" s="81" t="s">
-        <v>806</v>
-      </c>
-      <c r="C53" s="81" t="s">
-        <v>807</v>
-      </c>
-      <c r="D53" s="81" t="s">
-        <v>808</v>
-      </c>
-      <c r="E53" s="81" t="s">
-        <v>809</v>
-      </c>
-      <c r="F53" s="81" t="s">
-        <v>810</v>
-      </c>
-      <c r="G53" s="81" t="s">
-        <v>811</v>
-      </c>
-      <c r="H53" s="81" t="s">
-        <v>812</v>
-      </c>
-      <c r="I53" s="81" t="s">
-        <v>800</v>
-      </c>
-      <c r="J53" s="81" t="s">
-        <v>813</v>
-      </c>
-      <c r="K53" s="81" t="s">
-        <v>775</v>
-      </c>
-      <c r="L53" s="81" t="s">
-        <v>814</v>
-      </c>
-      <c r="M53" s="81" t="s">
-        <v>815</v>
-      </c>
-      <c r="N53" s="81" t="s">
-        <v>816</v>
-      </c>
-      <c r="O53" s="81" t="s">
-        <v>817</v>
-      </c>
-    </row>
-    <row r="54" spans="1:15">
-      <c r="A54" s="81" t="s">
-        <v>818</v>
-      </c>
-      <c r="B54" s="81" t="s">
-        <v>819</v>
-      </c>
-      <c r="C54" s="81" t="s">
-        <v>699</v>
-      </c>
-      <c r="D54" s="81" t="s">
-        <v>820</v>
-      </c>
-      <c r="E54" s="81" t="s">
-        <v>821</v>
-      </c>
-      <c r="F54" s="81" t="s">
-        <v>822</v>
-      </c>
-      <c r="G54" s="81" t="s">
-        <v>823</v>
-      </c>
-      <c r="H54" s="81" t="s">
-        <v>824</v>
-      </c>
-      <c r="I54" s="81" t="s">
-        <v>825</v>
-      </c>
-      <c r="J54" s="81" t="s">
-        <v>826</v>
-      </c>
-      <c r="K54" s="81" t="s">
-        <v>827</v>
-      </c>
-      <c r="L54" s="81" t="s">
+      <c r="H64" s="81" t="s">
+        <v>334</v>
+      </c>
+      <c r="I64" s="81" t="s">
+        <v>460</v>
+      </c>
+      <c r="J64" s="81" t="s">
+        <v>461</v>
+      </c>
+      <c r="K64" s="81" t="s">
+        <v>462</v>
+      </c>
+      <c r="L64" s="81" t="s">
+        <v>463</v>
+      </c>
+      <c r="M64" s="81" t="s">
+        <v>387</v>
+      </c>
+      <c r="N64" s="81" t="s">
+        <v>321</v>
+      </c>
+      <c r="O64" s="81" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15">
+      <c r="A65" s="90" t="s">
+        <v>442</v>
+      </c>
+      <c r="B65" s="81" t="s">
+        <v>443</v>
+      </c>
+      <c r="C65" s="81" t="s">
+        <v>444</v>
+      </c>
+      <c r="D65" s="81" t="s">
+        <v>445</v>
+      </c>
+      <c r="E65" s="81" t="s">
+        <v>395</v>
+      </c>
+      <c r="F65" s="81" t="s">
+        <v>446</v>
+      </c>
+      <c r="G65" s="81" t="s">
+        <v>447</v>
+      </c>
+      <c r="H65" s="81" t="s">
+        <v>448</v>
+      </c>
+      <c r="I65" s="81" t="s">
+        <v>449</v>
+      </c>
+      <c r="J65" s="81" t="s">
+        <v>450</v>
+      </c>
+      <c r="K65" s="81" t="s">
+        <v>451</v>
+      </c>
+      <c r="L65" s="81" t="s">
+        <v>427</v>
+      </c>
+      <c r="M65" s="81" t="s">
+        <v>440</v>
+      </c>
+      <c r="N65" s="81" t="s">
+        <v>321</v>
+      </c>
+      <c r="O65" s="81" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15">
+      <c r="A66" s="90" t="s">
+        <v>429</v>
+      </c>
+      <c r="B66" s="81" t="s">
+        <v>430</v>
+      </c>
+      <c r="C66" s="81" t="s">
+        <v>225</v>
+      </c>
+      <c r="D66" s="81" t="s">
+        <v>431</v>
+      </c>
+      <c r="E66" s="81" t="s">
+        <v>432</v>
+      </c>
+      <c r="F66" s="81" t="s">
+        <v>433</v>
+      </c>
+      <c r="G66" s="81" t="s">
+        <v>434</v>
+      </c>
+      <c r="H66" s="81" t="s">
+        <v>435</v>
+      </c>
+      <c r="I66" s="81" t="s">
+        <v>436</v>
+      </c>
+      <c r="J66" s="81" t="s">
+        <v>437</v>
+      </c>
+      <c r="K66" s="81" t="s">
+        <v>438</v>
+      </c>
+      <c r="L66" s="81" t="s">
+        <v>439</v>
+      </c>
+      <c r="M66" s="81" t="s">
+        <v>440</v>
+      </c>
+      <c r="N66" s="81" t="s">
+        <v>321</v>
+      </c>
+      <c r="O66" s="81" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15">
+      <c r="A67" s="90" t="s">
+        <v>416</v>
+      </c>
+      <c r="B67" s="81" t="s">
+        <v>417</v>
+      </c>
+      <c r="C67" s="81" t="s">
+        <v>418</v>
+      </c>
+      <c r="D67" s="81" t="s">
+        <v>419</v>
+      </c>
+      <c r="E67" s="81" t="s">
+        <v>420</v>
+      </c>
+      <c r="F67" s="81" t="s">
+        <v>421</v>
+      </c>
+      <c r="G67" s="81" t="s">
+        <v>422</v>
+      </c>
+      <c r="H67" s="81" t="s">
+        <v>423</v>
+      </c>
+      <c r="I67" s="81" t="s">
+        <v>424</v>
+      </c>
+      <c r="J67" s="81" t="s">
+        <v>425</v>
+      </c>
+      <c r="K67" s="81" t="s">
+        <v>426</v>
+      </c>
+      <c r="L67" s="81" t="s">
+        <v>427</v>
+      </c>
+      <c r="M67" s="81" t="s">
+        <v>414</v>
+      </c>
+      <c r="N67" s="81" t="s">
+        <v>280</v>
+      </c>
+      <c r="O67" s="81" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15">
+      <c r="A68" s="90" t="s">
+        <v>402</v>
+      </c>
+      <c r="B68" s="81" t="s">
+        <v>403</v>
+      </c>
+      <c r="C68" s="81" t="s">
+        <v>404</v>
+      </c>
+      <c r="D68" s="81" t="s">
+        <v>405</v>
+      </c>
+      <c r="E68" s="81" t="s">
+        <v>406</v>
+      </c>
+      <c r="F68" s="81" t="s">
+        <v>407</v>
+      </c>
+      <c r="G68" s="81" t="s">
+        <v>408</v>
+      </c>
+      <c r="H68" s="81" t="s">
+        <v>409</v>
+      </c>
+      <c r="I68" s="81" t="s">
+        <v>410</v>
+      </c>
+      <c r="J68" s="81" t="s">
+        <v>411</v>
+      </c>
+      <c r="K68" s="81" t="s">
+        <v>412</v>
+      </c>
+      <c r="L68" s="81" t="s">
+        <v>413</v>
+      </c>
+      <c r="M68" s="81" t="s">
+        <v>414</v>
+      </c>
+      <c r="N68" s="81" t="s">
+        <v>388</v>
+      </c>
+      <c r="O68" s="81" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15">
+      <c r="A69" s="90" t="s">
+        <v>390</v>
+      </c>
+      <c r="B69" s="81" t="s">
+        <v>391</v>
+      </c>
+      <c r="C69" s="81" t="s">
+        <v>392</v>
+      </c>
+      <c r="D69" s="81" t="s">
+        <v>393</v>
+      </c>
+      <c r="E69" s="81" t="s">
+        <v>394</v>
+      </c>
+      <c r="F69" s="81" t="s">
+        <v>395</v>
+      </c>
+      <c r="G69" s="81" t="s">
+        <v>396</v>
+      </c>
+      <c r="H69" s="81" t="s">
+        <v>397</v>
+      </c>
+      <c r="I69" s="81" t="s">
+        <v>398</v>
+      </c>
+      <c r="J69" s="81" t="s">
+        <v>278</v>
+      </c>
+      <c r="K69" s="81" t="s">
+        <v>399</v>
+      </c>
+      <c r="L69" s="81" t="s">
+        <v>386</v>
+      </c>
+      <c r="M69" s="81" t="s">
+        <v>387</v>
+      </c>
+      <c r="N69" s="81" t="s">
+        <v>400</v>
+      </c>
+      <c r="O69" s="81" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15">
+      <c r="A70" s="90" t="s">
+        <v>375</v>
+      </c>
+      <c r="B70" s="81" t="s">
+        <v>376</v>
+      </c>
+      <c r="C70" s="81" t="s">
+        <v>377</v>
+      </c>
+      <c r="D70" s="81" t="s">
+        <v>378</v>
+      </c>
+      <c r="E70" s="81" t="s">
+        <v>379</v>
+      </c>
+      <c r="F70" s="81" t="s">
+        <v>380</v>
+      </c>
+      <c r="G70" s="81" t="s">
+        <v>381</v>
+      </c>
+      <c r="H70" s="81" t="s">
+        <v>382</v>
+      </c>
+      <c r="I70" s="81" t="s">
+        <v>383</v>
+      </c>
+      <c r="J70" s="81" t="s">
+        <v>384</v>
+      </c>
+      <c r="K70" s="81" t="s">
+        <v>385</v>
+      </c>
+      <c r="L70" s="81" t="s">
+        <v>386</v>
+      </c>
+      <c r="M70" s="81" t="s">
+        <v>387</v>
+      </c>
+      <c r="N70" s="81" t="s">
+        <v>388</v>
+      </c>
+      <c r="O70" s="81" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15">
+      <c r="A71" s="90" t="s">
+        <v>362</v>
+      </c>
+      <c r="B71" s="81" t="s">
+        <v>363</v>
+      </c>
+      <c r="C71" s="81" t="s">
+        <v>364</v>
+      </c>
+      <c r="D71" s="81" t="s">
+        <v>365</v>
+      </c>
+      <c r="E71" s="81" t="s">
+        <v>366</v>
+      </c>
+      <c r="F71" s="81" t="s">
+        <v>367</v>
+      </c>
+      <c r="G71" s="81" t="s">
+        <v>368</v>
+      </c>
+      <c r="H71" s="81" t="s">
+        <v>369</v>
+      </c>
+      <c r="I71" s="81" t="s">
+        <v>370</v>
+      </c>
+      <c r="J71" s="81" t="s">
+        <v>371</v>
+      </c>
+      <c r="K71" s="81" t="s">
+        <v>372</v>
+      </c>
+      <c r="L71" s="81" t="s">
+        <v>373</v>
+      </c>
+      <c r="M71" s="81" t="s">
+        <v>360</v>
+      </c>
+      <c r="N71" s="81" t="s">
+        <v>335</v>
+      </c>
+      <c r="O71" s="81" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15">
+      <c r="A72" s="90" t="s">
+        <v>348</v>
+      </c>
+      <c r="B72" s="81" t="s">
+        <v>349</v>
+      </c>
+      <c r="C72" s="81" t="s">
+        <v>350</v>
+      </c>
+      <c r="D72" s="81" t="s">
+        <v>351</v>
+      </c>
+      <c r="E72" s="81" t="s">
+        <v>352</v>
+      </c>
+      <c r="F72" s="81" t="s">
+        <v>353</v>
+      </c>
+      <c r="G72" s="81" t="s">
+        <v>354</v>
+      </c>
+      <c r="H72" s="81" t="s">
+        <v>355</v>
+      </c>
+      <c r="I72" s="81" t="s">
+        <v>356</v>
+      </c>
+      <c r="J72" s="81" t="s">
         <v>357</v>
       </c>
-      <c r="M54" s="81" t="s">
-        <v>828</v>
-      </c>
-      <c r="N54" s="81" t="s">
-        <v>428</v>
-      </c>
-      <c r="O54" s="81" t="s">
-        <v>829</v>
-      </c>
-    </row>
-    <row r="55" spans="1:15">
-      <c r="A55" s="81" t="s">
-        <v>830</v>
-      </c>
-      <c r="B55" s="81" t="s">
-        <v>831</v>
-      </c>
-      <c r="C55" s="81" t="s">
-        <v>832</v>
-      </c>
-      <c r="D55" s="81" t="s">
-        <v>813</v>
-      </c>
-      <c r="E55" s="81" t="s">
-        <v>833</v>
-      </c>
-      <c r="F55" s="81" t="s">
-        <v>614</v>
-      </c>
-      <c r="G55" s="81" t="s">
-        <v>834</v>
-      </c>
-      <c r="H55" s="81" t="s">
-        <v>835</v>
-      </c>
-      <c r="I55" s="81" t="s">
-        <v>836</v>
-      </c>
-      <c r="J55" s="81" t="s">
-        <v>837</v>
-      </c>
-      <c r="K55" s="81" t="s">
-        <v>838</v>
-      </c>
-      <c r="L55" s="81" t="s">
-        <v>590</v>
-      </c>
-      <c r="M55" s="81" t="s">
-        <v>839</v>
-      </c>
-      <c r="N55" s="81" t="s">
-        <v>840</v>
-      </c>
-      <c r="O55" s="81" t="s">
-        <v>841</v>
-      </c>
-    </row>
-    <row r="56" spans="1:15">
-      <c r="A56" s="81" t="s">
-        <v>842</v>
-      </c>
-      <c r="B56" s="81" t="s">
-        <v>843</v>
-      </c>
-      <c r="C56" s="81" t="s">
-        <v>844</v>
-      </c>
-      <c r="D56" s="81" t="s">
-        <v>845</v>
-      </c>
-      <c r="E56" s="81" t="s">
-        <v>589</v>
-      </c>
-      <c r="F56" s="81" t="s">
-        <v>846</v>
-      </c>
-      <c r="G56" s="81" t="s">
-        <v>847</v>
-      </c>
-      <c r="H56" s="81" t="s">
-        <v>848</v>
-      </c>
-      <c r="I56" s="81" t="s">
-        <v>849</v>
-      </c>
-      <c r="J56" s="81" t="s">
-        <v>850</v>
-      </c>
-      <c r="K56" s="81" t="s">
-        <v>760</v>
-      </c>
-      <c r="L56" s="81" t="s">
-        <v>851</v>
-      </c>
-      <c r="M56" s="81" t="s">
-        <v>852</v>
-      </c>
-      <c r="N56" s="81" t="s">
-        <v>853</v>
-      </c>
-      <c r="O56" s="81" t="s">
-        <v>854</v>
-      </c>
-    </row>
-    <row r="57" spans="1:15">
-      <c r="A57" s="81" t="s">
-        <v>855</v>
-      </c>
-      <c r="B57" s="81" t="s">
-        <v>856</v>
-      </c>
-      <c r="C57" s="81" t="s">
-        <v>857</v>
-      </c>
-      <c r="D57" s="81" t="s">
-        <v>858</v>
-      </c>
-      <c r="E57" s="81" t="s">
-        <v>859</v>
-      </c>
-      <c r="F57" s="81" t="s">
-        <v>860</v>
-      </c>
-      <c r="G57" s="81" t="s">
-        <v>861</v>
-      </c>
-      <c r="H57" s="81" t="s">
-        <v>862</v>
-      </c>
-      <c r="I57" s="81" t="s">
-        <v>863</v>
-      </c>
-      <c r="J57" s="81" t="s">
-        <v>864</v>
-      </c>
-      <c r="K57" s="81" t="s">
-        <v>838</v>
-      </c>
-      <c r="L57" s="81" t="s">
-        <v>865</v>
-      </c>
-      <c r="M57" s="81" t="s">
-        <v>839</v>
-      </c>
-      <c r="N57" s="81" t="s">
-        <v>866</v>
-      </c>
-      <c r="O57" s="81" t="s">
-        <v>867</v>
-      </c>
-    </row>
-    <row r="58" spans="1:15">
-      <c r="A58" s="81" t="s">
-        <v>868</v>
-      </c>
-      <c r="B58" s="81" t="s">
-        <v>869</v>
-      </c>
-      <c r="C58" s="81" t="s">
-        <v>870</v>
-      </c>
-      <c r="D58" s="81" t="s">
-        <v>871</v>
-      </c>
-      <c r="E58" s="81" t="s">
-        <v>872</v>
-      </c>
-      <c r="F58" s="81" t="s">
-        <v>873</v>
-      </c>
-      <c r="G58" s="81" t="s">
-        <v>861</v>
-      </c>
-      <c r="H58" s="81" t="s">
-        <v>874</v>
-      </c>
-      <c r="I58" s="81" t="s">
-        <v>875</v>
-      </c>
-      <c r="J58" s="81" t="s">
-        <v>876</v>
-      </c>
-      <c r="K58" s="81" t="s">
-        <v>877</v>
-      </c>
-      <c r="L58" s="81" t="s">
-        <v>878</v>
-      </c>
-      <c r="M58" s="81" t="s">
-        <v>839</v>
-      </c>
-      <c r="N58" s="81" t="s">
-        <v>853</v>
-      </c>
-      <c r="O58" s="81" t="s">
-        <v>879</v>
-      </c>
-    </row>
-    <row r="59" spans="1:15">
-      <c r="A59" s="81" t="s">
-        <v>880</v>
-      </c>
-      <c r="B59" s="81" t="s">
-        <v>688</v>
-      </c>
-      <c r="C59" s="81" t="s">
-        <v>832</v>
-      </c>
-      <c r="D59" s="81" t="s">
-        <v>881</v>
-      </c>
-      <c r="E59" s="81" t="s">
-        <v>882</v>
-      </c>
-      <c r="F59" s="81" t="s">
-        <v>883</v>
-      </c>
-      <c r="G59" s="81" t="s">
-        <v>823</v>
-      </c>
-      <c r="H59" s="81" t="s">
-        <v>884</v>
-      </c>
-      <c r="I59" s="81" t="s">
-        <v>669</v>
-      </c>
-      <c r="J59" s="81" t="s">
-        <v>885</v>
-      </c>
-      <c r="K59" s="81" t="s">
-        <v>886</v>
-      </c>
-      <c r="L59" s="81" t="s">
-        <v>887</v>
-      </c>
-      <c r="M59" s="81" t="s">
-        <v>888</v>
-      </c>
-      <c r="N59" s="81" t="s">
-        <v>829</v>
-      </c>
-      <c r="O59" s="81" t="s">
-        <v>889</v>
-      </c>
-    </row>
-    <row r="60" spans="1:15">
-      <c r="A60" s="81" t="s">
-        <v>890</v>
-      </c>
-      <c r="B60" s="81" t="s">
-        <v>856</v>
-      </c>
-      <c r="C60" s="81" t="s">
-        <v>891</v>
-      </c>
-      <c r="D60" s="81" t="s">
-        <v>892</v>
-      </c>
-      <c r="E60" s="81" t="s">
-        <v>882</v>
-      </c>
-      <c r="F60" s="81" t="s">
-        <v>893</v>
-      </c>
-      <c r="G60" s="81" t="s">
-        <v>894</v>
-      </c>
-      <c r="H60" s="81" t="s">
-        <v>895</v>
-      </c>
-      <c r="I60" s="81" t="s">
-        <v>708</v>
-      </c>
-      <c r="J60" s="81" t="s">
-        <v>896</v>
-      </c>
-      <c r="K60" s="81" t="s">
-        <v>547</v>
-      </c>
-      <c r="L60" s="81" t="s">
-        <v>897</v>
-      </c>
-      <c r="M60" s="81" t="s">
-        <v>898</v>
-      </c>
-      <c r="N60" s="81" t="s">
-        <v>829</v>
-      </c>
-      <c r="O60" s="81" t="s">
-        <v>899</v>
-      </c>
-    </row>
-    <row r="61" spans="1:15">
-      <c r="A61" s="81" t="s">
-        <v>900</v>
-      </c>
-      <c r="B61" s="81" t="s">
-        <v>901</v>
-      </c>
-      <c r="C61" s="81" t="s">
-        <v>902</v>
-      </c>
-      <c r="D61" s="81" t="s">
-        <v>903</v>
-      </c>
-      <c r="E61" s="81" t="s">
-        <v>904</v>
-      </c>
-      <c r="F61" s="81" t="s">
-        <v>545</v>
-      </c>
-      <c r="G61" s="81" t="s">
-        <v>905</v>
-      </c>
-      <c r="H61" s="81" t="s">
-        <v>906</v>
-      </c>
-      <c r="I61" s="81" t="s">
-        <v>474</v>
-      </c>
-      <c r="J61" s="81" t="s">
-        <v>907</v>
-      </c>
-      <c r="K61" s="81" t="s">
-        <v>847</v>
-      </c>
-      <c r="L61" s="81" t="s">
-        <v>705</v>
-      </c>
-      <c r="M61" s="81" t="s">
-        <v>908</v>
-      </c>
-      <c r="N61" s="81" t="s">
-        <v>909</v>
-      </c>
-      <c r="O61" s="81" t="s">
-        <v>910</v>
-      </c>
-    </row>
-    <row r="62" spans="1:15">
-      <c r="A62" s="81" t="s">
-        <v>911</v>
-      </c>
-      <c r="B62" s="81" t="s">
-        <v>912</v>
-      </c>
-      <c r="C62" s="81" t="s">
-        <v>913</v>
-      </c>
-      <c r="D62" s="81" t="s">
-        <v>914</v>
-      </c>
-      <c r="E62" s="81" t="s">
-        <v>915</v>
-      </c>
-      <c r="F62" s="81" t="s">
-        <v>916</v>
-      </c>
-      <c r="G62" s="81" t="s">
-        <v>917</v>
-      </c>
-      <c r="H62" s="81" t="s">
-        <v>918</v>
-      </c>
-      <c r="I62" s="81" t="s">
-        <v>573</v>
-      </c>
-      <c r="J62" s="81" t="s">
-        <v>919</v>
-      </c>
-      <c r="K62" s="81" t="s">
-        <v>920</v>
-      </c>
-      <c r="L62" s="81" t="s">
-        <v>349</v>
-      </c>
-      <c r="M62" s="81" t="s">
-        <v>921</v>
-      </c>
-      <c r="N62" s="81" t="s">
-        <v>922</v>
-      </c>
-      <c r="O62" s="81" t="s">
-        <v>923</v>
-      </c>
-    </row>
-    <row r="63" spans="1:15">
-      <c r="A63" s="81" t="s">
-        <v>924</v>
-      </c>
-      <c r="B63" s="81" t="s">
-        <v>912</v>
-      </c>
-      <c r="C63" s="81" t="s">
-        <v>925</v>
-      </c>
-      <c r="D63" s="81" t="s">
-        <v>926</v>
-      </c>
-      <c r="E63" s="81" t="s">
-        <v>927</v>
-      </c>
-      <c r="F63" s="81" t="s">
-        <v>928</v>
-      </c>
-      <c r="G63" s="81" t="s">
-        <v>929</v>
-      </c>
-      <c r="H63" s="81" t="s">
-        <v>930</v>
-      </c>
-      <c r="I63" s="81" t="s">
-        <v>506</v>
-      </c>
-      <c r="J63" s="81" t="s">
-        <v>931</v>
-      </c>
-      <c r="K63" s="81" t="s">
-        <v>932</v>
-      </c>
-      <c r="L63" s="81" t="s">
-        <v>933</v>
-      </c>
-      <c r="M63" s="81" t="s">
-        <v>921</v>
-      </c>
-      <c r="N63" s="81" t="s">
-        <v>934</v>
-      </c>
-      <c r="O63" s="81" t="s">
-        <v>935</v>
-      </c>
-    </row>
-    <row r="64" spans="1:15">
-      <c r="A64" s="81" t="s">
-        <v>936</v>
-      </c>
-      <c r="B64" s="81" t="s">
-        <v>937</v>
-      </c>
-      <c r="C64" s="81" t="s">
-        <v>938</v>
-      </c>
-      <c r="D64" s="81" t="s">
-        <v>939</v>
-      </c>
-      <c r="E64" s="81" t="s">
-        <v>940</v>
-      </c>
-      <c r="F64" s="81" t="s">
-        <v>865</v>
-      </c>
-      <c r="G64" s="81" t="s">
-        <v>941</v>
-      </c>
-      <c r="H64" s="81" t="s">
-        <v>942</v>
-      </c>
-      <c r="I64" s="81" t="s">
-        <v>943</v>
-      </c>
-      <c r="J64" s="81" t="s">
-        <v>944</v>
-      </c>
-      <c r="K64" s="81" t="s">
-        <v>945</v>
-      </c>
-      <c r="L64" s="81" t="s">
-        <v>946</v>
-      </c>
-      <c r="M64" s="81" t="s">
-        <v>947</v>
-      </c>
-      <c r="N64" s="81" t="s">
-        <v>948</v>
-      </c>
-      <c r="O64" s="81" t="s">
-        <v>949</v>
-      </c>
-    </row>
-    <row r="65" spans="1:15">
-      <c r="A65" s="81" t="s">
-        <v>950</v>
-      </c>
-      <c r="B65" s="81" t="s">
-        <v>543</v>
-      </c>
-      <c r="C65" s="81" t="s">
-        <v>901</v>
-      </c>
-      <c r="D65" s="81" t="s">
-        <v>951</v>
-      </c>
-      <c r="E65" s="81" t="s">
-        <v>952</v>
-      </c>
-      <c r="F65" s="81" t="s">
-        <v>953</v>
-      </c>
-      <c r="G65" s="81" t="s">
-        <v>954</v>
-      </c>
-      <c r="H65" s="81" t="s">
-        <v>955</v>
-      </c>
-      <c r="I65" s="81" t="s">
-        <v>617</v>
-      </c>
-      <c r="J65" s="81" t="s">
-        <v>956</v>
-      </c>
-      <c r="K65" s="81" t="s">
-        <v>475</v>
-      </c>
-      <c r="L65" s="81" t="s">
-        <v>957</v>
-      </c>
-      <c r="M65" s="81" t="s">
-        <v>958</v>
-      </c>
-      <c r="N65" s="81" t="s">
+      <c r="K72" s="81" t="s">
+        <v>358</v>
+      </c>
+      <c r="L72" s="81" t="s">
+        <v>359</v>
+      </c>
+      <c r="M72" s="81" t="s">
+        <v>360</v>
+      </c>
+      <c r="N72" s="81" t="s">
+        <v>335</v>
+      </c>
+      <c r="O72" s="81" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="73" spans="1:15">
+      <c r="A73" s="90" t="s">
+        <v>337</v>
+      </c>
+      <c r="B73" s="81" t="s">
+        <v>338</v>
+      </c>
+      <c r="C73" s="81" t="s">
+        <v>339</v>
+      </c>
+      <c r="D73" s="81" t="s">
+        <v>340</v>
+      </c>
+      <c r="E73" s="81" t="s">
+        <v>341</v>
+      </c>
+      <c r="F73" s="81" t="s">
+        <v>342</v>
+      </c>
+      <c r="G73" s="81" t="s">
+        <v>343</v>
+      </c>
+      <c r="H73" s="81" t="s">
+        <v>344</v>
+      </c>
+      <c r="I73" s="81" t="s">
+        <v>345</v>
+      </c>
+      <c r="J73" s="81" t="s">
+        <v>346</v>
+      </c>
+      <c r="K73" s="81" t="s">
+        <v>319</v>
+      </c>
+      <c r="L73" s="81" t="s">
+        <v>306</v>
+      </c>
+      <c r="M73" s="81" t="s">
+        <v>294</v>
+      </c>
+      <c r="N73" s="81" t="s">
+        <v>335</v>
+      </c>
+      <c r="O73" s="81" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="74" spans="1:15">
+      <c r="A74" s="90" t="s">
+        <v>323</v>
+      </c>
+      <c r="B74" s="81" t="s">
+        <v>324</v>
+      </c>
+      <c r="C74" s="81" t="s">
+        <v>325</v>
+      </c>
+      <c r="D74" s="81" t="s">
+        <v>326</v>
+      </c>
+      <c r="E74" s="81" t="s">
+        <v>327</v>
+      </c>
+      <c r="F74" s="81" t="s">
+        <v>328</v>
+      </c>
+      <c r="G74" s="81" t="s">
+        <v>329</v>
+      </c>
+      <c r="H74" s="81" t="s">
+        <v>330</v>
+      </c>
+      <c r="I74" s="81" t="s">
+        <v>331</v>
+      </c>
+      <c r="J74" s="81" t="s">
+        <v>332</v>
+      </c>
+      <c r="K74" s="81" t="s">
+        <v>333</v>
+      </c>
+      <c r="L74" s="81" t="s">
+        <v>334</v>
+      </c>
+      <c r="M74" s="81" t="s">
+        <v>294</v>
+      </c>
+      <c r="N74" s="81" t="s">
+        <v>335</v>
+      </c>
+      <c r="O74" s="81" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="75" spans="1:15">
+      <c r="A75" s="90" t="s">
+        <v>309</v>
+      </c>
+      <c r="B75" s="81" t="s">
+        <v>310</v>
+      </c>
+      <c r="C75" s="81" t="s">
+        <v>311</v>
+      </c>
+      <c r="D75" s="81" t="s">
+        <v>312</v>
+      </c>
+      <c r="E75" s="81" t="s">
+        <v>313</v>
+      </c>
+      <c r="F75" s="81" t="s">
+        <v>314</v>
+      </c>
+      <c r="G75" s="81" t="s">
+        <v>315</v>
+      </c>
+      <c r="H75" s="81" t="s">
+        <v>316</v>
+      </c>
+      <c r="I75" s="81" t="s">
+        <v>317</v>
+      </c>
+      <c r="J75" s="81" t="s">
+        <v>318</v>
+      </c>
+      <c r="K75" s="81" t="s">
+        <v>319</v>
+      </c>
+      <c r="L75" s="81" t="s">
+        <v>320</v>
+      </c>
+      <c r="M75" s="81" t="s">
+        <v>279</v>
+      </c>
+      <c r="N75" s="81" t="s">
+        <v>321</v>
+      </c>
+      <c r="O75" s="81" t="s">
         <v>322</v>
       </c>
-      <c r="O65" s="81" t="s">
-        <v>959</v>
-      </c>
-    </row>
-    <row r="66" spans="1:15">
-      <c r="A66" s="81" t="s">
-        <v>960</v>
-      </c>
-      <c r="B66" s="81" t="s">
-        <v>961</v>
-      </c>
-      <c r="C66" s="81" t="s">
-        <v>962</v>
-      </c>
-      <c r="D66" s="81" t="s">
-        <v>451</v>
-      </c>
-      <c r="E66" s="81" t="s">
-        <v>904</v>
-      </c>
-      <c r="F66" s="81" t="s">
-        <v>963</v>
-      </c>
-      <c r="G66" s="81" t="s">
-        <v>782</v>
-      </c>
-      <c r="H66" s="81" t="s">
-        <v>964</v>
-      </c>
-      <c r="I66" s="81" t="s">
-        <v>965</v>
-      </c>
-      <c r="J66" s="81" t="s">
-        <v>966</v>
-      </c>
-      <c r="K66" s="81" t="s">
-        <v>956</v>
-      </c>
-      <c r="L66" s="81" t="s">
-        <v>967</v>
-      </c>
-      <c r="M66" s="81" t="s">
-        <v>968</v>
-      </c>
-      <c r="N66" s="81" t="s">
-        <v>969</v>
-      </c>
-      <c r="O66" s="81" t="s">
-        <v>970</v>
-      </c>
-    </row>
-    <row r="67" spans="1:15">
-      <c r="A67" s="81" t="s">
-        <v>971</v>
-      </c>
-      <c r="B67" s="81" t="s">
-        <v>972</v>
-      </c>
-      <c r="C67" s="81" t="s">
-        <v>973</v>
-      </c>
-      <c r="D67" s="81" t="s">
-        <v>382</v>
-      </c>
-      <c r="E67" s="81" t="s">
-        <v>716</v>
-      </c>
-      <c r="F67" s="81" t="s">
-        <v>974</v>
-      </c>
-      <c r="G67" s="81" t="s">
-        <v>975</v>
-      </c>
-      <c r="H67" s="81" t="s">
-        <v>976</v>
-      </c>
-      <c r="I67" s="81" t="s">
-        <v>838</v>
-      </c>
-      <c r="J67" s="81" t="s">
-        <v>977</v>
-      </c>
-      <c r="K67" s="81" t="s">
-        <v>978</v>
-      </c>
-      <c r="L67" s="81" t="s">
-        <v>979</v>
-      </c>
-      <c r="M67" s="81" t="s">
-        <v>980</v>
-      </c>
-      <c r="N67" s="81" t="s">
-        <v>981</v>
-      </c>
-      <c r="O67" s="81" t="s">
-        <v>982</v>
-      </c>
-    </row>
-    <row r="68" spans="1:15">
-      <c r="A68" s="81" t="s">
-        <v>983</v>
-      </c>
-      <c r="B68" s="81" t="s">
-        <v>984</v>
-      </c>
-      <c r="C68" s="81" t="s">
-        <v>961</v>
-      </c>
-      <c r="D68" s="81" t="s">
-        <v>985</v>
-      </c>
-      <c r="E68" s="81" t="s">
-        <v>986</v>
-      </c>
-      <c r="F68" s="81" t="s">
-        <v>987</v>
-      </c>
-      <c r="G68" s="81" t="s">
-        <v>988</v>
-      </c>
-      <c r="H68" s="81" t="s">
-        <v>989</v>
-      </c>
-      <c r="I68" s="81" t="s">
-        <v>990</v>
-      </c>
-      <c r="J68" s="81" t="s">
-        <v>991</v>
-      </c>
-      <c r="K68" s="81" t="s">
-        <v>992</v>
-      </c>
-      <c r="L68" s="81" t="s">
-        <v>993</v>
-      </c>
-      <c r="M68" s="81" t="s">
-        <v>994</v>
-      </c>
-      <c r="N68" s="81" t="s">
-        <v>995</v>
-      </c>
-      <c r="O68" s="81" t="s">
-        <v>996</v>
-      </c>
-    </row>
-    <row r="69" spans="1:15">
-      <c r="A69" s="81" t="s">
-        <v>997</v>
-      </c>
-      <c r="B69" s="81" t="s">
-        <v>998</v>
-      </c>
-      <c r="C69" s="81" t="s">
-        <v>999</v>
-      </c>
-      <c r="D69" s="81" t="s">
-        <v>1000</v>
-      </c>
-      <c r="E69" s="81" t="s">
-        <v>1001</v>
-      </c>
-      <c r="F69" s="81" t="s">
-        <v>876</v>
-      </c>
-      <c r="G69" s="81" t="s">
-        <v>511</v>
-      </c>
-      <c r="H69" s="81" t="s">
-        <v>1002</v>
-      </c>
-      <c r="I69" s="81" t="s">
-        <v>760</v>
-      </c>
-      <c r="J69" s="81" t="s">
-        <v>1003</v>
-      </c>
-      <c r="K69" s="81" t="s">
-        <v>1004</v>
-      </c>
-      <c r="L69" s="81" t="s">
-        <v>1005</v>
-      </c>
-      <c r="M69" s="81" t="s">
+    </row>
+    <row r="76" spans="1:15">
+      <c r="A76" s="90" t="s">
+        <v>296</v>
+      </c>
+      <c r="B76" s="81" t="s">
+        <v>297</v>
+      </c>
+      <c r="C76" s="81" t="s">
+        <v>298</v>
+      </c>
+      <c r="D76" s="81" t="s">
+        <v>299</v>
+      </c>
+      <c r="E76" s="81" t="s">
+        <v>300</v>
+      </c>
+      <c r="F76" s="81" t="s">
+        <v>301</v>
+      </c>
+      <c r="G76" s="81" t="s">
+        <v>302</v>
+      </c>
+      <c r="H76" s="81" t="s">
+        <v>303</v>
+      </c>
+      <c r="I76" s="81" t="s">
+        <v>304</v>
+      </c>
+      <c r="J76" s="81" t="s">
+        <v>305</v>
+      </c>
+      <c r="K76" s="81" t="s">
+        <v>306</v>
+      </c>
+      <c r="L76" s="81" t="s">
+        <v>307</v>
+      </c>
+      <c r="M76" s="81" t="s">
+        <v>279</v>
+      </c>
+      <c r="N76" s="81" t="s">
+        <v>280</v>
+      </c>
+      <c r="O76" s="81" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="77" spans="1:15">
+      <c r="A77" s="90" t="s">
+        <v>282</v>
+      </c>
+      <c r="B77" s="81" t="s">
+        <v>283</v>
+      </c>
+      <c r="C77" s="81" t="s">
+        <v>284</v>
+      </c>
+      <c r="D77" s="81" t="s">
+        <v>285</v>
+      </c>
+      <c r="E77" s="81" t="s">
+        <v>286</v>
+      </c>
+      <c r="F77" s="81" t="s">
+        <v>287</v>
+      </c>
+      <c r="G77" s="81" t="s">
+        <v>288</v>
+      </c>
+      <c r="H77" s="81" t="s">
+        <v>289</v>
+      </c>
+      <c r="I77" s="81" t="s">
+        <v>290</v>
+      </c>
+      <c r="J77" s="81" t="s">
+        <v>291</v>
+      </c>
+      <c r="K77" s="81" t="s">
+        <v>292</v>
+      </c>
+      <c r="L77" s="81" t="s">
+        <v>293</v>
+      </c>
+      <c r="M77" s="81" t="s">
+        <v>294</v>
+      </c>
+      <c r="N77" s="81" t="s">
+        <v>280</v>
+      </c>
+      <c r="O77" s="81" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="78" spans="1:15">
+      <c r="A78" s="90" t="s">
+        <v>267</v>
+      </c>
+      <c r="B78" s="81" t="s">
+        <v>268</v>
+      </c>
+      <c r="C78" s="81" t="s">
+        <v>269</v>
+      </c>
+      <c r="D78" s="81" t="s">
+        <v>270</v>
+      </c>
+      <c r="E78" s="81" t="s">
+        <v>271</v>
+      </c>
+      <c r="F78" s="81" t="s">
+        <v>272</v>
+      </c>
+      <c r="G78" s="81" t="s">
+        <v>273</v>
+      </c>
+      <c r="H78" s="81" t="s">
+        <v>274</v>
+      </c>
+      <c r="I78" s="81" t="s">
+        <v>275</v>
+      </c>
+      <c r="J78" s="81" t="s">
+        <v>276</v>
+      </c>
+      <c r="K78" s="81" t="s">
+        <v>277</v>
+      </c>
+      <c r="L78" s="81" t="s">
+        <v>278</v>
+      </c>
+      <c r="M78" s="81" t="s">
+        <v>279</v>
+      </c>
+      <c r="N78" s="81" t="s">
+        <v>280</v>
+      </c>
+      <c r="O78" s="81" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="79" spans="1:15">
+      <c r="A79" s="90" t="s">
+        <v>253</v>
+      </c>
+      <c r="B79" s="81" t="s">
+        <v>254</v>
+      </c>
+      <c r="C79" s="81" t="s">
+        <v>255</v>
+      </c>
+      <c r="D79" s="81" t="s">
+        <v>256</v>
+      </c>
+      <c r="E79" s="81" t="s">
+        <v>257</v>
+      </c>
+      <c r="F79" s="81" t="s">
+        <v>258</v>
+      </c>
+      <c r="G79" s="81" t="s">
+        <v>259</v>
+      </c>
+      <c r="H79" s="81" t="s">
+        <v>260</v>
+      </c>
+      <c r="I79" s="81" t="s">
+        <v>261</v>
+      </c>
+      <c r="J79" s="81" t="s">
+        <v>262</v>
+      </c>
+      <c r="K79" s="81" t="s">
+        <v>263</v>
+      </c>
+      <c r="L79" s="81" t="s">
+        <v>264</v>
+      </c>
+      <c r="M79" s="81" t="s">
+        <v>250</v>
+      </c>
+      <c r="N79" s="81" t="s">
+        <v>265</v>
+      </c>
+      <c r="O79" s="81" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="80" spans="1:15">
+      <c r="A80" s="90" t="s">
+        <v>238</v>
+      </c>
+      <c r="B80" s="81" t="s">
+        <v>239</v>
+      </c>
+      <c r="C80" s="81" t="s">
+        <v>240</v>
+      </c>
+      <c r="D80" s="81" t="s">
+        <v>241</v>
+      </c>
+      <c r="E80" s="81" t="s">
+        <v>242</v>
+      </c>
+      <c r="F80" s="81" t="s">
+        <v>243</v>
+      </c>
+      <c r="G80" s="81" t="s">
+        <v>244</v>
+      </c>
+      <c r="H80" s="81" t="s">
+        <v>245</v>
+      </c>
+      <c r="I80" s="81" t="s">
+        <v>246</v>
+      </c>
+      <c r="J80" s="81" t="s">
+        <v>247</v>
+      </c>
+      <c r="K80" s="81" t="s">
+        <v>248</v>
+      </c>
+      <c r="L80" s="81" t="s">
+        <v>249</v>
+      </c>
+      <c r="M80" s="81" t="s">
+        <v>250</v>
+      </c>
+      <c r="N80" s="81" t="s">
+        <v>251</v>
+      </c>
+      <c r="O80" s="81" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="81" spans="1:15">
+      <c r="A81" s="90" t="s">
+        <v>223</v>
+      </c>
+      <c r="B81" s="81" t="s">
+        <v>224</v>
+      </c>
+      <c r="C81" s="81" t="s">
+        <v>225</v>
+      </c>
+      <c r="D81" s="81" t="s">
+        <v>226</v>
+      </c>
+      <c r="E81" s="81" t="s">
+        <v>227</v>
+      </c>
+      <c r="F81" s="81" t="s">
+        <v>228</v>
+      </c>
+      <c r="G81" s="81" t="s">
+        <v>229</v>
+      </c>
+      <c r="H81" s="81" t="s">
+        <v>230</v>
+      </c>
+      <c r="I81" s="81" t="s">
+        <v>231</v>
+      </c>
+      <c r="J81" s="81" t="s">
+        <v>232</v>
+      </c>
+      <c r="K81" s="81" t="s">
+        <v>233</v>
+      </c>
+      <c r="L81" s="81" t="s">
+        <v>234</v>
+      </c>
+      <c r="M81" s="81" t="s">
+        <v>235</v>
+      </c>
+      <c r="N81" s="81" t="s">
+        <v>236</v>
+      </c>
+      <c r="O81" s="81" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="82" spans="1:15">
+      <c r="A82" s="90" t="s">
+        <v>209</v>
+      </c>
+      <c r="B82" s="81" t="s">
+        <v>210</v>
+      </c>
+      <c r="C82" s="81" t="s">
+        <v>211</v>
+      </c>
+      <c r="D82" s="81" t="s">
+        <v>212</v>
+      </c>
+      <c r="E82" s="81" t="s">
+        <v>213</v>
+      </c>
+      <c r="F82" s="81" t="s">
+        <v>214</v>
+      </c>
+      <c r="G82" s="81" t="s">
+        <v>215</v>
+      </c>
+      <c r="H82" s="81" t="s">
+        <v>216</v>
+      </c>
+      <c r="I82" s="81" t="s">
+        <v>217</v>
+      </c>
+      <c r="J82" s="81" t="s">
+        <v>218</v>
+      </c>
+      <c r="K82" s="81" t="s">
+        <v>219</v>
+      </c>
+      <c r="L82" s="81" t="s">
+        <v>220</v>
+      </c>
+      <c r="M82" s="81" t="s">
+        <v>192</v>
+      </c>
+      <c r="N82" s="81" t="s">
+        <v>221</v>
+      </c>
+      <c r="O82" s="81" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="83" spans="1:15">
+      <c r="A83" s="90" t="s">
+        <v>195</v>
+      </c>
+      <c r="B83" s="81" t="s">
+        <v>196</v>
+      </c>
+      <c r="C83" s="81" t="s">
+        <v>197</v>
+      </c>
+      <c r="D83" s="81" t="s">
+        <v>198</v>
+      </c>
+      <c r="E83" s="81" t="s">
+        <v>199</v>
+      </c>
+      <c r="F83" s="81" t="s">
+        <v>200</v>
+      </c>
+      <c r="G83" s="81" t="s">
+        <v>201</v>
+      </c>
+      <c r="H83" s="81" t="s">
+        <v>202</v>
+      </c>
+      <c r="I83" s="81" t="s">
+        <v>203</v>
+      </c>
+      <c r="J83" s="81" t="s">
+        <v>204</v>
+      </c>
+      <c r="K83" s="81" t="s">
+        <v>205</v>
+      </c>
+      <c r="L83" s="81" t="s">
+        <v>206</v>
+      </c>
+      <c r="M83" s="81" t="s">
+        <v>163</v>
+      </c>
+      <c r="N83" s="81" t="s">
+        <v>207</v>
+      </c>
+      <c r="O83" s="81" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="84" spans="1:15">
+      <c r="A84" s="90" t="s">
+        <v>180</v>
+      </c>
+      <c r="B84" s="81" t="s">
+        <v>181</v>
+      </c>
+      <c r="C84" s="81" t="s">
+        <v>182</v>
+      </c>
+      <c r="D84" s="81" t="s">
+        <v>183</v>
+      </c>
+      <c r="E84" s="81" t="s">
+        <v>184</v>
+      </c>
+      <c r="F84" s="81" t="s">
+        <v>185</v>
+      </c>
+      <c r="G84" s="81" t="s">
+        <v>186</v>
+      </c>
+      <c r="H84" s="81" t="s">
+        <v>187</v>
+      </c>
+      <c r="I84" s="81" t="s">
+        <v>188</v>
+      </c>
+      <c r="J84" s="81" t="s">
+        <v>189</v>
+      </c>
+      <c r="K84" s="81" t="s">
+        <v>190</v>
+      </c>
+      <c r="L84" s="81" t="s">
+        <v>191</v>
+      </c>
+      <c r="M84" s="81" t="s">
+        <v>192</v>
+      </c>
+      <c r="N84" s="81" t="s">
+        <v>193</v>
+      </c>
+      <c r="O84" s="81" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="85" spans="1:15">
+      <c r="A85" s="90" t="s">
+        <v>166</v>
+      </c>
+      <c r="B85" s="81" t="s">
+        <v>167</v>
+      </c>
+      <c r="C85" s="81" t="s">
+        <v>168</v>
+      </c>
+      <c r="D85" s="81" t="s">
+        <v>169</v>
+      </c>
+      <c r="E85" s="81" t="s">
+        <v>170</v>
+      </c>
+      <c r="F85" s="81" t="s">
+        <v>171</v>
+      </c>
+      <c r="G85" s="81" t="s">
+        <v>172</v>
+      </c>
+      <c r="H85" s="81" t="s">
+        <v>173</v>
+      </c>
+      <c r="I85" s="81" t="s">
+        <v>174</v>
+      </c>
+      <c r="J85" s="81" t="s">
+        <v>175</v>
+      </c>
+      <c r="K85" s="81" t="s">
+        <v>176</v>
+      </c>
+      <c r="L85" s="81" t="s">
+        <v>177</v>
+      </c>
+      <c r="M85" s="81" t="s">
+        <v>163</v>
+      </c>
+      <c r="N85" s="81" t="s">
+        <v>178</v>
+      </c>
+      <c r="O85" s="81" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="86" spans="1:15">
+      <c r="A86" s="90" t="s">
+        <v>151</v>
+      </c>
+      <c r="B86" s="81" t="s">
+        <v>152</v>
+      </c>
+      <c r="C86" s="81" t="s">
+        <v>153</v>
+      </c>
+      <c r="D86" s="81" t="s">
+        <v>154</v>
+      </c>
+      <c r="E86" s="81" t="s">
+        <v>155</v>
+      </c>
+      <c r="F86" s="81" t="s">
+        <v>156</v>
+      </c>
+      <c r="G86" s="81" t="s">
+        <v>157</v>
+      </c>
+      <c r="H86" s="81" t="s">
+        <v>158</v>
+      </c>
+      <c r="I86" s="81" t="s">
+        <v>159</v>
+      </c>
+      <c r="J86" s="81" t="s">
+        <v>160</v>
+      </c>
+      <c r="K86" s="81" t="s">
+        <v>161</v>
+      </c>
+      <c r="L86" s="81" t="s">
+        <v>162</v>
+      </c>
+      <c r="M86" s="81" t="s">
+        <v>163</v>
+      </c>
+      <c r="N86" s="81" t="s">
+        <v>164</v>
+      </c>
+      <c r="O86" s="81" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="87" spans="1:15">
+      <c r="A87" s="90" t="s">
+        <v>137</v>
+      </c>
+      <c r="B87" s="81" t="s">
+        <v>138</v>
+      </c>
+      <c r="C87" s="81" t="s">
+        <v>139</v>
+      </c>
+      <c r="D87" s="81" t="s">
+        <v>140</v>
+      </c>
+      <c r="E87" s="82">
+        <v>7497</v>
+      </c>
+      <c r="F87" s="81" t="s">
+        <v>141</v>
+      </c>
+      <c r="G87" s="81" t="s">
+        <v>142</v>
+      </c>
+      <c r="H87" s="81" t="s">
+        <v>143</v>
+      </c>
+      <c r="I87" s="81" t="s">
+        <v>144</v>
+      </c>
+      <c r="J87" s="81" t="s">
+        <v>145</v>
+      </c>
+      <c r="K87" s="81" t="s">
+        <v>146</v>
+      </c>
+      <c r="L87" s="81" t="s">
+        <v>147</v>
+      </c>
+      <c r="M87" s="81" t="s">
+        <v>148</v>
+      </c>
+      <c r="N87" s="81" t="s">
+        <v>149</v>
+      </c>
+      <c r="O87" s="81" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="88" spans="1:15">
+      <c r="A88" s="90" t="s">
+        <v>123</v>
+      </c>
+      <c r="B88" s="81" t="s">
+        <v>124</v>
+      </c>
+      <c r="C88" s="81" t="s">
+        <v>125</v>
+      </c>
+      <c r="D88" s="81" t="s">
+        <v>126</v>
+      </c>
+      <c r="E88" s="82">
+        <v>8221</v>
+      </c>
+      <c r="F88" s="81" t="s">
+        <v>127</v>
+      </c>
+      <c r="G88" s="81" t="s">
+        <v>128</v>
+      </c>
+      <c r="H88" s="81" t="s">
+        <v>129</v>
+      </c>
+      <c r="I88" s="81" t="s">
+        <v>130</v>
+      </c>
+      <c r="J88" s="81" t="s">
+        <v>131</v>
+      </c>
+      <c r="K88" s="81" t="s">
+        <v>132</v>
+      </c>
+      <c r="L88" s="81" t="s">
+        <v>133</v>
+      </c>
+      <c r="M88" s="81" t="s">
+        <v>134</v>
+      </c>
+      <c r="N88" s="81" t="s">
         <v>135</v>
       </c>
-      <c r="N69" s="81" t="s">
-        <v>1006</v>
-      </c>
-      <c r="O69" s="81" t="s">
-        <v>1007</v>
-      </c>
-    </row>
-    <row r="70" spans="1:15">
-      <c r="A70" s="81" t="s">
-        <v>1008</v>
-      </c>
-      <c r="B70" s="81" t="s">
-        <v>1009</v>
-      </c>
-      <c r="C70" s="81" t="s">
-        <v>1010</v>
-      </c>
-      <c r="D70" s="81" t="s">
-        <v>1011</v>
-      </c>
-      <c r="E70" s="81" t="s">
-        <v>707</v>
-      </c>
-      <c r="F70" s="81" t="s">
-        <v>1012</v>
-      </c>
-      <c r="G70" s="81" t="s">
-        <v>1013</v>
-      </c>
-      <c r="H70" s="81" t="s">
-        <v>637</v>
-      </c>
-      <c r="I70" s="81" t="s">
-        <v>1014</v>
-      </c>
-      <c r="J70" s="81" t="s">
-        <v>1015</v>
-      </c>
-      <c r="K70" s="81" t="s">
-        <v>1016</v>
-      </c>
-      <c r="L70" s="81" t="s">
-        <v>849</v>
-      </c>
-      <c r="M70" s="81" t="s">
-        <v>1017</v>
-      </c>
-      <c r="N70" s="81" t="s">
-        <v>1018</v>
-      </c>
-      <c r="O70" s="81" t="s">
-        <v>1019</v>
-      </c>
-    </row>
-    <row r="71" spans="1:15">
-      <c r="A71" s="81" t="s">
-        <v>1020</v>
-      </c>
-      <c r="B71" s="81" t="s">
-        <v>1021</v>
-      </c>
-      <c r="C71" s="81" t="s">
-        <v>1022</v>
-      </c>
-      <c r="D71" s="81" t="s">
-        <v>1023</v>
-      </c>
-      <c r="E71" s="81" t="s">
-        <v>1024</v>
-      </c>
-      <c r="F71" s="81" t="s">
-        <v>1025</v>
-      </c>
-      <c r="G71" s="81" t="s">
-        <v>1026</v>
-      </c>
-      <c r="H71" s="81" t="s">
-        <v>1027</v>
-      </c>
-      <c r="I71" s="81" t="s">
-        <v>1028</v>
-      </c>
-      <c r="J71" s="81" t="s">
-        <v>756</v>
-      </c>
-      <c r="K71" s="81" t="s">
-        <v>1029</v>
-      </c>
-      <c r="L71" s="81" t="s">
-        <v>1030</v>
-      </c>
-      <c r="M71" s="81" t="s">
-        <v>1031</v>
-      </c>
-      <c r="N71" s="81" t="s">
-        <v>1032</v>
-      </c>
-      <c r="O71" s="81" t="s">
-        <v>1033</v>
-      </c>
-    </row>
-    <row r="72" spans="1:15">
-      <c r="A72" s="81" t="s">
-        <v>1034</v>
-      </c>
-      <c r="B72" s="81" t="s">
-        <v>1035</v>
-      </c>
-      <c r="C72" s="81" t="s">
-        <v>1036</v>
-      </c>
-      <c r="D72" s="81" t="s">
-        <v>770</v>
-      </c>
-      <c r="E72" s="81" t="s">
-        <v>1037</v>
-      </c>
-      <c r="F72" s="81" t="s">
-        <v>343</v>
-      </c>
-      <c r="G72" s="81" t="s">
-        <v>714</v>
-      </c>
-      <c r="H72" s="81" t="s">
-        <v>1038</v>
-      </c>
-      <c r="I72" s="81" t="s">
-        <v>1039</v>
-      </c>
-      <c r="J72" s="81" t="s">
-        <v>1040</v>
-      </c>
-      <c r="K72" s="81" t="s">
-        <v>1041</v>
-      </c>
-      <c r="L72" s="81" t="s">
-        <v>1042</v>
-      </c>
-      <c r="M72" s="81" t="s">
-        <v>1043</v>
-      </c>
-      <c r="N72" s="81" t="s">
-        <v>1044</v>
-      </c>
-      <c r="O72" s="81" t="s">
-        <v>1045</v>
-      </c>
-    </row>
-    <row r="73" spans="1:15">
-      <c r="A73" s="81" t="s">
-        <v>1046</v>
-      </c>
-      <c r="B73" s="81" t="s">
-        <v>677</v>
-      </c>
-      <c r="C73" s="81" t="s">
-        <v>1047</v>
-      </c>
-      <c r="D73" s="81" t="s">
-        <v>1048</v>
-      </c>
-      <c r="E73" s="81" t="s">
-        <v>1049</v>
-      </c>
-      <c r="F73" s="81" t="s">
-        <v>1050</v>
-      </c>
-      <c r="G73" s="81" t="s">
-        <v>1051</v>
-      </c>
-      <c r="H73" s="81" t="s">
-        <v>1052</v>
-      </c>
-      <c r="I73" s="81" t="s">
-        <v>1053</v>
-      </c>
-      <c r="J73" s="81" t="s">
-        <v>1054</v>
-      </c>
-      <c r="K73" s="81" t="s">
-        <v>1055</v>
-      </c>
-      <c r="L73" s="81" t="s">
-        <v>422</v>
-      </c>
-      <c r="M73" s="81" t="s">
-        <v>1056</v>
-      </c>
-      <c r="N73" s="81" t="s">
-        <v>1057</v>
-      </c>
-      <c r="O73" s="81" t="s">
-        <v>1058</v>
-      </c>
-    </row>
-    <row r="74" spans="1:15">
-      <c r="A74" s="81" t="s">
-        <v>1059</v>
-      </c>
-      <c r="B74" s="81" t="s">
-        <v>1060</v>
-      </c>
-      <c r="C74" s="81" t="s">
-        <v>1061</v>
-      </c>
-      <c r="D74" s="81" t="s">
-        <v>1062</v>
-      </c>
-      <c r="E74" s="81" t="s">
-        <v>1063</v>
-      </c>
-      <c r="F74" s="81" t="s">
-        <v>1064</v>
-      </c>
-      <c r="G74" s="81" t="s">
-        <v>1065</v>
-      </c>
-      <c r="H74" s="81" t="s">
-        <v>1066</v>
-      </c>
-      <c r="I74" s="81" t="s">
-        <v>1067</v>
-      </c>
-      <c r="J74" s="81" t="s">
-        <v>1068</v>
-      </c>
-      <c r="K74" s="81" t="s">
-        <v>1069</v>
-      </c>
-      <c r="L74" s="81" t="s">
-        <v>1070</v>
-      </c>
-      <c r="M74" s="81" t="s">
-        <v>1071</v>
-      </c>
-      <c r="N74" s="81" t="s">
-        <v>1072</v>
-      </c>
-      <c r="O74" s="81" t="s">
-        <v>1073</v>
-      </c>
-    </row>
-    <row r="75" spans="1:15">
-      <c r="A75" s="81" t="s">
-        <v>1074</v>
-      </c>
-      <c r="B75" s="81" t="s">
-        <v>870</v>
-      </c>
-      <c r="C75" s="81" t="s">
-        <v>1075</v>
-      </c>
-      <c r="D75" s="81" t="s">
-        <v>1076</v>
-      </c>
-      <c r="E75" s="81" t="s">
-        <v>1077</v>
-      </c>
-      <c r="F75" s="81" t="s">
-        <v>1078</v>
-      </c>
-      <c r="G75" s="81" t="s">
-        <v>1079</v>
-      </c>
-      <c r="H75" s="81" t="s">
-        <v>1001</v>
-      </c>
-      <c r="I75" s="81" t="s">
-        <v>1080</v>
-      </c>
-      <c r="J75" s="81" t="s">
-        <v>1081</v>
-      </c>
-      <c r="K75" s="81" t="s">
-        <v>1082</v>
-      </c>
-      <c r="L75" s="81" t="s">
-        <v>1083</v>
-      </c>
-      <c r="M75" s="81" t="s">
-        <v>541</v>
-      </c>
-      <c r="N75" s="81" t="s">
-        <v>1084</v>
-      </c>
-      <c r="O75" s="81" t="s">
-        <v>1085</v>
-      </c>
-    </row>
-    <row r="76" spans="1:15">
-      <c r="A76" s="81" t="s">
-        <v>1086</v>
-      </c>
-      <c r="B76" s="81" t="s">
-        <v>990</v>
-      </c>
-      <c r="C76" s="81" t="s">
-        <v>1087</v>
-      </c>
-      <c r="D76" s="81" t="s">
-        <v>1088</v>
-      </c>
-      <c r="E76" s="81" t="s">
-        <v>1089</v>
-      </c>
-      <c r="F76" s="81" t="s">
-        <v>1090</v>
-      </c>
-      <c r="G76" s="81" t="s">
-        <v>1091</v>
-      </c>
-      <c r="H76" s="81" t="s">
-        <v>1092</v>
-      </c>
-      <c r="I76" s="81" t="s">
-        <v>746</v>
-      </c>
-      <c r="J76" s="81" t="s">
-        <v>507</v>
-      </c>
-      <c r="K76" s="81" t="s">
-        <v>1093</v>
-      </c>
-      <c r="L76" s="81" t="s">
-        <v>1094</v>
-      </c>
-      <c r="M76" s="81" t="s">
-        <v>619</v>
-      </c>
-      <c r="N76" s="81" t="s">
-        <v>1095</v>
-      </c>
-      <c r="O76" s="81" t="s">
-        <v>1096</v>
-      </c>
-    </row>
-    <row r="77" spans="1:15">
-      <c r="A77" s="81" t="s">
-        <v>1097</v>
-      </c>
-      <c r="B77" s="81" t="s">
-        <v>1098</v>
-      </c>
-      <c r="C77" s="81" t="s">
-        <v>1099</v>
-      </c>
-      <c r="D77" s="81" t="s">
-        <v>1100</v>
-      </c>
-      <c r="E77" s="81" t="s">
-        <v>664</v>
-      </c>
-      <c r="F77" s="81" t="s">
-        <v>1101</v>
-      </c>
-      <c r="G77" s="81" t="s">
-        <v>1102</v>
-      </c>
-      <c r="H77" s="81" t="s">
-        <v>1103</v>
-      </c>
-      <c r="I77" s="81" t="s">
-        <v>1104</v>
-      </c>
-      <c r="J77" s="81" t="s">
-        <v>548</v>
-      </c>
-      <c r="K77" s="81" t="s">
-        <v>1105</v>
-      </c>
-      <c r="L77" s="81" t="s">
-        <v>1106</v>
-      </c>
-      <c r="M77" s="81" t="s">
-        <v>1107</v>
-      </c>
-      <c r="N77" s="81" t="s">
-        <v>1084</v>
-      </c>
-      <c r="O77" s="81" t="s">
-        <v>1108</v>
-      </c>
-    </row>
-    <row r="78" spans="1:15">
-      <c r="A78" s="81" t="s">
-        <v>1109</v>
-      </c>
-      <c r="B78" s="81" t="s">
-        <v>1103</v>
-      </c>
-      <c r="C78" s="81" t="s">
-        <v>1110</v>
-      </c>
-      <c r="D78" s="81" t="s">
-        <v>244</v>
-      </c>
-      <c r="E78" s="81" t="s">
-        <v>1111</v>
-      </c>
-      <c r="F78" s="81" t="s">
-        <v>1112</v>
-      </c>
-      <c r="G78" s="81" t="s">
-        <v>1113</v>
-      </c>
-      <c r="H78" s="81" t="s">
-        <v>1114</v>
-      </c>
-      <c r="I78" s="81" t="s">
-        <v>1081</v>
-      </c>
-      <c r="J78" s="81" t="s">
-        <v>1115</v>
-      </c>
-      <c r="K78" s="81" t="s">
-        <v>1116</v>
-      </c>
-      <c r="L78" s="81" t="s">
-        <v>1117</v>
-      </c>
-      <c r="M78" s="81" t="s">
-        <v>619</v>
-      </c>
-      <c r="N78" s="81" t="s">
-        <v>1118</v>
-      </c>
-      <c r="O78" s="81" t="s">
-        <v>1119</v>
-      </c>
-    </row>
-    <row r="79" spans="1:15">
-      <c r="A79" s="81" t="s">
-        <v>1120</v>
-      </c>
-      <c r="B79" s="81" t="s">
-        <v>561</v>
-      </c>
-      <c r="C79" s="81" t="s">
-        <v>1121</v>
-      </c>
-      <c r="D79" s="81" t="s">
-        <v>1122</v>
-      </c>
-      <c r="E79" s="81" t="s">
-        <v>355</v>
-      </c>
-      <c r="F79" s="81" t="s">
-        <v>1123</v>
-      </c>
-      <c r="G79" s="81" t="s">
-        <v>1124</v>
-      </c>
-      <c r="H79" s="81" t="s">
-        <v>988</v>
-      </c>
-      <c r="I79" s="81" t="s">
-        <v>1125</v>
-      </c>
-      <c r="J79" s="81" t="s">
-        <v>1126</v>
-      </c>
-      <c r="K79" s="81" t="s">
-        <v>1127</v>
-      </c>
-      <c r="L79" s="81" t="s">
-        <v>1128</v>
-      </c>
-      <c r="M79" s="81" t="s">
-        <v>1129</v>
-      </c>
-      <c r="N79" s="81" t="s">
-        <v>1130</v>
-      </c>
-      <c r="O79" s="81" t="s">
-        <v>1131</v>
-      </c>
-    </row>
-    <row r="80" spans="1:15">
-      <c r="A80" s="81" t="s">
-        <v>1132</v>
-      </c>
-      <c r="B80" s="81" t="s">
-        <v>1133</v>
-      </c>
-      <c r="C80" s="81" t="s">
-        <v>626</v>
-      </c>
-      <c r="D80" s="81" t="s">
-        <v>1134</v>
-      </c>
-      <c r="E80" s="81" t="s">
-        <v>1135</v>
-      </c>
-      <c r="F80" s="81" t="s">
-        <v>1136</v>
-      </c>
-      <c r="G80" s="81" t="s">
-        <v>1137</v>
-      </c>
-      <c r="H80" s="81" t="s">
-        <v>1138</v>
-      </c>
-      <c r="I80" s="81" t="s">
-        <v>1139</v>
-      </c>
-      <c r="J80" s="81" t="s">
-        <v>774</v>
-      </c>
-      <c r="K80" s="81" t="s">
-        <v>1140</v>
-      </c>
-      <c r="L80" s="81" t="s">
-        <v>1141</v>
-      </c>
-      <c r="M80" s="81" t="s">
-        <v>1142</v>
-      </c>
-      <c r="N80" s="81" t="s">
-        <v>1143</v>
-      </c>
-      <c r="O80" s="81" t="s">
-        <v>1144</v>
-      </c>
-    </row>
-    <row r="81" spans="1:15">
-      <c r="A81" s="81" t="s">
-        <v>1145</v>
-      </c>
-      <c r="B81" s="81" t="s">
-        <v>1146</v>
-      </c>
-      <c r="C81" s="81" t="s">
-        <v>857</v>
-      </c>
-      <c r="D81" s="81" t="s">
-        <v>1147</v>
-      </c>
-      <c r="E81" s="81" t="s">
-        <v>1148</v>
-      </c>
-      <c r="F81" s="81" t="s">
-        <v>1149</v>
-      </c>
-      <c r="G81" s="81" t="s">
-        <v>858</v>
-      </c>
-      <c r="H81" s="81" t="s">
-        <v>1150</v>
-      </c>
-      <c r="I81" s="81" t="s">
-        <v>1151</v>
-      </c>
-      <c r="J81" s="81" t="s">
-        <v>1152</v>
-      </c>
-      <c r="K81" s="81" t="s">
-        <v>1153</v>
-      </c>
-      <c r="L81" s="81" t="s">
-        <v>1154</v>
-      </c>
-      <c r="M81" s="81" t="s">
-        <v>1155</v>
-      </c>
-      <c r="N81" s="81" t="s">
-        <v>1156</v>
-      </c>
-      <c r="O81" s="81" t="s">
-        <v>1157</v>
-      </c>
-    </row>
-    <row r="82" spans="1:15">
-      <c r="A82" s="81" t="s">
-        <v>1158</v>
-      </c>
-      <c r="B82" s="81" t="s">
-        <v>756</v>
-      </c>
-      <c r="C82" s="81" t="s">
-        <v>612</v>
-      </c>
-      <c r="D82" s="81" t="s">
-        <v>1159</v>
-      </c>
-      <c r="E82" s="81" t="s">
-        <v>1160</v>
-      </c>
-      <c r="F82" s="81" t="s">
-        <v>1112</v>
-      </c>
-      <c r="G82" s="81" t="s">
-        <v>1161</v>
-      </c>
-      <c r="H82" s="81" t="s">
-        <v>1162</v>
-      </c>
-      <c r="I82" s="81" t="s">
-        <v>1163</v>
-      </c>
-      <c r="J82" s="81" t="s">
-        <v>338</v>
-      </c>
-      <c r="K82" s="81" t="s">
-        <v>1164</v>
-      </c>
-      <c r="L82" s="81" t="s">
-        <v>1165</v>
-      </c>
-      <c r="M82" s="81" t="s">
-        <v>1166</v>
-      </c>
-      <c r="N82" s="81" t="s">
-        <v>1167</v>
-      </c>
-      <c r="O82" s="81" t="s">
-        <v>642</v>
-      </c>
-    </row>
-    <row r="83" spans="1:15">
-      <c r="A83" s="81" t="s">
-        <v>1168</v>
-      </c>
-      <c r="B83" s="81" t="s">
-        <v>1169</v>
-      </c>
-      <c r="C83" s="81" t="s">
-        <v>1170</v>
-      </c>
-      <c r="D83" s="81" t="s">
-        <v>1171</v>
-      </c>
-      <c r="E83" s="81" t="s">
-        <v>598</v>
-      </c>
-      <c r="F83" s="81" t="s">
-        <v>1172</v>
-      </c>
-      <c r="G83" s="81" t="s">
-        <v>1173</v>
-      </c>
-      <c r="H83" s="81" t="s">
-        <v>349</v>
-      </c>
-      <c r="I83" s="81" t="s">
-        <v>447</v>
-      </c>
-      <c r="J83" s="81" t="s">
-        <v>1174</v>
-      </c>
-      <c r="K83" s="81" t="s">
-        <v>1175</v>
-      </c>
-      <c r="L83" s="81" t="s">
-        <v>1176</v>
-      </c>
-      <c r="M83" s="81" t="s">
-        <v>1177</v>
-      </c>
-      <c r="N83" s="81" t="s">
-        <v>1178</v>
-      </c>
-      <c r="O83" s="81" t="s">
-        <v>1170</v>
-      </c>
-    </row>
-    <row r="84" spans="1:15">
-      <c r="A84" s="81" t="s">
-        <v>1179</v>
-      </c>
-      <c r="B84" s="81" t="s">
-        <v>1139</v>
-      </c>
-      <c r="C84" s="81" t="s">
-        <v>1180</v>
-      </c>
-      <c r="D84" s="81" t="s">
-        <v>1181</v>
-      </c>
-      <c r="E84" s="81" t="s">
-        <v>1091</v>
-      </c>
-      <c r="F84" s="81" t="s">
-        <v>1182</v>
-      </c>
-      <c r="G84" s="81" t="s">
-        <v>1183</v>
-      </c>
-      <c r="H84" s="81" t="s">
-        <v>1184</v>
-      </c>
-      <c r="I84" s="81" t="s">
-        <v>743</v>
-      </c>
-      <c r="J84" s="81" t="s">
-        <v>604</v>
-      </c>
-      <c r="K84" s="81" t="s">
-        <v>1185</v>
-      </c>
-      <c r="L84" s="81" t="s">
-        <v>1186</v>
-      </c>
-      <c r="M84" s="81" t="s">
-        <v>1043</v>
-      </c>
-      <c r="N84" s="81" t="s">
-        <v>1178</v>
-      </c>
-      <c r="O84" s="81" t="s">
-        <v>1187</v>
-      </c>
-    </row>
-    <row r="85" spans="1:15">
-      <c r="A85" s="81" t="s">
-        <v>1188</v>
-      </c>
-      <c r="B85" s="81" t="s">
-        <v>423</v>
-      </c>
-      <c r="C85" s="81" t="s">
-        <v>1189</v>
-      </c>
-      <c r="D85" s="81" t="s">
-        <v>1190</v>
-      </c>
-      <c r="E85" s="81" t="s">
-        <v>881</v>
-      </c>
-      <c r="F85" s="81" t="s">
-        <v>229</v>
-      </c>
-      <c r="G85" s="81" t="s">
-        <v>422</v>
-      </c>
-      <c r="H85" s="81" t="s">
-        <v>1191</v>
-      </c>
-      <c r="I85" s="81" t="s">
-        <v>1192</v>
-      </c>
-      <c r="J85" s="81" t="s">
-        <v>1193</v>
-      </c>
-      <c r="K85" s="81" t="s">
-        <v>1194</v>
-      </c>
-      <c r="L85" s="81" t="s">
-        <v>1195</v>
-      </c>
-      <c r="M85" s="81" t="s">
-        <v>1196</v>
-      </c>
-      <c r="N85" s="81" t="s">
-        <v>1197</v>
-      </c>
-      <c r="O85" s="81" t="s">
-        <v>1092</v>
-      </c>
-    </row>
-    <row r="86" spans="1:15">
-      <c r="A86" s="81" t="s">
-        <v>1198</v>
-      </c>
-      <c r="B86" s="81" t="s">
-        <v>1199</v>
-      </c>
-      <c r="C86" s="81" t="s">
-        <v>495</v>
-      </c>
-      <c r="D86" s="81" t="s">
-        <v>1200</v>
-      </c>
-      <c r="E86" s="81" t="s">
-        <v>1201</v>
-      </c>
-      <c r="F86" s="81" t="s">
-        <v>1202</v>
-      </c>
-      <c r="G86" s="81" t="s">
-        <v>1203</v>
-      </c>
-      <c r="H86" s="81" t="s">
-        <v>1204</v>
-      </c>
-      <c r="I86" s="81" t="s">
-        <v>1205</v>
-      </c>
-      <c r="J86" s="81" t="s">
-        <v>1206</v>
-      </c>
-      <c r="K86" s="81" t="s">
-        <v>1207</v>
-      </c>
-      <c r="L86" s="81" t="s">
-        <v>1208</v>
-      </c>
-      <c r="M86" s="81" t="s">
-        <v>658</v>
-      </c>
-      <c r="N86" s="81" t="s">
-        <v>1209</v>
-      </c>
-      <c r="O86" s="81" t="s">
-        <v>1210</v>
-      </c>
-    </row>
-    <row r="87" spans="1:15">
-      <c r="A87" s="81" t="s">
-        <v>1211</v>
-      </c>
-      <c r="B87" s="81" t="s">
-        <v>1212</v>
-      </c>
-      <c r="C87" s="81" t="s">
-        <v>1213</v>
-      </c>
-      <c r="D87" s="81" t="s">
-        <v>1214</v>
-      </c>
-      <c r="E87" s="81" t="s">
-        <v>1215</v>
-      </c>
-      <c r="F87" s="81" t="s">
-        <v>1216</v>
-      </c>
-      <c r="G87" s="81" t="s">
-        <v>1217</v>
-      </c>
-      <c r="H87" s="81" t="s">
-        <v>1218</v>
-      </c>
-      <c r="I87" s="81" t="s">
-        <v>1219</v>
-      </c>
-      <c r="J87" s="81" t="s">
-        <v>1220</v>
-      </c>
-      <c r="K87" s="81" t="s">
-        <v>1221</v>
-      </c>
-      <c r="L87" s="81" t="s">
-        <v>1222</v>
-      </c>
-      <c r="M87" s="81" t="s">
-        <v>513</v>
-      </c>
-      <c r="N87" s="81" t="s">
-        <v>1223</v>
-      </c>
-      <c r="O87" s="81" t="s">
-        <v>1224</v>
-      </c>
-    </row>
-    <row r="88" spans="1:15">
-      <c r="A88" s="81" t="s">
-        <v>1225</v>
-      </c>
-      <c r="B88" s="81" t="s">
-        <v>249</v>
-      </c>
-      <c r="C88" s="81" t="s">
-        <v>478</v>
-      </c>
-      <c r="D88" s="81" t="s">
-        <v>1226</v>
-      </c>
-      <c r="E88" s="81" t="s">
-        <v>1227</v>
-      </c>
-      <c r="F88" s="81" t="s">
-        <v>1228</v>
-      </c>
-      <c r="G88" s="81" t="s">
-        <v>1229</v>
-      </c>
-      <c r="H88" s="81" t="s">
-        <v>1230</v>
-      </c>
-      <c r="I88" s="81" t="s">
-        <v>1231</v>
-      </c>
-      <c r="J88" s="81" t="s">
-        <v>1232</v>
-      </c>
-      <c r="K88" s="81" t="s">
-        <v>1233</v>
-      </c>
-      <c r="L88" s="81" t="s">
-        <v>1234</v>
-      </c>
-      <c r="M88" s="81" t="s">
-        <v>1235</v>
-      </c>
-      <c r="N88" s="81" t="s">
-        <v>1236</v>
-      </c>
       <c r="O88" s="81" t="s">
-        <v>1237</v>
+        <v>136</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:P88">
+    <sortCondition descending="1" ref="P2:P88"/>
+  </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
